--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,70 +436,90 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>features</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>ridge-mse</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ridge-mse</t>
+          <t>ridge-mae</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ridge-mae</t>
+          <t>ridge-rmse</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ridge-rmse</t>
+          <t>ridge-r2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ridge-r2</t>
+          <t>mse</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>xgboost-mse</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>xgboost-mae</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>xgboost-rmse</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>xgboost-r2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lasso-mse</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>lasso-mae</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>lasso-rmse</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>lasso-r2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>num_datasets</t>
         </is>
@@ -509,74 +529,86 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>2.26</v>
+      </c>
       <c r="D2" t="n">
-        <v>0.2563315001620023</v>
+        <v>1.34</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4146365466089677</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5062919120053196</v>
+        <v>0.47</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05624829547031684</v>
+        <v>2.65</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K2" t="n">
-        <v>1.56881430347849</v>
+        <v>0.92</v>
       </c>
       <c r="L2" t="n">
-        <v>1.169872929519933</v>
+        <v>0.78</v>
       </c>
       <c r="M2" t="n">
-        <v>1.252523174826913</v>
+        <v>0.96</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.776001669957251</v>
+        <v>0.78</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2.28</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>0.01</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.00159024629674011</v>
+        <v>0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03647289778796643</v>
+        <v>0.11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03987789233071514</v>
+        <v>0.59</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1732318747824875</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -585,47 +617,59 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002426136622541559</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03386970507747973</v>
+        <v>0.06</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04925582831037927</v>
+        <v>0.08</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.2613470196736729</v>
+        <v>0.79</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>0.04</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" t="n">
-        <v>0.1152139161393527</v>
+        <v>0.02</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3371900663275158</v>
+        <v>0.03</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3394317547598526</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9028492664506097</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -634,145 +678,181 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4747313226773748</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6224190727518495</v>
+        <v>0.2</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6890074910168792</v>
+        <v>0.27</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5996968267166967</v>
+        <v>0.92</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>0.01</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>0.05</v>
+      </c>
       <c r="D5" t="n">
-        <v>0.02092874342054181</v>
+        <v>0.21</v>
       </c>
       <c r="E5" t="n">
-        <v>0.120454602429977</v>
+        <v>0.23</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1446676999905017</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9030769339179566</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1956501790012919</v>
+        <v>0.06</v>
       </c>
       <c r="L5" t="n">
-        <v>0.377899027074944</v>
+        <v>0.21</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4423236134339788</v>
+        <v>0.25</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09392480727278574</v>
+        <v>-0.04</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>1.04</v>
+      </c>
       <c r="D6" t="n">
-        <v>0.6651168805479737</v>
+        <v>0.87</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5745082830403663</v>
+        <v>1.02</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8155469824283416</v>
+        <v>0.26</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03439599825698059</v>
+        <v>1.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6511419851565289</v>
+        <v>0.46</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5663228208029769</v>
+        <v>0.57</v>
       </c>
       <c r="M6" t="n">
-        <v>0.806933693159809</v>
+        <v>0.68</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0126621101363531</v>
+        <v>0.68</v>
       </c>
       <c r="O6" t="n">
-        <v>12</v>
+        <v>0.96</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" t="n">
-        <v>0.002342597799835311</v>
+        <v>0.04</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03463759755415401</v>
+        <v>0.05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04840039049259118</v>
+        <v>0.89</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8347335539895558</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -781,47 +861,59 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01507554298262903</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08882161353446709</v>
+        <v>0.04</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1227825027543788</v>
+        <v>0.06</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06355491778910882</v>
+        <v>0.85</v>
       </c>
       <c r="O7" t="n">
-        <v>12</v>
+        <v>0.02</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" t="n">
-        <v>0.0004737813098467893</v>
+        <v>0.03</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01823133503111588</v>
+        <v>0.04</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02176651809194087</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9990745063028126</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -830,145 +922,181 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06053905575154444</v>
+        <v>0.42</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2105911472868759</v>
+        <v>0.47</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2460468568211032</v>
+        <v>0.65</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8817418218759022</v>
+        <v>0.61</v>
       </c>
       <c r="O8" t="n">
-        <v>12</v>
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>0.03</v>
+      </c>
       <c r="D9" t="n">
-        <v>0.02148291095491551</v>
+        <v>0.14</v>
       </c>
       <c r="E9" t="n">
-        <v>0.104328537766621</v>
+        <v>0.17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1465704982420252</v>
+        <v>0.49</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4223469506693399</v>
+        <v>0.75</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-12.39</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03680001488826504</v>
+        <v>0.03</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1458826275202691</v>
+        <v>0.09</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1918332997377281</v>
+        <v>0.19</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01048601559482676</v>
+        <v>0.38</v>
       </c>
       <c r="O9" t="n">
-        <v>12</v>
+        <v>0.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>0.43</v>
+      </c>
       <c r="D10" t="n">
-        <v>2.743009508003611</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>1.442868156939601</v>
+        <v>0.65</v>
       </c>
       <c r="F10" t="n">
-        <v>1.65620334138161</v>
+        <v>0.71</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.731328101517981</v>
+        <v>0.47</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="K10" t="n">
-        <v>2.342404610947153</v>
+        <v>0.23</v>
       </c>
       <c r="L10" t="n">
-        <v>1.318411503165864</v>
+        <v>0.32</v>
       </c>
       <c r="M10" t="n">
-        <v>1.530491623938907</v>
+        <v>0.48</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.332429224301774</v>
+        <v>0.84</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>0.48</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" t="n">
-        <v>0.002373924901880895</v>
+        <v>0.04</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04435668901361192</v>
+        <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04872294020152002</v>
+        <v>0.8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4962556143935565</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -977,47 +1105,59 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004248026376519386</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05155475597127121</v>
+        <v>0.04</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06517688529317266</v>
+        <v>0.05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09857323819121844</v>
+        <v>0.79</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>0.01</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
       <c r="D12" t="n">
-        <v>0.05136501158738765</v>
+        <v>0.02</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2125376219870391</v>
+        <v>0.03</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2266385042030318</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4121428817566626</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1026,145 +1166,181 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04583328506000877</v>
+        <v>0.08</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1980819256357898</v>
+        <v>0.22</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2140870969021925</v>
+        <v>0.27</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.2600629347644834</v>
+        <v>0.89</v>
       </c>
       <c r="O12" t="n">
-        <v>4</v>
+        <v>0.02</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>0.03</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.1017647014879261</v>
+        <v>0.16</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2901611745943962</v>
+        <v>0.18</v>
       </c>
       <c r="F13" t="n">
-        <v>0.319005801652456</v>
+        <v>0.31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5473308202315349</v>
+        <v>0.03</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="K13" t="n">
-        <v>0.206077497933531</v>
+        <v>0.02</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3988708179065623</v>
+        <v>0.11</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4539575948627041</v>
+        <v>0.15</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0833272186291738</v>
+        <v>0.53</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>0.06</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>0.54</v>
+      </c>
       <c r="D14" t="n">
-        <v>4.134589132452867</v>
+        <v>0.61</v>
       </c>
       <c r="E14" t="n">
-        <v>1.831523226911435</v>
+        <v>0.74</v>
       </c>
       <c r="F14" t="n">
-        <v>2.033368912040525</v>
+        <v>0.38</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1737857068417328</v>
+        <v>0.63</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="K14" t="n">
-        <v>3.789032027998909</v>
+        <v>0.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.799523338047448</v>
+        <v>0.38</v>
       </c>
       <c r="M14" t="n">
-        <v>1.946543610608021</v>
+        <v>0.5</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.07568406309628961</v>
+        <v>0.72</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>0.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" t="n">
-        <v>0.005030582669058531</v>
+        <v>0.05</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05199202100929382</v>
+        <v>0.06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07092660057452727</v>
+        <v>0.88</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7934116464805459</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1173,47 +1349,59 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02435980696033527</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1157207759470003</v>
+        <v>0.04</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1560762857077758</v>
+        <v>0.05</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0003716752217137742</v>
+        <v>0.92</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>0.03</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" t="n">
-        <v>0.003862972518297138</v>
+        <v>0.01</v>
       </c>
       <c r="E16" t="n">
-        <v>0.04635445252120215</v>
+        <v>0.02</v>
       </c>
       <c r="F16" t="n">
-        <v>0.06215281585171454</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9954521003844352</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1222,145 +1410,181 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03183450562622359</v>
+        <v>0.04</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1667057272883887</v>
+        <v>0.17</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1784222677420719</v>
+        <v>0.19</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9625210546506762</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>0.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
       <c r="D17" t="n">
-        <v>0.1132051150017935</v>
+        <v>0.11</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3241280928082168</v>
+        <v>0.14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3364596781217528</v>
+        <v>0.24</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.268731589209038</v>
+        <v>0.02</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K17" t="n">
-        <v>0.16059654407255</v>
+        <v>0.02</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3435587880404756</v>
+        <v>0.09</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4007449863348885</v>
+        <v>0.13</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.218498145153807</v>
+        <v>0.41</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>0.03</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>0.45</v>
+      </c>
       <c r="D18" t="n">
-        <v>1.418412304569241</v>
+        <v>0.49</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9901159075665164</v>
+        <v>0.67</v>
       </c>
       <c r="F18" t="n">
-        <v>1.19097116025924</v>
+        <v>0.7</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.916048597160791</v>
+        <v>0.46</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K18" t="n">
-        <v>1.126368874639605</v>
+        <v>0.29</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8674679252199087</v>
+        <v>0.38</v>
       </c>
       <c r="M18" t="n">
-        <v>1.061305269297955</v>
+        <v>0.54</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.31564994620932</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>0.48</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
-        <v>0.007406960617049317</v>
+        <v>0.04</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07603749834942523</v>
+        <v>0.05</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0860637009258219</v>
+        <v>0.9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6468949389758432</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1369,47 +1593,59 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0.02704214331241875</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1231842418601109</v>
+        <v>0.03</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1644449552659453</v>
+        <v>0.04</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.2891546422666824</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>0.03</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" t="n">
-        <v>0.005144474846533874</v>
+        <v>0.01</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06156198088681532</v>
+        <v>0.01</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07172499457325789</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9945572059393775</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1418,145 +1654,181 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0823899937355759</v>
+        <v>0.04</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2476485450171625</v>
+        <v>0.12</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2870365721220484</v>
+        <v>0.19</v>
       </c>
       <c r="N20" t="n">
-        <v>0.9128323527792436</v>
+        <v>0.93</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>0.01</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>0.03</v>
+      </c>
       <c r="D21" t="n">
-        <v>0.0551339194698582</v>
+        <v>0.13</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1970933903688751</v>
+        <v>0.16</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2348061316700614</v>
+        <v>0.38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3920460623742131</v>
+        <v>0.02</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0988458281244297</v>
+        <v>0.01</v>
       </c>
       <c r="L21" t="n">
-        <v>0.259822169968092</v>
+        <v>0.06</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3143975638016772</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.0899589763245856</v>
+        <v>0.88</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>0.04</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>0.91</v>
+      </c>
       <c r="D22" t="n">
-        <v>0.988713739268878</v>
+        <v>0.8</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9016766539580833</v>
+        <v>0.95</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9943408566828972</v>
+        <v>0.37</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2431850909452904</v>
+        <v>0.93</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8567999450723214</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L22" t="n">
-        <v>0.8571487478823986</v>
+        <v>0.2</v>
       </c>
       <c r="M22" t="n">
-        <v>0.9256348875622188</v>
+        <v>0.27</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3441590353670124</v>
+        <v>0.95</v>
       </c>
       <c r="O22" t="n">
-        <v>7</v>
+        <v>0.87</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" t="n">
-        <v>0.01071113306760942</v>
+        <v>0.04</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09449068789923874</v>
+        <v>0.04</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1034946040506916</v>
+        <v>0.9</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6829562091896402</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1565,47 +1837,59 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04058982472752849</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1712136877267833</v>
+        <v>0.02</v>
       </c>
       <c r="M23" t="n">
-        <v>0.201469165699192</v>
+        <v>0.03</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.2014370299309374</v>
+        <v>0.95</v>
       </c>
       <c r="O23" t="n">
-        <v>7</v>
+        <v>0.02</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S23" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
       <c r="D24" t="n">
-        <v>0.004244403261291197</v>
+        <v>0.01</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05597155492351879</v>
+        <v>0.01</v>
       </c>
       <c r="F24" t="n">
-        <v>0.06514908488452617</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9939491152110917</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1614,145 +1898,181 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03638463794564235</v>
+        <v>0.04</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1631729047094838</v>
+        <v>0.13</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1907475765131561</v>
+        <v>0.19</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9481295158018876</v>
+        <v>0.93</v>
       </c>
       <c r="O24" t="n">
-        <v>7</v>
+        <v>0.01</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S24" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
       <c r="D25" t="n">
-        <v>0.0538158183114108</v>
+        <v>0.1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2147776515832861</v>
+        <v>0.14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2319823663803152</v>
+        <v>0.44</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2648572857296065</v>
+        <v>0.01</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0815301878709216</v>
+        <v>0.02</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2266406501227361</v>
+        <v>0.08</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2855349153272181</v>
+        <v>0.15</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.1137305997945934</v>
+        <v>0.34</v>
       </c>
       <c r="O25" t="n">
-        <v>7</v>
+        <v>0.03</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S25" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>0.76</v>
+      </c>
       <c r="D26" t="n">
-        <v>1.292963853778752</v>
+        <v>0.68</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9055804118682681</v>
+        <v>0.87</v>
       </c>
       <c r="F26" t="n">
-        <v>1.137085684448957</v>
+        <v>0.53</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.6901272370970439</v>
+        <v>0.77</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="K26" t="n">
-        <v>1.037206616128021</v>
+        <v>0.3</v>
       </c>
       <c r="L26" t="n">
-        <v>0.8837372574145544</v>
+        <v>0.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.018433412711907</v>
+        <v>0.55</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.3558083215489452</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>8</v>
+        <v>0.77</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S26" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
       <c r="D27" t="n">
-        <v>0.003835376880421413</v>
+        <v>0.02</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04136122683413001</v>
+        <v>0.03</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06193041966934677</v>
+        <v>0.93</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8478791820777187</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1761,47 +2081,59 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02809918013132333</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1228892159781628</v>
+        <v>0.03</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1676281006613251</v>
+        <v>0.04</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.1144850682973202</v>
+        <v>0.9</v>
       </c>
       <c r="O27" t="n">
-        <v>8</v>
+        <v>0.02</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
       <c r="D28" t="n">
-        <v>0.004999883824281021</v>
+        <v>0.01</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06064182018415945</v>
+        <v>0.01</v>
       </c>
       <c r="F28" t="n">
-        <v>0.07070985662749586</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9861657175692256</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1810,145 +2142,181 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0698997124504568</v>
+        <v>0.03</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2309332804998625</v>
+        <v>0.13</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2643855375213569</v>
+        <v>0.17</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8065930333874122</v>
+        <v>0.96</v>
       </c>
       <c r="O28" t="n">
-        <v>8</v>
+        <v>0.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S28" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
       <c r="D29" t="n">
-        <v>0.0236240382905077</v>
+        <v>0.1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1342551884699202</v>
+        <v>0.14</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1537011330163434</v>
+        <v>0.59</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1634120063932867</v>
+        <v>0.02</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03776709644250763</v>
+        <v>0.01</v>
       </c>
       <c r="L29" t="n">
-        <v>0.1365855270378441</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1943375837106854</v>
+        <v>0.1</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.3374300806938664</v>
+        <v>0.8</v>
       </c>
       <c r="O29" t="n">
-        <v>8</v>
+        <v>0.05</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="S29" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>baseline-raw</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>0.89</v>
+      </c>
       <c r="D30" t="n">
-        <v>1.312546458388968</v>
+        <v>0.71</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8955663728695225</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>1.145664199662784</v>
+        <v>0.47</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06804099051130386</v>
+        <v>0.92</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K30" t="n">
-        <v>1.256140915138356</v>
+        <v>0.14</v>
       </c>
       <c r="L30" t="n">
-        <v>0.8818894117720616</v>
+        <v>0.28</v>
       </c>
       <c r="M30" t="n">
-        <v>1.120776924788495</v>
+        <v>0.37</v>
       </c>
       <c r="N30" t="n">
-        <v>0.1080911189326891</v>
+        <v>0.92</v>
       </c>
       <c r="O30" t="n">
-        <v>9</v>
+        <v>0.86</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="S30" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>baseline-norm</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
       <c r="D31" t="n">
-        <v>0.002673213705228096</v>
+        <v>0.03</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03959232182809783</v>
+        <v>0.03</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05170313051671142</v>
+        <v>0.91</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8451194345182609</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1957,47 +2325,59 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.02293591309537023</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1173218133621848</v>
+        <v>0.03</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1514460732253241</v>
+        <v>0.04</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.3288601592545928</v>
+        <v>0.87</v>
       </c>
       <c r="O31" t="n">
-        <v>9</v>
+        <v>0.01</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>all-raw</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" t="n">
-        <v>0.001051591662375078</v>
+        <v>0.01</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02513372362102137</v>
+        <v>0.01</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0324282540753442</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9986489156072076</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2006,658 +2386,94 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05253468654338588</v>
+        <v>0.02</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1781430990902687</v>
+        <v>0.11</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2292044644927011</v>
+        <v>0.15</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9325034634558628</v>
+        <v>0.95</v>
       </c>
       <c r="O32" t="n">
-        <v>9</v>
+        <v>0.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="S32" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B33" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>all-norm</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
       <c r="D33" t="n">
-        <v>0.03440152360921338</v>
+        <v>0.1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1526312286107874</v>
+        <v>0.13</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1854764772396041</v>
+        <v>0.28</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2774602987013874</v>
+        <v>0.02</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="K33" t="n">
-        <v>0.05955263488588128</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.1961744076718274</v>
+        <v>0.05</v>
       </c>
       <c r="M33" t="n">
-        <v>0.2440340855001229</v>
+        <v>0.06</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.250791782096127</v>
+        <v>0.83</v>
       </c>
       <c r="O33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0.4800496808880096</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5280274250586555</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.6928561761924401</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.543922360178595</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.4957350496976329</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.5287625125820319</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7040845472651938</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.5290202651012939</v>
-      </c>
-      <c r="O34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0.004279370641382916</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.05068558113719699</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.06541689874476561</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.8313881066504163</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.02641134720201314</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.1318995056127641</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.1625156829417184</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-0.04063602591000537</v>
-      </c>
-      <c r="O35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0007738656154084155</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.02369470132871502</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0278184402044474</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.9988383292025403</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.0619113898035307</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.2077558661849636</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.2488199947824344</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.9070631229338886</v>
-      </c>
-      <c r="O36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0.03494380181676177</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.1549402297848863</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.1869326130367887</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.1572863562260429</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.0452099444771262</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.1694876672356727</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.2126263024113579</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-0.09029456053239282</v>
-      </c>
-      <c r="O37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>1.026925026771215</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.7792487785176159</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.013373093569794</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.2736841731108771</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1.032612665801136</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.7728258631065714</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.016175509349215</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.2696614624578395</v>
-      </c>
-      <c r="O38" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0.001405359738042686</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.02693104668314261</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.03748812796129844</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.8606897681030241</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.01134989345307584</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0829786774910969</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.1065358787126471</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-0.1250900720666146</v>
-      </c>
-      <c r="O39" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0.0006631999104758697</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.02010327749835614</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.02575266802635932</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.998972839148087</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.05413101839681583</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.196351470991223</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.2326607366893173</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.9161621373991222</v>
-      </c>
-      <c r="O40" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0.02333375929870494</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.1122399609063723</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.1527539174578018</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.4756388355079532</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.04227677358919015</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.1544333887809672</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.205613164921875</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.04994741968454564</v>
-      </c>
-      <c r="O41" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9874637896670498</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.777102010868192</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.9937121261547782</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.4835966844994926</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.9413750057837428</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.7528938146576868</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9702448174475052</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.5076992400096557</v>
-      </c>
-      <c r="O42" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0.002242688957277895</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.03810373566171948</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.04735703704073868</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.8487686156610456</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.01540180617310149</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.09810274962560186</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.124104013525355</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-0.038590956324833</v>
-      </c>
-      <c r="O43" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0.0002255048174374992</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.01182776022622138</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.01501681781994771</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.9995783330966469</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.03589581261852858</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.1568481929912974</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.1894619028156547</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.9328791450125332</v>
-      </c>
-      <c r="O44" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0.01914761385981106</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.1000707694523143</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.1383749032874497</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.5172374552444661</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.03799129651796557</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.1456545896025763</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.1949135616573808</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.04213782877298466</v>
-      </c>
-      <c r="O45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="S33" t="n">
         <v>13</v>
       </c>
     </row>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -535,52 +535,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.26</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>1.34</v>
+        <v>0.84</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>0.97</v>
       </c>
       <c r="F2" t="n">
-        <v>0.47</v>
+        <v>0.33</v>
       </c>
       <c r="G2" t="n">
-        <v>2.65</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="I2" t="n">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="J2" t="n">
-        <v>0.37</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.92</v>
+        <v>0.35</v>
       </c>
       <c r="L2" t="n">
-        <v>0.78</v>
+        <v>0.43</v>
       </c>
       <c r="M2" t="n">
-        <v>0.96</v>
+        <v>0.59</v>
       </c>
       <c r="N2" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="O2" t="n">
-        <v>2.28</v>
+        <v>0.86</v>
       </c>
       <c r="P2" t="n">
-        <v>1.38</v>
+        <v>0.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.51</v>
+        <v>0.93</v>
       </c>
       <c r="R2" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -596,16 +596,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.06</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.08</v>
       </c>
       <c r="N3" t="n">
         <v>0.79</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P3" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.51</v>
+        <v>-0.32</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -681,28 +681,28 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="M4" t="n">
-        <v>0.27</v>
+        <v>0.68</v>
       </c>
       <c r="N4" t="n">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="R4" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -718,52 +718,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D5" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="E5" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>-1.32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H5" t="n">
         <v>0.22</v>
       </c>
       <c r="I5" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.17</v>
+        <v>-2.26</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="M5" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04</v>
+        <v>-0.82</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="P5" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.08</v>
+        <v>0.08</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -779,52 +779,52 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I6" t="n">
         <v>1.04</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.05</v>
-      </c>
       <c r="J6" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="K6" t="n">
-        <v>0.46</v>
+        <v>0.86</v>
       </c>
       <c r="L6" t="n">
-        <v>0.57</v>
+        <v>0.76</v>
       </c>
       <c r="M6" t="n">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="N6" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="O6" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="P6" t="n">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="R6" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="S6" t="n">
         <v>7</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="N7" t="n">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="O7" t="n">
         <v>0.02</v>
       </c>
       <c r="P7" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="Q7" t="n">
         <v>0.15</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -904,11 +904,11 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.03</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.04</v>
-      </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
@@ -925,28 +925,28 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="M8" t="n">
-        <v>0.65</v>
+        <v>0.23</v>
       </c>
       <c r="N8" t="n">
-        <v>0.61</v>
+        <v>0.93</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P8" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="R8" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="S8" t="n">
         <v>7</v>
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D9" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="I9" t="n">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="J9" t="n">
-        <v>-12.39</v>
+        <v>-12.75</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="N9" t="n">
-        <v>0.38</v>
+        <v>-0.32</v>
       </c>
       <c r="O9" t="n">
         <v>0.05</v>
       </c>
       <c r="P9" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="Q9" t="n">
         <v>0.23</v>
       </c>
       <c r="R9" t="n">
-        <v>0.09</v>
+        <v>-0.19</v>
       </c>
       <c r="S9" t="n">
         <v>7</v>
@@ -1023,52 +1023,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.43</v>
+        <v>0.85</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="E10" t="n">
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
       <c r="F10" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.71</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.61</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="R10" t="n">
-        <v>0.68</v>
+        <v>0.42</v>
       </c>
       <c r="S10" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E11" t="n">
         <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="N11" t="n">
-        <v>0.79</v>
+        <v>0.87</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0</v>
       </c>
       <c r="S11" t="n">
         <v>8</v>
@@ -1151,7 +1151,7 @@
         <v>0.02</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -1169,28 +1169,28 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.08</v>
       </c>
-      <c r="L12" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.13</v>
-      </c>
       <c r="R12" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="S12" t="n">
         <v>8</v>
@@ -1209,49 +1209,49 @@
         <v>0.03</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03</v>
+        <v>2.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13</v>
+        <v>0.59</v>
       </c>
       <c r="I13" t="n">
-        <v>0.16</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>0.48</v>
+        <v>-33.85</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.11</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.15</v>
-      </c>
       <c r="N13" t="n">
-        <v>0.53</v>
+        <v>0.8</v>
       </c>
       <c r="O13" t="n">
         <v>0.06</v>
       </c>
       <c r="P13" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="Q13" t="n">
         <v>0.24</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.19</v>
+        <v>-0</v>
       </c>
       <c r="S13" t="n">
         <v>8</v>
@@ -1267,49 +1267,49 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="E14" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="F14" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="H14" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I14" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="J14" t="n">
-        <v>0.28</v>
+        <v>0.19</v>
       </c>
       <c r="K14" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="L14" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="N14" t="n">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="P14" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R14" t="n">
         <v>0.42</v>
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F15" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1355,25 +1355,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.04</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.05</v>
       </c>
       <c r="N15" t="n">
         <v>0.92</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P15" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.04</v>
+        <v>-0</v>
       </c>
       <c r="S15" t="n">
         <v>9</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E16" t="n">
         <v>0.02</v>
@@ -1413,25 +1413,25 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="M16" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="R16" t="n">
         <v>0.98</v>
@@ -1450,52 +1450,52 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.11</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.13</v>
-      </c>
       <c r="N17" t="n">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="O17" t="n">
         <v>0.03</v>
       </c>
       <c r="P17" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.09</v>
+        <v>-0.05</v>
       </c>
       <c r="S17" t="n">
         <v>9</v>
@@ -1511,52 +1511,52 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.45</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.38</v>
-      </c>
       <c r="M18" t="n">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="O18" t="n">
-        <v>0.48</v>
+        <v>1.05</v>
       </c>
       <c r="P18" t="n">
-        <v>0.51</v>
+        <v>0.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.04</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.05</v>
-      </c>
       <c r="F19" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1605,19 +1605,19 @@
         <v>0.04</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P19" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -1657,28 +1657,28 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="M20" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="N20" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O20" t="n">
         <v>0.01</v>
       </c>
       <c r="P20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="R20" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -1694,19 +1694,19 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.03</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.02</v>
       </c>
       <c r="H21" t="n">
         <v>0.13</v>
@@ -1715,7 +1715,7 @@
         <v>0.16</v>
       </c>
       <c r="J21" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="K21" t="n">
         <v>0.01</v>
@@ -1724,22 +1724,22 @@
         <v>0.06</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N21" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P21" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -1755,49 +1755,49 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="E22" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="F22" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="G22" t="n">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I22" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="J22" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="K22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="M22" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O22" t="n">
-        <v>0.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="R22" t="n">
         <v>0.4</v>
@@ -1843,25 +1843,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="N23" t="n">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="O23" t="n">
         <v>0.02</v>
       </c>
       <c r="P23" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="S23" t="n">
         <v>11</v>
@@ -1883,7 +1883,7 @@
         <v>0.01</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1901,25 +1901,25 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L24" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="M24" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="N24" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O24" t="n">
         <v>0.01</v>
       </c>
       <c r="P24" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="R24" t="n">
         <v>0.98</v>
@@ -1941,49 +1941,49 @@
         <v>0.02</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E25" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="F25" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H25" t="n">
         <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J25" t="n">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="K25" t="n">
         <v>0.02</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="N25" t="n">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="P25" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="R25" t="n">
-        <v>0.08</v>
+        <v>-0.02</v>
       </c>
       <c r="S25" t="n">
         <v>11</v>
@@ -1999,52 +1999,52 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="D26" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="E26" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="F26" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="G26" t="n">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
       <c r="H26" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="I26" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="M26" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O26" t="n">
         <v>0.55</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.77</v>
-      </c>
       <c r="P26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="R26" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="S26" t="n">
         <v>12</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E27" t="n">
         <v>0.03</v>
@@ -2087,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.03</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.04</v>
-      </c>
       <c r="N27" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="O27" t="n">
         <v>0.02</v>
       </c>
       <c r="P27" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="R27" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="S27" t="n">
         <v>12</v>
@@ -2145,28 +2145,28 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L28" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="M28" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="N28" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O28" t="n">
         <v>0.01</v>
       </c>
       <c r="P28" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="R28" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="S28" t="n">
         <v>12</v>
@@ -2188,46 +2188,46 @@
         <v>0.1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F29" t="n">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="G29" t="n">
         <v>0.02</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J29" t="n">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="O29" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="P29" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="S29" t="n">
         <v>12</v>
@@ -2243,52 +2243,52 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F30" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="G30" t="n">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="H30" t="n">
         <v>0.73</v>
       </c>
       <c r="I30" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="J30" t="n">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
       <c r="K30" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="L30" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="M30" t="n">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="N30" t="n">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="O30" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="R30" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="S30" t="n">
         <v>13</v>
@@ -2307,37 +2307,37 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E31" t="n">
         <v>0.03</v>
       </c>
       <c r="F31" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.91</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.87</v>
       </c>
       <c r="O31" t="n">
         <v>0.01</v>
@@ -2349,7 +2349,7 @@
         <v>0.11</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S31" t="n">
         <v>13</v>
@@ -2392,25 +2392,25 @@
         <v>0.02</v>
       </c>
       <c r="L32" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="M32" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="N32" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O32" t="n">
         <v>0.01</v>
       </c>
       <c r="P32" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="R32" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="S32" t="n">
         <v>13</v>
@@ -2429,49 +2429,49 @@
         <v>0.02</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.13</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.14</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="N33" t="n">
-        <v>0.83</v>
+        <v>0.54</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P33" t="n">
         <v>0.12</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.22</v>
+        <v>-0.02</v>
       </c>
       <c r="S33" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -535,52 +535,52 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.84</v>
-      </c>
       <c r="E2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.97</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="Q2" t="n">
         <v>1.18</v>
       </c>
-      <c r="J2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.93</v>
-      </c>
       <c r="R2" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="S2" t="n">
         <v>6</v>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
         <v>0.06</v>
@@ -605,7 +605,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -632,16 +632,16 @@
         <v>0.79</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0.15</v>
-      </c>
       <c r="R3" t="n">
-        <v>-0.32</v>
+        <v>0.06</v>
       </c>
       <c r="S3" t="n">
         <v>6</v>
@@ -660,49 +660,49 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E4" t="n">
+      <c r="Q4" t="n">
         <v>0.05</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="R4" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>6</v>
@@ -718,52 +718,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.32</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09</v>
+        <v>1.28</v>
       </c>
       <c r="H5" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-27.67</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.22</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-2.26</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-0.82</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.16</v>
-      </c>
       <c r="R5" t="n">
-        <v>0.08</v>
+        <v>-0.12</v>
       </c>
       <c r="S5" t="n">
         <v>6</v>
@@ -779,52 +779,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.82</v>
+        <v>1.83</v>
       </c>
       <c r="D6" t="n">
-        <v>0.72</v>
+        <v>1.14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.91</v>
+        <v>1.35</v>
       </c>
       <c r="F6" t="n">
-        <v>0.41</v>
+        <v>-0.08</v>
       </c>
       <c r="G6" t="n">
-        <v>1.08</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="I6" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="J6" t="n">
-        <v>0.23</v>
+        <v>-0.28</v>
       </c>
       <c r="K6" t="n">
-        <v>0.86</v>
+        <v>1.38</v>
       </c>
       <c r="L6" t="n">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="M6" t="n">
-        <v>0.93</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="O6" t="n">
-        <v>0.85</v>
+        <v>1.69</v>
       </c>
       <c r="P6" t="n">
-        <v>0.76</v>
+        <v>1.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.92</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="S6" t="n">
         <v>7</v>
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0.01</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="N7" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="O7" t="n">
         <v>0.02</v>
       </c>
       <c r="P7" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q7" t="n">
         <v>0.15</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01</v>
+        <v>-0.33</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -907,7 +907,7 @@
         <v>0.02</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -925,25 +925,25 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="L8" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="M8" t="n">
-        <v>0.23</v>
+        <v>0.41</v>
       </c>
       <c r="N8" t="n">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="O8" t="n">
         <v>0.01</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="R8" t="n">
         <v>0.99</v>
@@ -965,49 +965,49 @@
         <v>0.04</v>
       </c>
       <c r="D9" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="I9" t="n">
-        <v>0.77</v>
+        <v>0.32</v>
       </c>
       <c r="J9" t="n">
-        <v>-12.75</v>
+        <v>-0.29</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="M9" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.32</v>
+        <v>0.74</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="P9" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.19</v>
+        <v>-0.04</v>
       </c>
       <c r="S9" t="n">
         <v>7</v>
@@ -1023,52 +1023,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.85</v>
+        <v>1.4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="E10" t="n">
-        <v>0.92</v>
+        <v>1.18</v>
       </c>
       <c r="F10" t="n">
-        <v>0.34</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
-        <v>0.79</v>
+        <v>0.89</v>
       </c>
       <c r="I10" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="J10" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="K10" t="n">
-        <v>0.22</v>
+        <v>0.88</v>
       </c>
       <c r="L10" t="n">
-        <v>0.36</v>
+        <v>0.66</v>
       </c>
       <c r="M10" t="n">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N10" t="n">
-        <v>0.83</v>
+        <v>0.44</v>
       </c>
       <c r="O10" t="n">
-        <v>0.75</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="R10" t="n">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="S10" t="n">
         <v>8</v>
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F11" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1108,28 +1108,28 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L11" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P11" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="S11" t="n">
         <v>8</v>
@@ -1151,46 +1151,46 @@
         <v>0.02</v>
       </c>
       <c r="E12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.02</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.01</v>
-      </c>
       <c r="P12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="R12" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="S12" t="n">
         <v>8</v>
@@ -1206,52 +1206,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F13" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="G13" t="n">
-        <v>2.01</v>
+        <v>0.63</v>
       </c>
       <c r="H13" t="n">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="I13" t="n">
-        <v>1.42</v>
+        <v>0.79</v>
       </c>
       <c r="J13" t="n">
-        <v>-33.85</v>
+        <v>-10.37</v>
       </c>
       <c r="K13" t="n">
         <v>0.01</v>
       </c>
       <c r="L13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.09</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.11</v>
-      </c>
       <c r="N13" t="n">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="O13" t="n">
         <v>0.06</v>
       </c>
       <c r="P13" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="R13" t="n">
-        <v>-0</v>
+        <v>-0.12</v>
       </c>
       <c r="S13" t="n">
         <v>8</v>
@@ -1267,52 +1267,52 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="D14" t="n">
-        <v>0.58</v>
+        <v>0.8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.71</v>
+        <v>1.01</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="G14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.67</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.68</v>
-      </c>
       <c r="O14" t="n">
-        <v>0.48</v>
+        <v>0.96</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="R14" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="S14" t="n">
         <v>9</v>
@@ -1337,7 +1337,7 @@
         <v>0.04</v>
       </c>
       <c r="F15" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1355,25 +1355,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N15" t="n">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="O15" t="n">
         <v>0.02</v>
       </c>
       <c r="P15" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="R15" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="S15" t="n">
         <v>9</v>
@@ -1413,16 +1413,16 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="M16" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="N16" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O16" t="n">
         <v>0.02</v>
@@ -1431,7 +1431,7 @@
         <v>0.11</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="R16" t="n">
         <v>0.98</v>
@@ -1453,49 +1453,49 @@
         <v>0.03</v>
       </c>
       <c r="D17" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E17" t="n">
         <v>0.17</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.21</v>
+        <v>0.29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H17" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I17" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.45</v>
+        <v>0.5</v>
       </c>
       <c r="K17" t="n">
         <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="N17" t="n">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="P17" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.05</v>
+        <v>-0.35</v>
       </c>
       <c r="S17" t="n">
         <v>9</v>
@@ -1511,52 +1511,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="D18" t="n">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="E18" t="n">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="F18" t="n">
-        <v>0.36</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>0.97</v>
       </c>
       <c r="H18" t="n">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="I18" t="n">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="J18" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="K18" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="L18" t="n">
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="N18" t="n">
-        <v>0.72</v>
+        <v>0.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="P18" t="n">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.03</v>
+        <v>0.89</v>
       </c>
       <c r="R18" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="N19" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O19" t="n">
         <v>0.02</v>
@@ -1617,7 +1617,7 @@
         <v>0.15</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.08</v>
+        <v>0.05</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -1657,25 +1657,25 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="L20" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="M20" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="N20" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O20" t="n">
         <v>0.01</v>
       </c>
       <c r="P20" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="R20" t="n">
         <v>0.98</v>
@@ -1697,13 +1697,13 @@
         <v>0.02</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E21" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F21" t="n">
-        <v>0.61</v>
+        <v>0.43</v>
       </c>
       <c r="G21" t="n">
         <v>0.03</v>
@@ -1715,31 +1715,31 @@
         <v>0.16</v>
       </c>
       <c r="J21" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="N21" t="n">
-        <v>0.85</v>
+        <v>0.61</v>
       </c>
       <c r="O21" t="n">
         <v>0.05</v>
       </c>
       <c r="P21" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q21" t="n">
         <v>0.22</v>
       </c>
       <c r="R21" t="n">
-        <v>-0</v>
+        <v>-0.19</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -1755,52 +1755,52 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="O22" t="n">
         <v>0.71</v>
       </c>
-      <c r="D22" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="P22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0.84</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.83</v>
-      </c>
       <c r="R22" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
       <c r="S22" t="n">
         <v>11</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M23" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="N23" t="n">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P23" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q23" t="n">
         <v>0.12</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.14</v>
       </c>
       <c r="R23" t="n">
         <v>-0.01</v>
@@ -1901,16 +1901,16 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="L24" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="M24" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="N24" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="O24" t="n">
         <v>0.01</v>
@@ -1919,7 +1919,7 @@
         <v>0.09</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="R24" t="n">
         <v>0.98</v>
@@ -1938,52 +1938,52 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D25" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E25" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F25" t="n">
-        <v>0.51</v>
+        <v>0.28</v>
       </c>
       <c r="G25" t="n">
         <v>0.02</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I25" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="J25" t="n">
-        <v>0.66</v>
+        <v>0.41</v>
       </c>
       <c r="K25" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="M25" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="N25" t="n">
-        <v>0.61</v>
+        <v>0.19</v>
       </c>
       <c r="O25" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P25" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.02</v>
+        <v>-0</v>
       </c>
       <c r="S25" t="n">
         <v>11</v>
@@ -1999,52 +1999,52 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
       <c r="D26" t="n">
-        <v>0.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="F26" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="G26" t="n">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="H26" t="n">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="L26" t="n">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="M26" t="n">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="N26" t="n">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="O26" t="n">
-        <v>0.55</v>
+        <v>0.9</v>
       </c>
       <c r="P26" t="n">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
       <c r="R26" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="S26" t="n">
         <v>12</v>
@@ -2069,7 +2069,7 @@
         <v>0.03</v>
       </c>
       <c r="F27" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2087,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M27" t="n">
         <v>0.03</v>
       </c>
       <c r="N27" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q27" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q27" t="n">
-        <v>0.13</v>
-      </c>
       <c r="R27" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="S27" t="n">
         <v>12</v>
@@ -2145,28 +2145,28 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="M28" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="N28" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O28" t="n">
         <v>0.01</v>
       </c>
       <c r="P28" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="R28" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="S28" t="n">
         <v>12</v>
@@ -2182,52 +2182,52 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="E29" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F29" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="G29" t="n">
         <v>0.02</v>
       </c>
       <c r="H29" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M29" t="n">
         <v>0.1</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O29" t="n">
         <v>0.04</v>
       </c>
-      <c r="M29" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.03</v>
-      </c>
       <c r="P29" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="S29" t="n">
         <v>12</v>
@@ -2243,52 +2243,52 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D30" t="n">
-        <v>0.74</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="F30" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8</v>
+        <v>0.51</v>
       </c>
       <c r="H30" t="n">
-        <v>0.73</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="J30" t="n">
         <v>0.53</v>
       </c>
       <c r="K30" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="M30" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O30" t="n">
         <v>0.47</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.82</v>
-      </c>
       <c r="P30" t="n">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R30" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S30" t="n">
         <v>13</v>
@@ -2331,25 +2331,25 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="N31" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O31" t="n">
         <v>0.01</v>
       </c>
       <c r="P31" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="R31" t="n">
-        <v>-0</v>
+        <v>-0.05</v>
       </c>
       <c r="S31" t="n">
         <v>13</v>
@@ -2389,25 +2389,25 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L32" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="M32" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="N32" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O32" t="n">
         <v>0.01</v>
       </c>
       <c r="P32" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="R32" t="n">
         <v>0.98</v>
@@ -2429,10 +2429,10 @@
         <v>0.02</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F33" t="n">
         <v>0.38</v>
@@ -2441,34 +2441,34 @@
         <v>0.02</v>
       </c>
       <c r="H33" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I33" t="n">
         <v>0.13</v>
       </c>
       <c r="J33" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="K33" t="n">
         <v>0.01</v>
       </c>
       <c r="L33" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M33" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N33" t="n">
-        <v>0.54</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P33" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="R33" t="n">
         <v>-0.02</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,55 +535,55 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3</v>
+        <v>0.49</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="E2" t="n">
-        <v>1.14</v>
+        <v>0.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>-0.95</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0.09</v>
       </c>
       <c r="H2" t="n">
-        <v>1.14</v>
+        <v>0.25</v>
       </c>
       <c r="I2" t="n">
-        <v>1.31</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="K2" t="n">
-        <v>1.22</v>
+        <v>0.05</v>
       </c>
       <c r="L2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.89</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.18</v>
-      </c>
       <c r="R2" t="n">
-        <v>0.36</v>
+        <v>-2.12</v>
       </c>
       <c r="S2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -596,55 +596,55 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F3" t="n">
-        <v>0.64</v>
+        <v>0.35</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>-1.13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="N3" t="n">
-        <v>0.79</v>
+        <v>0.12</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06</v>
+        <v>-0.46</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -660,52 +660,52 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="K4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="L4" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="M4" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="N4" t="n">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -718,55 +718,55 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.79</v>
       </c>
       <c r="G5" t="n">
-        <v>1.28</v>
+        <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.59</v>
+        <v>0.09</v>
       </c>
       <c r="I5" t="n">
-        <v>1.13</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>-27.67</v>
+        <v>0.87</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="L5" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="M5" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="N5" t="n">
-        <v>0.38</v>
+        <v>-0.46</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="P5" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.12</v>
+        <v>-0.79</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -779,55 +779,55 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.83</v>
+        <v>0.97</v>
       </c>
       <c r="D6" t="n">
-        <v>1.14</v>
+        <v>0.64</v>
       </c>
       <c r="E6" t="n">
-        <v>1.35</v>
+        <v>0.99</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08</v>
+        <v>-0.72</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="H6" t="n">
-        <v>1.18</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1.48</v>
+        <v>1.34</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.28</v>
+        <v>-2.15</v>
       </c>
       <c r="K6" t="n">
-        <v>1.38</v>
+        <v>0.84</v>
       </c>
       <c r="L6" t="n">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="N6" t="n">
-        <v>0.19</v>
+        <v>-0.48</v>
       </c>
       <c r="O6" t="n">
-        <v>1.69</v>
+        <v>0.82</v>
       </c>
       <c r="P6" t="n">
-        <v>1.14</v>
+        <v>0.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.3</v>
+        <v>0.91</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01</v>
+        <v>-0.46</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -840,55 +840,55 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.03</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.02</v>
-      </c>
       <c r="P7" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.33</v>
+        <v>0.13</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -901,55 +901,55 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D8" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.02</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.01</v>
-      </c>
       <c r="P8" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="R8" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -962,55 +962,55 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-151.65</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-10884.84</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.04</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="L9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-70.43000000000001</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P9" t="n">
         <v>0.1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.23</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04</v>
+        <v>-17.52</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1023,55 +1023,55 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.4</v>
+        <v>3.02</v>
       </c>
       <c r="D10" t="n">
-        <v>0.88</v>
+        <v>1.58</v>
       </c>
       <c r="E10" t="n">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>-4.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>4.44</v>
       </c>
       <c r="H10" t="n">
-        <v>0.89</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-6.39</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-2.52</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.2</v>
       </c>
-      <c r="J10" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.9</v>
-      </c>
       <c r="Q10" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="R10" t="n">
-        <v>0.16</v>
+        <v>-1.68</v>
       </c>
       <c r="S10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1090,10 +1090,10 @@
         <v>0.04</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9</v>
+        <v>0.73</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1108,31 +1108,31 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O11" t="n">
         <v>0.01</v>
       </c>
-      <c r="L11" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.12</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="S11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1169,31 +1169,31 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="L12" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="M12" t="n">
         <v>0.35</v>
       </c>
       <c r="N12" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P12" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="R12" t="n">
         <v>0.98</v>
       </c>
       <c r="S12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1206,55 +1206,55 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="D13" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="E13" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0.57</v>
+        <v>0.31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.63</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.34</v>
+        <v>1.34</v>
       </c>
       <c r="I13" t="n">
-        <v>0.79</v>
+        <v>2.97</v>
       </c>
       <c r="J13" t="n">
-        <v>-10.37</v>
+        <v>-96.91</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.09</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.84</v>
-      </c>
       <c r="O13" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.12</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="S13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1267,55 +1267,55 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L14" t="n">
         <v>1.01</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.47</v>
       </c>
-      <c r="L14" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.67</v>
-      </c>
       <c r="O14" t="n">
-        <v>0.96</v>
+        <v>1.49</v>
       </c>
       <c r="P14" t="n">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.98</v>
+        <v>1.22</v>
       </c>
       <c r="R14" t="n">
-        <v>0.33</v>
+        <v>0.47</v>
       </c>
       <c r="S14" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F15" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1352,16 +1352,16 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M15" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="O15" t="n">
         <v>0.02</v>
@@ -1370,13 +1370,13 @@
         <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.01</v>
+        <v>0.05</v>
       </c>
       <c r="S15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -1413,31 +1413,31 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.12</v>
       </c>
       <c r="R16" t="n">
         <v>0.98</v>
       </c>
       <c r="S16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1450,55 +1450,55 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.03</v>
       </c>
-      <c r="D17" t="n">
+      <c r="P17" t="n">
         <v>0.14</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.19</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1511,55 +1511,55 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="D18" t="n">
         <v>0.73</v>
       </c>
       <c r="E18" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="G18" t="n">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
       <c r="H18" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="I18" t="n">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="J18" t="n">
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
       <c r="K18" t="n">
-        <v>0.41</v>
+        <v>0.71</v>
       </c>
       <c r="L18" t="n">
-        <v>0.39</v>
+        <v>0.58</v>
       </c>
       <c r="M18" t="n">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="O18" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="P18" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="Q18" t="n">
         <v>0.89</v>
       </c>
       <c r="R18" t="n">
-        <v>0.21</v>
+        <v>0.49</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E19" t="n">
         <v>0.04</v>
       </c>
       <c r="F19" t="n">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1596,31 +1596,31 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L19" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="N19" t="n">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P19" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="R19" t="n">
-        <v>0.05</v>
+        <v>-0.44</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1657,31 +1657,31 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="L20" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0.17</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.08</v>
-      </c>
       <c r="R20" t="n">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1694,40 +1694,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D21" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="E21" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="F21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-27.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.43</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.61</v>
       </c>
       <c r="O21" t="n">
         <v>0.05</v>
@@ -1736,13 +1736,13 @@
         <v>0.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.19</v>
+        <v>0.03</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1755,55 +1755,55 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E22" t="n">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="F22" t="n">
-        <v>0.63</v>
+        <v>-0.35</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="I22" t="n">
-        <v>0.83</v>
+        <v>1.34</v>
       </c>
       <c r="J22" t="n">
-        <v>0.63</v>
+        <v>-0.38</v>
       </c>
       <c r="K22" t="n">
-        <v>0.27</v>
+        <v>1.48</v>
       </c>
       <c r="L22" t="n">
-        <v>0.36</v>
+        <v>0.85</v>
       </c>
       <c r="M22" t="n">
-        <v>0.52</v>
+        <v>1.22</v>
       </c>
       <c r="N22" t="n">
-        <v>0.86</v>
+        <v>-0.13</v>
       </c>
       <c r="O22" t="n">
-        <v>0.71</v>
+        <v>1.71</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.84</v>
+        <v>1.31</v>
       </c>
       <c r="R22" t="n">
-        <v>0.62</v>
+        <v>-0.3</v>
       </c>
       <c r="S22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1822,10 +1822,10 @@
         <v>0.03</v>
       </c>
       <c r="E23" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F23" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="O23" t="n">
         <v>0.01</v>
@@ -1861,10 +1861,10 @@
         <v>0.12</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="S23" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E24" t="n">
         <v>0.02</v>
@@ -1901,31 +1901,31 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="L24" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="M24" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="N24" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="O24" t="n">
         <v>0.01</v>
       </c>
       <c r="P24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q24" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q24" t="n">
-        <v>0.1</v>
-      </c>
       <c r="R24" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="S24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1938,55 +1938,55 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="E25" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F25" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02</v>
+        <v>0.31</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I25" t="n">
-        <v>0.15</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>0.41</v>
+        <v>-3.81</v>
       </c>
       <c r="K25" t="n">
         <v>0.03</v>
       </c>
       <c r="L25" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="M25" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="N25" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P25" t="n">
         <v>0.19</v>
       </c>
-      <c r="O25" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.16</v>
-      </c>
       <c r="Q25" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="R25" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="S25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1999,55 +1999,55 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.92</v>
+        <v>1.32</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E26" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="F26" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.99</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="J26" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="K26" t="n">
-        <v>0.33</v>
+        <v>0.97</v>
       </c>
       <c r="L26" t="n">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
       <c r="M26" t="n">
-        <v>0.57</v>
+        <v>0.98</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>0.9</v>
+        <v>1.34</v>
       </c>
       <c r="P26" t="n">
-        <v>0.68</v>
+        <v>0.93</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.95</v>
+        <v>1.16</v>
       </c>
       <c r="R26" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="S26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2063,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2090,25 +2090,25 @@
         <v>0.03</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N27" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="O27" t="n">
         <v>0.01</v>
       </c>
       <c r="P27" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.02</v>
+        <v>0.06</v>
       </c>
       <c r="S27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2127,7 +2127,7 @@
         <v>0.01</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -2148,10 +2148,10 @@
         <v>0.05</v>
       </c>
       <c r="L28" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="M28" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="N28" t="n">
         <v>0.93</v>
@@ -2163,13 +2163,13 @@
         <v>0.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R28" t="n">
         <v>0.98</v>
       </c>
       <c r="S28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2194,43 +2194,43 @@
         <v>0.33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I29" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="J29" t="n">
-        <v>0.45</v>
+        <v>-0.63</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="N29" t="n">
-        <v>0.79</v>
+        <v>0.22</v>
       </c>
       <c r="O29" t="n">
         <v>0.04</v>
       </c>
       <c r="P29" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Q29" t="n">
         <v>0.21</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="S29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -2243,55 +2243,55 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="D30" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="L30" t="n">
-        <v>0.2</v>
+        <v>0.49</v>
       </c>
       <c r="M30" t="n">
-        <v>0.27</v>
+        <v>0.75</v>
       </c>
       <c r="N30" t="n">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="O30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R30" t="n">
         <v>0.47</v>
       </c>
-      <c r="P30" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.5600000000000001</v>
-      </c>
       <c r="S30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2307,52 +2307,52 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O31" t="n">
         <v>0.02</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.01</v>
-      </c>
       <c r="P31" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.05</v>
+        <v>-0.22</v>
       </c>
       <c r="S31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2371,7 +2371,7 @@
         <v>0.01</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -2389,31 +2389,31 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="L32" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="M32" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="N32" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P32" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="R32" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="S32" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2429,51 +2429,783 @@
         <v>0.02</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E33" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F33" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.38</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.43</v>
       </c>
       <c r="K33" t="n">
         <v>0.01</v>
       </c>
       <c r="L33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.05</v>
       </c>
-      <c r="M33" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.03</v>
-      </c>
       <c r="P33" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="R33" t="n">
         <v>-0.02</v>
       </c>
       <c r="S33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>baseline-raw</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="S34" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S35" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>all-raw</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="S37" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>baseline-raw</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="S39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>all-raw</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="S40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>baseline-raw</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>all-raw</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S45" t="n">
         <v>13</v>
       </c>
     </row>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,56 +531,56 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.58</v>
+        <v>0.04</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.95</v>
+        <v>0.28</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="J2" t="n">
-        <v>0.63</v>
+        <v>-3.48</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>0.05</v>
       </c>
-      <c r="L2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.85</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0.89</v>
+        <v>0.05</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.12</v>
+        <v>-0.19</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -592,56 +592,56 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.02</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>0.02</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.04</v>
-      </c>
       <c r="J3" t="n">
-        <v>-1.13</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="N3" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.12</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.03</v>
-      </c>
       <c r="R3" t="n">
-        <v>-0.46</v>
+        <v>0.75</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -653,56 +653,56 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>all-raw</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05</v>
+        <v>0.19</v>
       </c>
       <c r="F4" t="n">
-        <v>0.99</v>
+        <v>-5.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.172690686097281e+23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>279268381224.93</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06</v>
+        <v>342445716296.36</v>
       </c>
       <c r="J4" t="n">
-        <v>0.99</v>
+        <v>-2.130624714931645e+25</v>
       </c>
       <c r="K4" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="L4" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
       <c r="N4" t="n">
-        <v>0.68</v>
+        <v>-3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="P4" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="R4" t="n">
-        <v>0.88</v>
+        <v>-2.04</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -710,121 +710,121 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="F5" t="n">
-        <v>0.79</v>
+        <v>0.54</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.09</v>
+        <v>0.22</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="J5" t="n">
-        <v>0.87</v>
+        <v>-0.17</v>
       </c>
       <c r="K5" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="L5" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="M5" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.46</v>
+        <v>0.37</v>
       </c>
       <c r="O5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.79</v>
+        <v>-0</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
       <c r="E6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.99</v>
       </c>
-      <c r="F6" t="n">
-        <v>-0.72</v>
-      </c>
       <c r="G6" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="I6" t="n">
-        <v>1.34</v>
+        <v>0.01</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.15</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.84</v>
+        <v>0.01</v>
       </c>
       <c r="L6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R6" t="n">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.46</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -832,60 +832,60 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="F7" t="n">
-        <v>0.76</v>
+        <v>-0.15</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>-2.41</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="L7" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="M7" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.6</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="R7" t="n">
-        <v>0.13</v>
+        <v>-0.45</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -893,68 +893,68 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>all-raw</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E8" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="F8" t="n">
-        <v>0.99</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>-0.15</v>
       </c>
       <c r="K8" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>0.38</v>
+        <v>0.14</v>
       </c>
       <c r="M8" t="n">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="N8" t="n">
-        <v>0.84</v>
+        <v>-0.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P8" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="R8" t="n">
-        <v>0.98</v>
+        <v>-0.59</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -962,113 +962,113 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="D9" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="F9" t="n">
-        <v>-151.65</v>
+        <v>0.23</v>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>0.05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.87</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.49</v>
+        <v>0.23</v>
       </c>
       <c r="J9" t="n">
-        <v>-10884.84</v>
+        <v>0.01</v>
       </c>
       <c r="K9" t="n">
         <v>0.04</v>
       </c>
       <c r="L9" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N9" t="n">
-        <v>-70.43000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="R9" t="n">
-        <v>-17.52</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1.58</v>
+        <v>0.23</v>
       </c>
       <c r="E10" t="n">
-        <v>1.74</v>
+        <v>0.27</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.04</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>4.44</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.91</v>
+        <v>0.26</v>
       </c>
       <c r="I10" t="n">
-        <v>2.11</v>
+        <v>0.31</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.39</v>
+        <v>-0.28</v>
       </c>
       <c r="K10" t="n">
-        <v>2.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>0.24</v>
       </c>
       <c r="M10" t="n">
-        <v>1.45</v>
+        <v>0.26</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.52</v>
+        <v>0.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.61</v>
+        <v>0.08</v>
       </c>
       <c r="P10" t="n">
-        <v>1.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.27</v>
+        <v>0.28</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.68</v>
+        <v>-0.04</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1084,177 +1084,177 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O11" t="n">
         <v>0.04</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.01</v>
-      </c>
       <c r="P11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>all-raw</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.05</v>
       </c>
-      <c r="E12" t="n">
+      <c r="H12" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.06</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.27</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="N12" t="n">
-        <v>0.65</v>
+        <v>0.91</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="R12" t="n">
-        <v>0.98</v>
+        <v>0.29</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0.06</v>
       </c>
       <c r="D13" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="F13" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="G13" t="n">
-        <v>8.800000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H13" t="n">
-        <v>1.34</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>2.97</v>
+        <v>0.24</v>
       </c>
       <c r="J13" t="n">
-        <v>-96.91</v>
+        <v>0.17</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.2</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.29</v>
-      </c>
       <c r="N13" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.09</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.1</v>
       </c>
       <c r="P13" t="n">
         <v>0.23</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1263,59 +1263,59 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.85</v>
+        <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>1.13</v>
+        <v>0.08</v>
       </c>
       <c r="E14" t="n">
-        <v>1.36</v>
+        <v>0.1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.35</v>
+        <v>0.58</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="n">
-        <v>1.22</v>
+        <v>0.08</v>
       </c>
       <c r="I14" t="n">
-        <v>1.49</v>
+        <v>0.11</v>
       </c>
       <c r="J14" t="n">
-        <v>0.21</v>
+        <v>0.51</v>
       </c>
       <c r="K14" t="n">
-        <v>1.49</v>
+        <v>0.01</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>0.06</v>
       </c>
       <c r="M14" t="n">
-        <v>1.22</v>
+        <v>0.09</v>
       </c>
       <c r="N14" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="O14" t="n">
-        <v>1.49</v>
+        <v>0.03</v>
       </c>
       <c r="P14" t="n">
-        <v>0.98</v>
+        <v>0.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.22</v>
+        <v>0.16</v>
       </c>
       <c r="R14" t="n">
-        <v>0.47</v>
+        <v>-0.16</v>
       </c>
       <c r="S14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1324,59 +1324,59 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F15" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.06</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.02</v>
-      </c>
       <c r="P15" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="S15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1385,308 +1385,308 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>all-raw</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.03</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O16" t="n">
         <v>0.11</v>
       </c>
-      <c r="L16" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.01</v>
-      </c>
       <c r="P16" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1</v>
+        <v>0.33</v>
       </c>
       <c r="R16" t="n">
-        <v>0.98</v>
+        <v>-1.16</v>
       </c>
       <c r="S16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.04</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.19</v>
-      </c>
       <c r="E17" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3</v>
+        <v>0.73</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.29</v>
+        <v>0.66</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="M17" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1</v>
+        <v>0.44</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P17" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="R17" t="n">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="S17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.86</v>
+        <v>0.03</v>
       </c>
       <c r="D18" t="n">
-        <v>0.73</v>
+        <v>0.12</v>
       </c>
       <c r="E18" t="n">
-        <v>0.93</v>
+        <v>0.16</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="G18" t="n">
-        <v>1.14</v>
+        <v>0.48</v>
       </c>
       <c r="H18" t="n">
-        <v>0.85</v>
+        <v>0.33</v>
       </c>
       <c r="I18" t="n">
-        <v>1.07</v>
+        <v>0.7</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>-7.27</v>
       </c>
       <c r="K18" t="n">
-        <v>0.71</v>
+        <v>0.01</v>
       </c>
       <c r="L18" t="n">
-        <v>0.58</v>
+        <v>0.09</v>
       </c>
       <c r="M18" t="n">
-        <v>0.85</v>
+        <v>0.12</v>
       </c>
       <c r="N18" t="n">
-        <v>0.53</v>
+        <v>0.77</v>
       </c>
       <c r="O18" t="n">
-        <v>0.78</v>
+        <v>0.05</v>
       </c>
       <c r="P18" t="n">
-        <v>0.71</v>
+        <v>0.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.89</v>
+        <v>0.22</v>
       </c>
       <c r="R18" t="n">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="F19" t="n">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="K19" t="n">
         <v>0.01</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M19" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="N19" t="n">
-        <v>0.12</v>
+        <v>0.83</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P19" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.44</v>
+        <v>-0.01</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>all-raw</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.04</v>
       </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.46</v>
-      </c>
       <c r="M20" t="n">
-        <v>0.54</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N20" t="n">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="O20" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P20" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="R20" t="n">
-        <v>0.95</v>
+        <v>-0.01</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1694,121 +1694,121 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O21" t="n">
         <v>0.04</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-27.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.05</v>
-      </c>
       <c r="P21" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="R21" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.77</v>
+        <v>0.04</v>
       </c>
       <c r="D22" t="n">
-        <v>0.93</v>
+        <v>0.16</v>
       </c>
       <c r="E22" t="n">
-        <v>1.33</v>
+        <v>0.19</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.35</v>
+        <v>0.44</v>
       </c>
       <c r="G22" t="n">
-        <v>1.81</v>
+        <v>0.04</v>
       </c>
       <c r="H22" t="n">
-        <v>0.96</v>
+        <v>0.17</v>
       </c>
       <c r="I22" t="n">
-        <v>1.34</v>
+        <v>0.2</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.38</v>
+        <v>0.4</v>
       </c>
       <c r="K22" t="n">
-        <v>1.48</v>
+        <v>0.02</v>
       </c>
       <c r="L22" t="n">
-        <v>0.85</v>
+        <v>0.12</v>
       </c>
       <c r="M22" t="n">
-        <v>1.22</v>
+        <v>0.14</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.13</v>
+        <v>0.7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>0.93</v>
+        <v>0.22</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.31</v>
+        <v>0.27</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1819,25 +1819,25 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="O23" t="n">
         <v>0.01</v>
@@ -1858,135 +1858,135 @@
         <v>0.09</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R23" t="n">
-        <v>0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="S23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>all-raw</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0.59</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>-16.61</v>
       </c>
       <c r="K24" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L24" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="M24" t="n">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="N24" t="n">
-        <v>0.83</v>
+        <v>0.63</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="R24" t="n">
-        <v>0.99</v>
+        <v>0.04</v>
       </c>
       <c r="S24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D25" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E25" t="n">
         <v>0.19</v>
       </c>
       <c r="F25" t="n">
-        <v>0.45</v>
+        <v>-0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="H25" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="J25" t="n">
-        <v>-3.81</v>
+        <v>-0.08</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L25" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="M25" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="N25" t="n">
-        <v>0.52</v>
+        <v>0.83</v>
       </c>
       <c r="O25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="P25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0.19</v>
       </c>
-      <c r="Q25" t="n">
-        <v>0.26</v>
-      </c>
       <c r="R25" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="S25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1995,59 +1995,59 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.32</v>
+        <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>0.93</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>1.15</v>
+        <v>0.09</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>0.01</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>1.18</v>
+        <v>0.1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="K26" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
       <c r="M26" t="n">
-        <v>0.98</v>
+        <v>0.04</v>
       </c>
       <c r="N26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="O26" t="n">
-        <v>1.34</v>
+        <v>0.01</v>
       </c>
       <c r="P26" t="n">
-        <v>0.93</v>
+        <v>0.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="R26" t="n">
-        <v>0.39</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="S26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -2056,59 +2056,59 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O27" t="n">
         <v>0.03</v>
       </c>
-      <c r="M27" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.01</v>
-      </c>
       <c r="P27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="R27" t="n">
-        <v>0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="S27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -2117,308 +2117,308 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>all-raw</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.24</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L28" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="M28" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="P28" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="R28" t="n">
-        <v>0.98</v>
+        <v>-0.16</v>
       </c>
       <c r="S28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.13</v>
       </c>
-      <c r="E29" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J29" t="n">
-        <v>-0.63</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.21</v>
-      </c>
       <c r="R29" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="S29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.15</v>
+        <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>0.86</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>1.07</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="G30" t="n">
-        <v>1.13</v>
+        <v>0.01</v>
       </c>
       <c r="H30" t="n">
-        <v>0.86</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>1.06</v>
+        <v>0.1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="K30" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
       <c r="M30" t="n">
-        <v>0.75</v>
+        <v>0.05</v>
       </c>
       <c r="N30" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>0.03</v>
       </c>
       <c r="P30" t="n">
-        <v>0.86</v>
+        <v>0.13</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.07</v>
+        <v>0.16</v>
       </c>
       <c r="R30" t="n">
-        <v>0.47</v>
+        <v>0.12</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D31" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O31" t="n">
         <v>0.04</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.02</v>
-      </c>
       <c r="P31" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.22</v>
+        <v>-0.03</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>all-raw</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="K32" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="N32" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P32" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="R32" t="n">
-        <v>0.97</v>
+        <v>-0</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2426,786 +2426,115 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.11</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="J33" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="O33" t="n">
         <v>0.03</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.05</v>
-      </c>
       <c r="P33" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.02</v>
+        <v>0.12</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>baseline-raw</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.75</v>
+        <v>0.02</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="E34" t="n">
-        <v>0.86</v>
+        <v>0.16</v>
       </c>
       <c r="F34" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="G34" t="n">
-        <v>0.77</v>
+        <v>0.02</v>
       </c>
       <c r="H34" t="n">
-        <v>0.71</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>0.88</v>
+        <v>0.16</v>
       </c>
       <c r="J34" t="n">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="K34" t="n">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
       <c r="L34" t="n">
-        <v>0.37</v>
+        <v>0.05</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6</v>
+        <v>0.08</v>
       </c>
       <c r="N34" t="n">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="O34" t="n">
-        <v>0.73</v>
+        <v>0.04</v>
       </c>
       <c r="P34" t="n">
-        <v>0.67</v>
+        <v>0.14</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.85</v>
+        <v>0.19</v>
       </c>
       <c r="R34" t="n">
-        <v>0.19</v>
+        <v>-0.1</v>
       </c>
       <c r="S34" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S35" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="S36" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R37" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="S37" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S38" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R39" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="S39" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="S40" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R41" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="S41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>baseline-raw</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R43" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>all-raw</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="S44" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R45" t="n">
-        <v>-0</v>
-      </c>
-      <c r="S45" t="n">
         <v>13</v>
       </c>
     </row>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -535,52 +535,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="F2" t="n">
-        <v>0.28</v>
+        <v>-0.92</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="I2" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.48</v>
+        <v>0.97</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="M2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.03</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.19</v>
+        <v>-1.63</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -596,52 +596,52 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="F3" t="n">
-        <v>0.97</v>
+        <v>0.6</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="N3" t="n">
-        <v>0.87</v>
+        <v>-1.7</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1</v>
+        <v>0.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.12</v>
+        <v>0.57</v>
       </c>
       <c r="R3" t="n">
-        <v>0.75</v>
+        <v>-2.82</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -657,52 +657,52 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="E4" t="n">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.3</v>
+        <v>-0.61</v>
       </c>
       <c r="G4" t="n">
-        <v>1.172690686097281e+23</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
-        <v>279268381224.93</v>
+        <v>0.59</v>
       </c>
       <c r="I4" t="n">
-        <v>342445716296.36</v>
+        <v>0.63</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.130624714931645e+25</v>
+        <v>-3.41</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M4" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.8</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.04</v>
+        <v>-0.97</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -718,52 +718,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="F5" t="n">
-        <v>0.54</v>
+        <v>-0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.17</v>
+        <v>0.46</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="M5" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="N5" t="n">
-        <v>0.37</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="P5" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="R5" t="n">
-        <v>-0</v>
+        <v>-0.35</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -782,49 +782,49 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E6" t="n">
         <v>0.03</v>
       </c>
       <c r="F6" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.99</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
       <c r="K6" t="n">
         <v>0.01</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="M6" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="N6" t="n">
         <v>0.76</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.15</v>
+        <v>-0.38</v>
       </c>
       <c r="G7" t="n">
         <v>0.15</v>
@@ -861,31 +861,31 @@
         <v>0.39</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.41</v>
+        <v>-2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="L7" t="n">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="M7" t="n">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.6</v>
+        <v>0.83</v>
       </c>
       <c r="O7" t="n">
         <v>0.06</v>
       </c>
       <c r="P7" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.45</v>
+        <v>-0.38</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -901,52 +901,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.11</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.14</v>
-      </c>
       <c r="F8" t="n">
-        <v>0.12</v>
+        <v>0.66</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H8" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.15</v>
+        <v>0.85</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L8" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="M8" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.5</v>
+        <v>0.71</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="P8" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.59</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -965,49 +965,49 @@
         <v>0.04</v>
       </c>
       <c r="D9" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.083630811432379e+19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1544310192.19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3291854813.68</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-2.342193145638432e+20</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.2</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.24</v>
-      </c>
       <c r="R9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1023,52 +1023,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D10" t="n">
         <v>0.23</v>
       </c>
       <c r="E10" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="G10" t="n">
         <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I10" t="n">
         <v>0.31</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.28</v>
+        <v>0.03</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="L10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.24</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="P10" t="n">
         <v>0.26</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.25</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.04</v>
+        <v>-0.19</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1084,52 +1084,52 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="J11" t="n">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="K11" t="n">
         <v>0.02</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="M11" t="n">
         <v>0.13</v>
       </c>
       <c r="N11" t="n">
-        <v>0.53</v>
+        <v>0.16</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P11" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.01</v>
+        <v>-0.24</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -1145,52 +1145,52 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.1</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.06</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="N12" t="n">
-        <v>0.91</v>
+        <v>0.6</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P12" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="R12" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -1209,37 +1209,37 @@
         <v>0.06</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="E13" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I13" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="J13" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="K13" t="n">
         <v>0.04</v>
       </c>
       <c r="L13" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N13" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="O13" t="n">
         <v>0.09</v>
@@ -1251,7 +1251,7 @@
         <v>0.29</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.23</v>
+        <v>-0.01</v>
       </c>
       <c r="S13" t="n">
         <v>6</v>
@@ -1270,49 +1270,49 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.08</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.1</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.09</v>
-      </c>
       <c r="N14" t="n">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P14" t="n">
         <v>0.12</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.16</v>
+        <v>-0.31</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1328,52 +1328,52 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D15" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E15" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-9.58</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.15</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.16</v>
-      </c>
       <c r="N15" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="P15" t="n">
         <v>0.18</v>
       </c>
       <c r="Q15" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R15" t="n">
         <v>0.25</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.23</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1389,52 +1389,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="E16" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.43</v>
+        <v>-0.17</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L16" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="M16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.19</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.26</v>
-      </c>
       <c r="Q16" t="n">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.16</v>
+        <v>-0.2</v>
       </c>
       <c r="S16" t="n">
         <v>7</v>
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="E17" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F17" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1471,31 +1471,31 @@
         <v>0.06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="K17" t="n">
         <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.01</v>
+        <v>-0.26</v>
       </c>
       <c r="S17" t="n">
         <v>8</v>
@@ -1511,52 +1511,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D18" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.57</v>
+        <v>0.15</v>
       </c>
       <c r="G18" t="n">
-        <v>0.48</v>
+        <v>0.02</v>
       </c>
       <c r="H18" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7</v>
+        <v>0.13</v>
       </c>
       <c r="J18" t="n">
-        <v>-7.27</v>
+        <v>0.13</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L18" t="n">
         <v>0.09</v>
       </c>
       <c r="M18" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="N18" t="n">
-        <v>0.77</v>
+        <v>0.14</v>
       </c>
       <c r="O18" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="P18" t="n">
         <v>0.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="R18" t="n">
-        <v>0.15</v>
+        <v>-0.83</v>
       </c>
       <c r="S18" t="n">
         <v>8</v>
@@ -1572,52 +1572,52 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D19" t="n">
         <v>0.16</v>
       </c>
       <c r="E19" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F19" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H19" t="n">
         <v>0.16</v>
       </c>
       <c r="I19" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.47</v>
+        <v>0.29</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="M19" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="N19" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="P19" t="n">
         <v>0.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="S19" t="n">
         <v>8</v>
@@ -1633,40 +1633,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="N20" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="O20" t="n">
         <v>0.01</v>
@@ -1675,10 +1675,10 @@
         <v>0.08</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01</v>
+        <v>-0.3</v>
       </c>
       <c r="S20" t="n">
         <v>9</v>
@@ -1697,49 +1697,49 @@
         <v>0.02</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E21" t="n">
         <v>0.13</v>
       </c>
       <c r="F21" t="n">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="H21" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="J21" t="n">
-        <v>-1.34</v>
+        <v>-4.42</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>0.54</v>
+        <v>0.79</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="P21" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="R21" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="S21" t="n">
         <v>9</v>
@@ -1764,43 +1764,43 @@
         <v>0.19</v>
       </c>
       <c r="F22" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="G22" t="n">
         <v>0.04</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I22" t="n">
         <v>0.2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="K22" t="n">
         <v>0.02</v>
       </c>
       <c r="L22" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="M22" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="P22" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.1</v>
+        <v>-0</v>
       </c>
       <c r="S22" t="n">
         <v>9</v>
@@ -1816,16 +1816,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F23" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="G23" t="n">
         <v>0.01</v>
@@ -1834,34 +1834,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="N23" t="n">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P23" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.05</v>
+        <v>-0.01</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -1880,49 +1880,49 @@
         <v>0.01</v>
       </c>
       <c r="D24" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.08</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.59</v>
       </c>
-      <c r="G24" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J24" t="n">
-        <v>-16.61</v>
-      </c>
       <c r="K24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="M24" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="N24" t="n">
-        <v>0.63</v>
+        <v>0.93</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="P24" t="n">
         <v>0.15</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R24" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -1938,52 +1938,52 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.03</v>
       </c>
-      <c r="D25" t="n">
+      <c r="L25" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P25" t="n">
         <v>0.15</v>
       </c>
-      <c r="E25" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J25" t="n">
-        <v>-0.08</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.16</v>
-      </c>
       <c r="Q25" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -2002,49 +2002,49 @@
         <v>0.01</v>
       </c>
       <c r="D26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E26" t="n">
-        <v>0.09</v>
-      </c>
       <c r="F26" t="n">
-        <v>0.37</v>
+        <v>0.57</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.29</v>
+        <v>0.68</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N26" t="n">
-        <v>0.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O26" t="n">
         <v>0.01</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0</v>
       </c>
       <c r="S26" t="n">
         <v>11</v>
@@ -2060,28 +2060,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E27" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="J27" t="n">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="K27" t="n">
         <v>0.01</v>
@@ -2090,22 +2090,22 @@
         <v>0.05</v>
       </c>
       <c r="M27" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O27" t="n">
         <v>0.03</v>
       </c>
       <c r="P27" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.02</v>
+        <v>0.11</v>
       </c>
       <c r="S27" t="n">
         <v>11</v>
@@ -2124,49 +2124,49 @@
         <v>0.03</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E28" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F28" t="n">
-        <v>0.24</v>
+        <v>0.61</v>
       </c>
       <c r="G28" t="n">
         <v>0.03</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J28" t="n">
-        <v>0.25</v>
+        <v>0.61</v>
       </c>
       <c r="K28" t="n">
         <v>0.01</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>0.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.16</v>
+        <v>-0</v>
       </c>
       <c r="S28" t="n">
         <v>11</v>
@@ -2185,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F29" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2200,10 +2200,10 @@
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="J29" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2212,22 +2212,22 @@
         <v>0.04</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="N29" t="n">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P29" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="S29" t="n">
         <v>12</v>
@@ -2243,40 +2243,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F30" t="n">
-        <v>0.62</v>
+        <v>0.51</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="J30" t="n">
-        <v>0.62</v>
+        <v>-0.1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L30" t="n">
         <v>0.04</v>
       </c>
       <c r="M30" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="O30" t="n">
         <v>0.03</v>
@@ -2285,10 +2285,10 @@
         <v>0.13</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="R30" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="S30" t="n">
         <v>12</v>
@@ -2304,52 +2304,52 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O31" t="n">
         <v>0.03</v>
       </c>
-      <c r="D31" t="n">
+      <c r="P31" t="n">
         <v>0.14</v>
       </c>
-      <c r="E31" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>0.17</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0.21</v>
-      </c>
       <c r="R31" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="S31" t="n">
         <v>12</v>
@@ -2368,49 +2368,49 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.06</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="F32" t="n">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="J32" t="n">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M32" t="n">
         <v>0.04</v>
       </c>
-      <c r="M32" t="n">
-        <v>0.05</v>
-      </c>
       <c r="N32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="O32" t="n">
         <v>0.01</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q32" t="n">
         <v>0.1</v>
       </c>
       <c r="R32" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="S32" t="n">
         <v>13</v>
@@ -2435,43 +2435,43 @@
         <v>0.1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G33" t="n">
         <v>0.01</v>
       </c>
       <c r="H33" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L33" t="n">
         <v>0.04</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="N33" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="O33" t="n">
         <v>0.03</v>
       </c>
       <c r="P33" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="R33" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="S33" t="n">
         <v>13</v>
@@ -2487,52 +2487,52 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D34" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E34" t="n">
         <v>0.16</v>
       </c>
       <c r="F34" t="n">
-        <v>0.28</v>
+        <v>0.51</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I34" t="n">
         <v>0.16</v>
       </c>
       <c r="J34" t="n">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="K34" t="n">
         <v>0.01</v>
       </c>
       <c r="L34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O34" t="n">
         <v>0.05</v>
       </c>
-      <c r="M34" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.04</v>
-      </c>
       <c r="P34" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="S34" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,52 +535,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.92</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="J2" t="n">
         <v>0.97</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="M2" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.89</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P2" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.63</v>
+        <v>-0.45</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -596,16 +596,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E3" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.7</v>
+        <v>0.85</v>
       </c>
       <c r="O3" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="P3" t="n">
-        <v>0.52</v>
+        <v>0.09</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.57</v>
+        <v>0.13</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.82</v>
+        <v>0.73</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -660,49 +660,49 @@
         <v>0.15</v>
       </c>
       <c r="D4" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="E4" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.61</v>
+        <v>-0.52</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>4.66</v>
       </c>
       <c r="H4" t="n">
-        <v>0.59</v>
+        <v>2.13</v>
       </c>
       <c r="I4" t="n">
-        <v>0.63</v>
+        <v>2.16</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.41</v>
+        <v>-46.74</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="L4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.18</v>
-      </c>
       <c r="P4" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.97</v>
+        <v>-0.54</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -710,11 +710,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>baseline-norm-red</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -724,107 +724,107 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2</v>
+        <v>0.7</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I5" t="n">
         <v>0.05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.46</v>
+        <v>0.92</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9399999999999999</v>
+        <v>-0.19</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.35</v>
+        <v>-0.05</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.03</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.04</v>
-      </c>
       <c r="P6" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="R6" t="n">
-        <v>0.12</v>
+        <v>-0.65</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -832,60 +832,60 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.172396466899953e+17</v>
+      </c>
+      <c r="H7" t="n">
+        <v>295307983.13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>719193747.67</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-3.837916627331761e+18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.21</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J7" t="n">
-        <v>-2.63</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N7" t="n">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P7" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.38</v>
+        <v>0.51</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -893,182 +893,182 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="E8" t="n">
-        <v>0.11</v>
+        <v>0.31</v>
       </c>
       <c r="F8" t="n">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="J8" t="n">
-        <v>0.85</v>
+        <v>0.41</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="M8" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="N8" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="O8" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R8" t="n">
         <v>0.04</v>
       </c>
-      <c r="P8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-0</v>
-      </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm-red</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="E9" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="F9" t="n">
-        <v>0.19</v>
+        <v>-0.09</v>
       </c>
       <c r="G9" t="n">
-        <v>1.083630811432379e+19</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>1544310192.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>3291854813.68</v>
+        <v>0.08</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.342193145638432e+20</v>
+        <v>0.62</v>
       </c>
       <c r="K9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.02</v>
       </c>
-      <c r="L9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.14</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.2</v>
-      </c>
       <c r="R9" t="n">
-        <v>0.12</v>
+        <v>-0.28</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.29</v>
+        <v>0.1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.16</v>
+        <v>0.55</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.1</v>
       </c>
-      <c r="H10" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.24</v>
-      </c>
       <c r="N10" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="O10" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="P10" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.19</v>
+        <v>-0.1</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1076,185 +1076,185 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="E11" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="F11" t="n">
-        <v>0.41</v>
+        <v>0.61</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01</v>
+        <v>3.845417564480586e+17</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09</v>
+        <v>206704769.89</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09</v>
+        <v>620114309.1799999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.57</v>
+        <v>-4.889257383414397e+18</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="M11" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="N11" t="n">
-        <v>0.16</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="P11" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.24</v>
+        <v>0.45</v>
       </c>
       <c r="S11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.03</v>
       </c>
-      <c r="D12" t="n">
+      <c r="K12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.12</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.1</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="O12" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="P12" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="R12" t="n">
-        <v>0.24</v>
+        <v>-0.55</v>
       </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>baseline-norm-red</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="F13" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="J13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0.15</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.29</v>
-      </c>
       <c r="R13" t="n">
-        <v>-0.01</v>
+        <v>-0.09</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1267,16 +1267,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.06</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="G14" t="n">
         <v>0.01</v>
@@ -1285,10 +1285,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="J14" t="n">
-        <v>0.65</v>
+        <v>-0.31</v>
       </c>
       <c r="K14" t="n">
         <v>0.01</v>
@@ -1300,22 +1300,22 @@
         <v>0.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.44</v>
+        <v>-0.61</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P14" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.31</v>
+        <v>-0.03</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1328,55 +1328,55 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.15</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.18</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.37</v>
-      </c>
       <c r="I15" t="n">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
       <c r="J15" t="n">
-        <v>-9.58</v>
+        <v>-0.41</v>
       </c>
       <c r="K15" t="n">
         <v>0.02</v>
       </c>
       <c r="L15" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="P15" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="R15" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1395,330 +1395,330 @@
         <v>0.19</v>
       </c>
       <c r="E16" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1</v>
+        <v>0.33</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I16" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P16" t="n">
         <v>0.23</v>
       </c>
-      <c r="J16" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.19</v>
-      </c>
       <c r="Q16" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.2</v>
+        <v>-0.01</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>baseline-norm-red</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E17" t="n">
         <v>0.09</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6</v>
+        <v>-0.06</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="J17" t="n">
-        <v>0.84</v>
+        <v>-0.2</v>
       </c>
       <c r="K17" t="n">
         <v>0.01</v>
       </c>
       <c r="L17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.08</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0.1</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.15</v>
-      </c>
       <c r="R17" t="n">
-        <v>-0.26</v>
+        <v>-0.47</v>
       </c>
       <c r="S17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.1</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.13</v>
-      </c>
       <c r="J18" t="n">
-        <v>0.13</v>
+        <v>0.35</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L18" t="n">
         <v>0.09</v>
       </c>
       <c r="M18" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.14</v>
+        <v>0.3</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P18" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.83</v>
+        <v>-0</v>
       </c>
       <c r="S18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="F19" t="n">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="J19" t="n">
-        <v>0.29</v>
+        <v>-1.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L19" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="N19" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="O19" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="P19" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.09</v>
+        <v>0.21</v>
       </c>
       <c r="S19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="I20" t="n">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="J20" t="n">
-        <v>0.66</v>
+        <v>-0.18</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06</v>
+        <v>0.19</v>
       </c>
       <c r="N20" t="n">
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.3</v>
+        <v>-0.03</v>
       </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm-red</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D21" t="n">
         <v>0.08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="G21" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I21" t="n">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="J21" t="n">
-        <v>-4.42</v>
+        <v>0.31</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0.05</v>
@@ -1727,7 +1727,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="O21" t="n">
         <v>0.02</v>
@@ -1736,108 +1736,108 @@
         <v>0.09</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="R21" t="n">
-        <v>0.32</v>
+        <v>-0.08</v>
       </c>
       <c r="S21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="E22" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.37</v>
+        <v>0.58</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H22" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="J22" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q22" t="n">
         <v>0.11</v>
       </c>
-      <c r="M22" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.24</v>
-      </c>
       <c r="R22" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="S22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01</v>
+        <v>0.29</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="I23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="J23" t="n">
-        <v>0.79</v>
+        <v>-4.42</v>
       </c>
       <c r="K23" t="n">
         <v>0.01</v>
@@ -1846,147 +1846,147 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="P23" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.01</v>
+        <v>0.28</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="E24" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.09</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.04</v>
-      </c>
       <c r="M24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O24" t="n">
         <v>0.05</v>
       </c>
-      <c r="N24" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.04</v>
-      </c>
       <c r="P24" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="R24" t="n">
-        <v>0.12</v>
+        <v>-0.01</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>baseline-norm-red</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D25" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="M25" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>0.14</v>
+        <v>0.45</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P25" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.05</v>
+        <v>-0.12</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2002,52 +2002,52 @@
         <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H26" t="n">
         <v>0.06</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L26" t="n">
         <v>0.05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P26" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="R26" t="n">
         <v>-0</v>
       </c>
       <c r="S26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -2066,22 +2066,22 @@
         <v>0.09</v>
       </c>
       <c r="E27" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I27" t="n">
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="J27" t="n">
-        <v>0.54</v>
+        <v>-2.17</v>
       </c>
       <c r="K27" t="n">
         <v>0.01</v>
@@ -2090,25 +2090,25 @@
         <v>0.05</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="P27" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="R27" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="S27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2121,420 +2121,1091 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.03</v>
       </c>
-      <c r="D28" t="n">
+      <c r="L28" t="n">
         <v>0.13</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="M28" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="N28" t="n">
-        <v>0.84</v>
+        <v>0.62</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="P28" t="n">
         <v>0.21</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="R28" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="S28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>baseline-norm-red</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F29" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.05</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.04</v>
-      </c>
       <c r="M29" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N29" t="n">
-        <v>0.71</v>
+        <v>0.48</v>
       </c>
       <c r="O29" t="n">
         <v>0.01</v>
       </c>
       <c r="P29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0.11</v>
-      </c>
       <c r="R29" t="n">
-        <v>-0.03</v>
+        <v>-0</v>
       </c>
       <c r="S29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P30" t="n">
         <v>0.09</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J30" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.13</v>
-      </c>
       <c r="Q30" t="n">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1</v>
+        <v>-0.01</v>
       </c>
       <c r="S30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.74</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H31" t="n">
         <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J31" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M31" t="n">
         <v>0.05</v>
       </c>
-      <c r="M31" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N31" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="O31" t="n">
         <v>0.03</v>
       </c>
       <c r="P31" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="Q31" t="n">
         <v>0.17</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.02</v>
+        <v>0.17</v>
       </c>
       <c r="S31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="F32" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I32" t="n">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="J32" t="n">
-        <v>0.71</v>
+        <v>0.38</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L32" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="M32" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O32" t="n">
         <v>0.04</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.01</v>
-      </c>
       <c r="P32" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="S32" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm-red</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.74</v>
+        <v>0.04</v>
       </c>
       <c r="G33" t="n">
         <v>0.01</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J33" t="n">
-        <v>0.75</v>
+        <v>-0.05</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M33" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0.08</v>
       </c>
-      <c r="N33" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.19</v>
-      </c>
       <c r="R33" t="n">
-        <v>0.09</v>
+        <v>-0.17</v>
       </c>
       <c r="S33" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>all-red</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>0.03</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.13</v>
       </c>
-      <c r="E34" t="n">
+      <c r="K36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P36" t="n">
         <v>0.16</v>
       </c>
-      <c r="F34" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="Q36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>baseline-norm-red</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>all-red</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>0.03</v>
       </c>
-      <c r="H34" t="n">
+      <c r="D40" t="n">
         <v>0.14</v>
       </c>
-      <c r="I34" t="n">
+      <c r="E40" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>baseline-norm-red</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>baseline-norm</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S43" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>all-red</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.16</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="F44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>baseline-norm-red</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q45" t="n">
         <v>0.1</v>
       </c>
-      <c r="N34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="R34" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="S34" t="n">
+      <c r="R45" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="S45" t="n">
         <v>13</v>
       </c>
     </row>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,31 +556,31 @@
         <v>0.01</v>
       </c>
       <c r="J2" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.06</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P2" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.45</v>
+        <v>-0.11</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -599,49 +599,49 @@
         <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8</v>
+        <v>-153.88</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0.01</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0.85</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="R3" t="n">
-        <v>0.73</v>
+        <v>-22.78</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -657,52 +657,52 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="E4" t="n">
-        <v>0.39</v>
+        <v>0.19</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.52</v>
+        <v>-7.42</v>
       </c>
       <c r="G4" t="n">
-        <v>4.66</v>
+        <v>1.22</v>
       </c>
       <c r="H4" t="n">
-        <v>2.13</v>
+        <v>0.85</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>1.1</v>
       </c>
       <c r="J4" t="n">
-        <v>-46.74</v>
+        <v>-270.43</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.13</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.21</v>
-      </c>
       <c r="N4" t="n">
-        <v>0.54</v>
+        <v>-2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="P4" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.54</v>
+        <v>-2.48</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -718,52 +718,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7</v>
+        <v>-1.54</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L5" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="M5" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.19</v>
+        <v>-1.46</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="P5" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.05</v>
+        <v>-1.67</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -779,52 +779,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.11</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.06</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5</v>
+        <v>-0.11</v>
       </c>
       <c r="O6" t="n">
         <v>0.03</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.65</v>
+        <v>-0.26</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -840,52 +840,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="F7" t="n">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="G7" t="n">
-        <v>5.172396466899953e+17</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>295307983.13</v>
+        <v>0.01</v>
       </c>
       <c r="I7" t="n">
-        <v>719193747.67</v>
+        <v>0.02</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.837916627331761e+18</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L7" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="M7" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="N7" t="n">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="P7" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="R7" t="n">
-        <v>0.51</v>
+        <v>-0</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -901,52 +901,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.27</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.31</v>
-      </c>
       <c r="F8" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.29</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.37</v>
-      </c>
       <c r="R8" t="n">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -965,37 +965,37 @@
         <v>0.02</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N9" t="n">
         <v>0.12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-0.97</v>
       </c>
       <c r="O9" t="n">
         <v>0.02</v>
@@ -1007,7 +1007,7 @@
         <v>0.14</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.28</v>
+        <v>-0</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1023,28 +1023,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="F10" t="n">
-        <v>0.55</v>
+        <v>0.09</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.06</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="J10" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="K10" t="n">
         <v>0.01</v>
@@ -1053,22 +1053,22 @@
         <v>0.09</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N10" t="n">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P10" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1</v>
+        <v>-0.03</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1084,52 +1084,52 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.03</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="H11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I11" t="n">
         <v>0.18</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
         <v>0.61</v>
       </c>
-      <c r="G11" t="n">
-        <v>3.845417564480586e+17</v>
-      </c>
-      <c r="H11" t="n">
-        <v>206704769.89</v>
-      </c>
-      <c r="I11" t="n">
-        <v>620114309.1799999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-4.889257383414397e+18</v>
-      </c>
       <c r="K11" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="L11" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="M11" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="N11" t="n">
-        <v>0.37</v>
+        <v>-0.02</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="P11" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="R11" t="n">
-        <v>0.45</v>
+        <v>-0.28</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1145,52 +1145,52 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="E12" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="F12" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H12" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I12" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03</v>
+        <v>0.42</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="L12" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="M12" t="n">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
       <c r="N12" t="n">
-        <v>0.58</v>
+        <v>0.42</v>
       </c>
       <c r="O12" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="P12" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.55</v>
+        <v>-0.01</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1206,52 +1206,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
         <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L13" t="n">
         <v>0.06</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
       <c r="O13" t="n">
         <v>0.02</v>
       </c>
       <c r="P13" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="Q13" t="n">
         <v>0.15</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.09</v>
+        <v>-0.03</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1267,52 +1267,52 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.06</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.08</v>
       </c>
-      <c r="M14" t="n">
-        <v>0.1</v>
-      </c>
       <c r="N14" t="n">
-        <v>-0.61</v>
+        <v>0.68</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.03</v>
+        <v>-0.13</v>
       </c>
       <c r="S14" t="n">
         <v>6</v>
@@ -1328,52 +1328,52 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="E15" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="F15" t="n">
         <v>0.55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07000000000000001</v>
+        <v>8.463875523116217e+22</v>
       </c>
       <c r="H15" t="n">
-        <v>0.18</v>
+        <v>87918879279.63</v>
       </c>
       <c r="I15" t="n">
-        <v>0.27</v>
+        <v>290927405431.6</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.41</v>
+        <v>-8.37454872014303e+23</v>
       </c>
       <c r="K15" t="n">
         <v>0.02</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="M15" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N15" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="P15" t="n">
-        <v>0.14</v>
+        <v>0.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="R15" t="n">
-        <v>0.35</v>
+        <v>-0.06</v>
       </c>
       <c r="S15" t="n">
         <v>6</v>
@@ -1389,52 +1389,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="E16" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
-        <v>0.33</v>
+        <v>-0.85</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H16" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I16" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="J16" t="n">
-        <v>0.13</v>
+        <v>-0.72</v>
       </c>
       <c r="K16" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L16" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M16" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.64</v>
+        <v>0.22</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="P16" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.01</v>
+        <v>-1.44</v>
       </c>
       <c r="S16" t="n">
         <v>6</v>
@@ -1453,49 +1453,49 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="G17" t="n">
         <v>0.01</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L17" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01</v>
+        <v>-0.45</v>
       </c>
       <c r="O17" t="n">
         <v>0.01</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.47</v>
+        <v>-0.04</v>
       </c>
       <c r="S17" t="n">
         <v>6</v>
@@ -1511,52 +1511,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="E18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.06</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="I18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.1</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.09</v>
-      </c>
       <c r="M18" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3</v>
+        <v>0.51</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="R18" t="n">
-        <v>-0</v>
+        <v>-0.02</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1575,49 +1575,49 @@
         <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E19" t="n">
         <v>0.13</v>
       </c>
       <c r="F19" t="n">
-        <v>0.42</v>
+        <v>0.61</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.984742312557126e+18</v>
       </c>
       <c r="H19" t="n">
-        <v>0.22</v>
+        <v>404017282.51</v>
       </c>
       <c r="I19" t="n">
-        <v>0.26</v>
+        <v>1408808827.54</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.3</v>
+        <v>-4.718331644024032e+19</v>
       </c>
       <c r="K19" t="n">
         <v>0.01</v>
       </c>
       <c r="L19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M19" t="n">
         <v>0.12</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="P19" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="R19" t="n">
-        <v>0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1636,49 +1636,49 @@
         <v>0.05</v>
       </c>
       <c r="D20" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.21</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.23</v>
-      </c>
       <c r="I20" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.18</v>
+        <v>0.09</v>
       </c>
       <c r="K20" t="n">
         <v>0.04</v>
       </c>
       <c r="L20" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="M20" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="N20" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="O20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="P20" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="Q20" t="n">
         <v>0.26</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.03</v>
+        <v>-0</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1703,43 +1703,43 @@
         <v>0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.32</v>
+        <v>-0.25</v>
       </c>
       <c r="G21" t="n">
         <v>0.01</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="J21" t="n">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M21" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>0.68</v>
+        <v>0.35</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P21" t="n">
         <v>0.09</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.08</v>
+        <v>-0.41</v>
       </c>
       <c r="S21" t="n">
         <v>7</v>
@@ -1758,49 +1758,49 @@
         <v>0.01</v>
       </c>
       <c r="D22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.06</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="I22" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>0.39</v>
+        <v>0.68</v>
       </c>
       <c r="K22" t="n">
         <v>0.01</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N22" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="O22" t="n">
         <v>0.01</v>
       </c>
       <c r="P22" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="S22" t="n">
         <v>8</v>
@@ -1819,49 +1819,49 @@
         <v>0.02</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F23" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="G23" t="n">
-        <v>0.29</v>
+        <v>2.19</v>
       </c>
       <c r="H23" t="n">
-        <v>0.21</v>
+        <v>0.98</v>
       </c>
       <c r="I23" t="n">
-        <v>0.54</v>
+        <v>1.48</v>
       </c>
       <c r="J23" t="n">
-        <v>-4.42</v>
+        <v>-35.61</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="O23" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="P23" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R23" t="n">
-        <v>0.28</v>
+        <v>-0</v>
       </c>
       <c r="S23" t="n">
         <v>8</v>
@@ -1883,46 +1883,46 @@
         <v>0.14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F24" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="G24" t="n">
         <v>0.04</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q24" t="n">
         <v>0.2</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.22</v>
-      </c>
       <c r="R24" t="n">
-        <v>-0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="S24" t="n">
         <v>8</v>
@@ -1941,49 +1941,49 @@
         <v>0.01</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E25" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.08</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="I25" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="N25" t="n">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="O25" t="n">
         <v>0.01</v>
       </c>
       <c r="P25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.12</v>
+        <v>-0.02</v>
       </c>
       <c r="S25" t="n">
         <v>8</v>
@@ -2002,13 +2002,13 @@
         <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F26" t="n">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
       <c r="G26" t="n">
         <v>0.01</v>
@@ -2020,7 +2020,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="K26" t="n">
         <v>0.01</v>
@@ -2032,7 +2032,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N26" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="O26" t="n">
         <v>0.02</v>
@@ -2041,7 +2041,7 @@
         <v>0.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="R26" t="n">
         <v>-0</v>
@@ -2063,25 +2063,25 @@
         <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E27" t="n">
         <v>0.11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="G27" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="H27" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I27" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="J27" t="n">
-        <v>-2.17</v>
+        <v>0.72</v>
       </c>
       <c r="K27" t="n">
         <v>0.01</v>
@@ -2093,19 +2093,19 @@
         <v>0.08</v>
       </c>
       <c r="N27" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="O27" t="n">
         <v>0.04</v>
       </c>
       <c r="P27" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="Q27" t="n">
         <v>0.2</v>
       </c>
       <c r="R27" t="n">
-        <v>0.15</v>
+        <v>-0.03</v>
       </c>
       <c r="S27" t="n">
         <v>9</v>
@@ -2124,49 +2124,49 @@
         <v>0.04</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E28" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F28" t="n">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="G28" t="n">
         <v>0.04</v>
       </c>
       <c r="H28" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I28" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L28" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="M28" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="N28" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="O28" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="P28" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="S28" t="n">
         <v>9</v>
@@ -2191,31 +2191,31 @@
         <v>0.08</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3</v>
+        <v>0.09</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J29" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="N29" t="n">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="O29" t="n">
         <v>0.01</v>
@@ -2227,7 +2227,7 @@
         <v>0.09</v>
       </c>
       <c r="R29" t="n">
-        <v>-0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="S29" t="n">
         <v>9</v>
@@ -2243,40 +2243,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.67</v>
+        <v>0.26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="K30" t="n">
         <v>0.01</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M30" t="n">
         <v>0.08</v>
       </c>
       <c r="N30" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="O30" t="n">
         <v>0.01</v>
@@ -2285,10 +2285,10 @@
         <v>0.09</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -2307,49 +2307,49 @@
         <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E31" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M31" t="n">
         <v>0.1</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.05</v>
-      </c>
       <c r="N31" t="n">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="O31" t="n">
         <v>0.03</v>
       </c>
       <c r="P31" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="Q31" t="n">
         <v>0.17</v>
       </c>
       <c r="R31" t="n">
-        <v>0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -2365,28 +2365,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="E32" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="F32" t="n">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H32" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I32" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="J32" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="K32" t="n">
         <v>0.01</v>
@@ -2398,19 +2398,19 @@
         <v>0.11</v>
       </c>
       <c r="N32" t="n">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="O32" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P32" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -2429,10 +2429,10 @@
         <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F33" t="n">
         <v>0.04</v>
@@ -2447,7 +2447,7 @@
         <v>0.08</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.05</v>
+        <v>0.35</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2456,22 +2456,22 @@
         <v>0.05</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N33" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="O33" t="n">
         <v>0.01</v>
       </c>
       <c r="P33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.17</v>
+        <v>-0.06</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -2490,13 +2490,13 @@
         <v>0.01</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F34" t="n">
-        <v>0.68</v>
+        <v>0.3</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2505,28 +2505,28 @@
         <v>0.06</v>
       </c>
       <c r="I34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.06</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.05</v>
-      </c>
       <c r="M34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N34" t="n">
-        <v>0.74</v>
+        <v>0.58</v>
       </c>
       <c r="O34" t="n">
         <v>0.02</v>
       </c>
       <c r="P34" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="Q34" t="n">
         <v>0.13</v>
@@ -2551,49 +2551,49 @@
         <v>0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F35" t="n">
-        <v>0.59</v>
+        <v>0.65</v>
       </c>
       <c r="G35" t="n">
         <v>0.01</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I35" t="n">
         <v>0.1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M35" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O35" t="n">
         <v>0.04</v>
       </c>
-      <c r="N35" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.02</v>
-      </c>
       <c r="P35" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="R35" t="n">
-        <v>0.3</v>
+        <v>-0</v>
       </c>
       <c r="S35" t="n">
         <v>11</v>
@@ -2618,7 +2618,7 @@
         <v>0.17</v>
       </c>
       <c r="F36" t="n">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="G36" t="n">
         <v>0.03</v>
@@ -2627,10 +2627,10 @@
         <v>0.14</v>
       </c>
       <c r="I36" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="J36" t="n">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="K36" t="n">
         <v>0.02</v>
@@ -2642,19 +2642,19 @@
         <v>0.13</v>
       </c>
       <c r="N36" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="O36" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="P36" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="S36" t="n">
         <v>11</v>
@@ -2670,28 +2670,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F37" t="n">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H37" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I37" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>0.46</v>
+        <v>0.28</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0.06</v>
       </c>
       <c r="N37" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="O37" t="n">
         <v>0.01</v>
@@ -2715,7 +2715,7 @@
         <v>0.09</v>
       </c>
       <c r="R37" t="n">
-        <v>-0</v>
+        <v>-0.1</v>
       </c>
       <c r="S37" t="n">
         <v>11</v>
@@ -2731,28 +2731,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F38" t="n">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I38" t="n">
         <v>0.06</v>
       </c>
       <c r="J38" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P38" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q38" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q38" t="n">
-        <v>0.13</v>
-      </c>
       <c r="R38" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="S38" t="n">
         <v>12</v>
@@ -2792,28 +2792,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E39" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F39" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.59</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.55</v>
       </c>
       <c r="K39" t="n">
         <v>0.01</v>
@@ -2822,7 +2822,7 @@
         <v>0.05</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N39" t="n">
         <v>0.79</v>
@@ -2831,13 +2831,13 @@
         <v>0.04</v>
       </c>
       <c r="P39" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="R39" t="n">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="S39" t="n">
         <v>12</v>
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D40" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="E40" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="G40" t="n">
         <v>0.03</v>
@@ -2874,31 +2874,31 @@
         <v>0.18</v>
       </c>
       <c r="J40" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="K40" t="n">
         <v>0.01</v>
       </c>
       <c r="L40" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M40" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="N40" t="n">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="O40" t="n">
         <v>0.06</v>
       </c>
       <c r="P40" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.01</v>
+        <v>-0</v>
       </c>
       <c r="S40" t="n">
         <v>12</v>
@@ -2914,28 +2914,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.06</v>
       </c>
-      <c r="E41" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.42</v>
-      </c>
       <c r="G41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         <v>0.04</v>
       </c>
       <c r="M41" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N41" t="n">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="O41" t="n">
         <v>0.01</v>
       </c>
       <c r="P41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="S41" t="n">
         <v>12</v>
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F42" t="n">
-        <v>0.62</v>
+        <v>0.37</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2996,31 +2996,31 @@
         <v>0.06</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M42" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N42" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="O42" t="n">
         <v>0.01</v>
       </c>
       <c r="P42" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="S42" t="n">
         <v>13</v>
@@ -3042,10 +3042,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F43" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="G43" t="n">
         <v>0.01</v>
@@ -3057,31 +3057,31 @@
         <v>0.11</v>
       </c>
       <c r="J43" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M43" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N43" t="n">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O43" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="P43" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="R43" t="n">
-        <v>0.11</v>
+        <v>-0</v>
       </c>
       <c r="S43" t="n">
         <v>13</v>
@@ -3103,10 +3103,10 @@
         <v>0.13</v>
       </c>
       <c r="E44" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="G44" t="n">
         <v>0.03</v>
@@ -3115,31 +3115,31 @@
         <v>0.13</v>
       </c>
       <c r="I44" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P44" t="n">
         <v>0.16</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.14</v>
-      </c>
       <c r="Q44" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="R44" t="n">
         <v>-0.01</v>
@@ -3158,28 +3158,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F45" t="n">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J45" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -3191,19 +3191,19 @@
         <v>0.05</v>
       </c>
       <c r="N45" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="O45" t="n">
         <v>0.01</v>
       </c>
       <c r="P45" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.17</v>
+        <v>-0.02</v>
       </c>
       <c r="S45" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.12</v>
+        <v>0.65</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,31 +556,31 @@
         <v>0.01</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="M2" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06</v>
+        <v>-0.58</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.11</v>
+        <v>0.99</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -596,52 +596,52 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.23</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>-153.88</v>
+        <v>0.27</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.64</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="N3" t="n">
-        <v>-0</v>
+        <v>-1.21</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="R3" t="n">
-        <v>-22.78</v>
+        <v>0.96</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -657,52 +657,52 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18</v>
+        <v>0.41</v>
       </c>
       <c r="E4" t="n">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.42</v>
+        <v>-0.45</v>
       </c>
       <c r="G4" t="n">
-        <v>1.22</v>
+        <v>0.85</v>
       </c>
       <c r="H4" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.1</v>
+        <v>0.92</v>
       </c>
       <c r="J4" t="n">
-        <v>-270.43</v>
+        <v>-5.64</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="M4" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.96</v>
+        <v>0.79</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="P4" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.48</v>
+        <v>-0.25</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.54</v>
+        <v>0.88</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -736,34 +736,34 @@
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="K5" t="n">
         <v>0.04</v>
       </c>
       <c r="L5" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="M5" t="n">
         <v>0.2</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.46</v>
+        <v>-0.46</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.67</v>
+        <v>0.86</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -779,52 +779,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="E6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.16</v>
       </c>
-      <c r="F6" t="n">
-        <v>-0.18</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.11</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.11</v>
+        <v>-2.12</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.26</v>
+        <v>0.73</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -840,52 +840,52 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.14</v>
-      </c>
       <c r="E7" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="F7" t="n">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>8806708896730556</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01</v>
+        <v>38311679.9</v>
       </c>
       <c r="I7" t="n">
+        <v>93844066.92</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-7.992746948230189e+16</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>0.02</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.2</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="R7" t="n">
-        <v>-0</v>
+        <v>0.99</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -901,52 +901,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="E8" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>-0.49</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="I8" t="n">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
       <c r="J8" t="n">
-        <v>0.18</v>
+        <v>-0.75</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09</v>
+        <v>0.32</v>
       </c>
       <c r="M8" t="n">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="N8" t="n">
-        <v>0.79</v>
+        <v>-0.32</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>-0.39</v>
       </c>
       <c r="S8" t="n">
         <v>4</v>
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F9" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.09</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="J9" t="n">
-        <v>0.79</v>
+        <v>0.33</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0.09</v>
       </c>
       <c r="M9" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="N9" t="n">
-        <v>0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="R9" t="n">
-        <v>-0</v>
+        <v>0.65</v>
       </c>
       <c r="S9" t="n">
         <v>4</v>
@@ -1023,52 +1023,52 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.03</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.01</v>
-      </c>
       <c r="L10" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="M10" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6</v>
+        <v>-0.33</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.03</v>
+        <v>0.88</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1084,52 +1084,52 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.112579977521814e+21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15320936936.72</v>
+      </c>
+      <c r="I11" t="n">
+        <v>45962810809.63</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-3.922929602999397e+22</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0.17</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.32</v>
-      </c>
       <c r="R11" t="n">
-        <v>-0.28</v>
+        <v>0.45</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1145,52 +1145,52 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
       <c r="E12" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="F12" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="H12" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I12" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="J12" t="n">
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="L12" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="M12" t="n">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="N12" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="O12" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P12" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.01</v>
+        <v>0.23</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1206,52 +1206,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="G13" t="n">
         <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="N13" t="n">
-        <v>0.47</v>
+        <v>0.55</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P13" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q13" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R13" t="n">
         <v>0.15</v>
-      </c>
-      <c r="R13" t="n">
-        <v>-0.03</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1267,52 +1267,52 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.02</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.01</v>
-      </c>
       <c r="L14" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="N14" t="n">
-        <v>0.68</v>
+        <v>-1.29</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P14" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.13</v>
+        <v>0.41</v>
       </c>
       <c r="S14" t="n">
         <v>6</v>
@@ -1328,52 +1328,52 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D15" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.17</v>
       </c>
-      <c r="E15" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8.463875523116217e+22</v>
-      </c>
-      <c r="H15" t="n">
-        <v>87918879279.63</v>
-      </c>
-      <c r="I15" t="n">
-        <v>290927405431.6</v>
-      </c>
       <c r="J15" t="n">
-        <v>-8.37454872014303e+23</v>
+        <v>0.62</v>
       </c>
       <c r="K15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.02</v>
       </c>
-      <c r="L15" t="n">
+      <c r="P15" t="n">
         <v>0.12</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.26</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.06</v>
+        <v>0.68</v>
       </c>
       <c r="S15" t="n">
         <v>6</v>
@@ -1389,52 +1389,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="D16" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.85</v>
+        <v>0.44</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="H16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.25</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.29</v>
-      </c>
       <c r="J16" t="n">
-        <v>-0.72</v>
+        <v>0.16</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L16" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.22</v>
+        <v>0.74</v>
       </c>
       <c r="O16" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="P16" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.44</v>
+        <v>0.38</v>
       </c>
       <c r="S16" t="n">
         <v>6</v>
@@ -1456,46 +1456,46 @@
         <v>0.1</v>
       </c>
       <c r="E17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.12</v>
       </c>
-      <c r="F17" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.09</v>
-      </c>
       <c r="I17" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3</v>
+        <v>-0.47</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.45</v>
+        <v>0.64</v>
       </c>
       <c r="O17" t="n">
         <v>0.01</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Q17" t="n">
         <v>0.12</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.04</v>
+        <v>-0.21</v>
       </c>
       <c r="S17" t="n">
         <v>6</v>
@@ -1511,52 +1511,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="E18" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.18</v>
+        <v>0.8</v>
       </c>
       <c r="G18" t="n">
         <v>0.01</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="K18" t="n">
         <v>0.01</v>
       </c>
       <c r="L18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.1</v>
       </c>
-      <c r="M18" t="n">
-        <v>0.12</v>
-      </c>
       <c r="N18" t="n">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.02</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1581,43 +1581,43 @@
         <v>0.13</v>
       </c>
       <c r="F19" t="n">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="G19" t="n">
-        <v>1.984742312557126e+18</v>
+        <v>7.802476600995988e+17</v>
       </c>
       <c r="H19" t="n">
-        <v>404017282.51</v>
+        <v>214235667.52</v>
       </c>
       <c r="I19" t="n">
-        <v>1408808827.54</v>
+        <v>883316285.4299999</v>
       </c>
       <c r="J19" t="n">
-        <v>-4.718331644024032e+19</v>
+        <v>-1.265818497421648e+19</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="M19" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="N19" t="n">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="O19" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="P19" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.23</v>
+        <v>0.14</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.23</v>
+        <v>0.7</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1633,52 +1633,52 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.18</v>
       </c>
-      <c r="E20" t="n">
+      <c r="I20" t="n">
         <v>0.22</v>
       </c>
-      <c r="F20" t="n">
+      <c r="J20" t="n">
         <v>0.23</v>
       </c>
-      <c r="G20" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="K20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0.21</v>
       </c>
-      <c r="I20" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.26</v>
-      </c>
       <c r="R20" t="n">
-        <v>-0</v>
+        <v>0.31</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1697,37 +1697,37 @@
         <v>0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.1</v>
       </c>
-      <c r="F21" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.08</v>
-      </c>
       <c r="J21" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="K21" t="n">
         <v>0.01</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N21" t="n">
-        <v>0.35</v>
+        <v>0.39</v>
       </c>
       <c r="O21" t="n">
         <v>0.01</v>
@@ -1739,7 +1739,7 @@
         <v>0.11</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.41</v>
+        <v>0.42</v>
       </c>
       <c r="S21" t="n">
         <v>7</v>
@@ -1758,49 +1758,49 @@
         <v>0.01</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>0.24</v>
+        <v>0.73</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="J22" t="n">
-        <v>0.68</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.01</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N22" t="n">
-        <v>0.53</v>
+        <v>0.74</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="S22" t="n">
         <v>8</v>
@@ -1819,49 +1819,49 @@
         <v>0.02</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E23" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F23" t="n">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="G23" t="n">
-        <v>2.19</v>
+        <v>1.063456410510985e+20</v>
       </c>
       <c r="H23" t="n">
-        <v>0.98</v>
+        <v>3488796920.72</v>
       </c>
       <c r="I23" t="n">
-        <v>1.48</v>
+        <v>10312402292.92</v>
       </c>
       <c r="J23" t="n">
-        <v>-35.61</v>
+        <v>-1.950439015712207e+21</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="L23" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="N23" t="n">
-        <v>0.93</v>
+        <v>0.54</v>
       </c>
       <c r="O23" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="P23" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="R23" t="n">
-        <v>-0</v>
+        <v>0.63</v>
       </c>
       <c r="S23" t="n">
         <v>8</v>
@@ -1880,13 +1880,13 @@
         <v>0.03</v>
       </c>
       <c r="D24" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E24" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09</v>
+        <v>0.28</v>
       </c>
       <c r="G24" t="n">
         <v>0.04</v>
@@ -1898,31 +1898,31 @@
         <v>0.19</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K24" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="M24" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="N24" t="n">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="O24" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="P24" t="n">
         <v>0.13</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.1</v>
+        <v>0.29</v>
       </c>
       <c r="S24" t="n">
         <v>8</v>
@@ -1944,10 +1944,10 @@
         <v>0.08</v>
       </c>
       <c r="E25" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="G25" t="n">
         <v>0.01</v>
@@ -1956,34 +1956,34 @@
         <v>0.08</v>
       </c>
       <c r="I25" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0.1</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.11</v>
-      </c>
       <c r="R25" t="n">
-        <v>-0.02</v>
+        <v>0.47</v>
       </c>
       <c r="S25" t="n">
         <v>8</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.28</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="K26" t="n">
         <v>0.01</v>
@@ -2029,22 +2029,22 @@
         <v>0.05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N26" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R26" t="n">
-        <v>-0</v>
+        <v>0.72</v>
       </c>
       <c r="S26" t="n">
         <v>9</v>
@@ -2060,52 +2060,52 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E27" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="H27" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I27" t="n">
-        <v>0.11</v>
+        <v>0.48</v>
       </c>
       <c r="J27" t="n">
-        <v>0.72</v>
+        <v>-8.66</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M27" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="N27" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="P27" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.03</v>
+        <v>0.75</v>
       </c>
       <c r="S27" t="n">
         <v>9</v>
@@ -2127,46 +2127,46 @@
         <v>0.16</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F28" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="G28" t="n">
         <v>0.04</v>
       </c>
       <c r="H28" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I28" t="n">
         <v>0.2</v>
       </c>
       <c r="J28" t="n">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
       <c r="K28" t="n">
         <v>0.02</v>
       </c>
       <c r="L28" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M28" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="N28" t="n">
-        <v>0.59</v>
+        <v>0.79</v>
       </c>
       <c r="O28" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="P28" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="R28" t="n">
-        <v>-0</v>
+        <v>0.46</v>
       </c>
       <c r="S28" t="n">
         <v>9</v>
@@ -2185,25 +2185,25 @@
         <v>0.01</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09</v>
+        <v>0.45</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J29" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>0.03</v>
       </c>
       <c r="M29" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="N29" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="O29" t="n">
         <v>0.01</v>
@@ -2224,10 +2224,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="S29" t="n">
         <v>9</v>
@@ -2246,49 +2246,49 @@
         <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.26</v>
+        <v>0.67</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="J30" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="K30" t="n">
         <v>0.01</v>
       </c>
       <c r="L30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.06</v>
+        <v>0.73</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -2313,43 +2313,43 @@
         <v>0.11</v>
       </c>
       <c r="F31" t="n">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.13</v>
+        <v>0.58</v>
       </c>
       <c r="H31" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="I31" t="n">
-        <v>0.36</v>
+        <v>0.76</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.59</v>
+        <v>-14.22</v>
       </c>
       <c r="K31" t="n">
         <v>0.01</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N31" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="O31" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P31" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.03</v>
+        <v>0.7</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -2374,43 +2374,43 @@
         <v>0.19</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H32" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I32" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="J32" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="K32" t="n">
         <v>0.01</v>
       </c>
       <c r="L32" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M32" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N32" t="n">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="P32" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.03</v>
+        <v>0.32</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -2432,10 +2432,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04</v>
+        <v>0.29</v>
       </c>
       <c r="G33" t="n">
         <v>0.01</v>
@@ -2447,7 +2447,7 @@
         <v>0.08</v>
       </c>
       <c r="J33" t="n">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2456,22 +2456,22 @@
         <v>0.05</v>
       </c>
       <c r="M33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="N33" t="n">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="O33" t="n">
         <v>0.01</v>
       </c>
       <c r="P33" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.06</v>
+        <v>0.32</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -2487,28 +2487,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="E34" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="K34" t="n">
         <v>0.01</v>
@@ -2520,19 +2520,19 @@
         <v>0.08</v>
       </c>
       <c r="N34" t="n">
-        <v>0.58</v>
+        <v>0.36</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="R34" t="n">
-        <v>-0</v>
+        <v>0.63</v>
       </c>
       <c r="S34" t="n">
         <v>11</v>
@@ -2551,49 +2551,49 @@
         <v>0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E35" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F35" t="n">
         <v>0.65</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01</v>
+        <v>0.67</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1</v>
+        <v>0.82</v>
       </c>
       <c r="J35" t="n">
-        <v>0.71</v>
+        <v>-19.29</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="M35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="N35" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="O35" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="P35" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="R35" t="n">
-        <v>-0</v>
+        <v>0.65</v>
       </c>
       <c r="S35" t="n">
         <v>11</v>
@@ -2612,49 +2612,49 @@
         <v>0.03</v>
       </c>
       <c r="D36" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E36" t="n">
         <v>0.17</v>
       </c>
       <c r="F36" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
       <c r="G36" t="n">
         <v>0.03</v>
       </c>
       <c r="H36" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I36" t="n">
         <v>0.17</v>
       </c>
       <c r="J36" t="n">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="K36" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M36" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="N36" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="O36" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="P36" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01</v>
+        <v>0.38</v>
       </c>
       <c r="S36" t="n">
         <v>11</v>
@@ -2679,7 +2679,7 @@
         <v>0.08</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="G37" t="n">
         <v>0.01</v>
@@ -2688,19 +2688,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J37" t="n">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L37" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N37" t="n">
         <v>0.6</v>
@@ -2712,10 +2712,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1</v>
+        <v>0.46</v>
       </c>
       <c r="S37" t="n">
         <v>11</v>
@@ -2731,16 +2731,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F38" t="n">
-        <v>0.31</v>
+        <v>0.77</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0.06</v>
       </c>
       <c r="J38" t="n">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.01</v>
+        <v>0.78</v>
       </c>
       <c r="S38" t="n">
         <v>12</v>
@@ -2798,10 +2798,10 @@
         <v>0.08</v>
       </c>
       <c r="E39" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F39" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="G39" t="n">
         <v>0.01</v>
@@ -2813,31 +2813,31 @@
         <v>0.12</v>
       </c>
       <c r="J39" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="K39" t="n">
         <v>0.01</v>
       </c>
       <c r="L39" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M39" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N39" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="P39" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.04</v>
+        <v>0.58</v>
       </c>
       <c r="S39" t="n">
         <v>12</v>
@@ -2853,52 +2853,52 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D40" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.17</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.2</v>
-      </c>
       <c r="F40" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="G40" t="n">
         <v>0.03</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="K40" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L40" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M40" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="N40" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="O40" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="P40" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="R40" t="n">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="S40" t="n">
         <v>12</v>
@@ -2917,25 +2917,25 @@
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06</v>
+        <v>0.41</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H41" t="n">
         <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J41" t="n">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0.01</v>
       </c>
       <c r="P41" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.1</v>
+        <v>0.42</v>
       </c>
       <c r="S41" t="n">
         <v>12</v>
@@ -2975,16 +2975,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E42" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2996,31 +2996,31 @@
         <v>0.06</v>
       </c>
       <c r="J42" t="n">
-        <v>0.74</v>
+        <v>0.62</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="M42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="N42" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="O42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.03</v>
+        <v>0.64</v>
       </c>
       <c r="S42" t="n">
         <v>13</v>
@@ -3039,49 +3039,49 @@
         <v>0.01</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E43" t="n">
         <v>0.11</v>
       </c>
       <c r="F43" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="G43" t="n">
         <v>0.01</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I43" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q43" t="n">
         <v>0.11</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.21</v>
-      </c>
       <c r="R43" t="n">
-        <v>-0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S43" t="n">
         <v>13</v>
@@ -3097,52 +3097,52 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D44" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E44" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F44" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
       <c r="G44" t="n">
         <v>0.03</v>
       </c>
       <c r="H44" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I44" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="J44" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="K44" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L44" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M44" t="n">
         <v>0.12</v>
       </c>
       <c r="N44" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="O44" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="P44" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q44" t="n">
         <v>0.16</v>
       </c>
-      <c r="Q44" t="n">
-        <v>0.22</v>
-      </c>
       <c r="R44" t="n">
-        <v>-0.01</v>
+        <v>0.48</v>
       </c>
       <c r="S44" t="n">
         <v>13</v>
@@ -3161,49 +3161,49 @@
         <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="E45" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F45" t="n">
-        <v>0.14</v>
+        <v>0.53</v>
       </c>
       <c r="G45" t="n">
         <v>0.01</v>
       </c>
       <c r="H45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I45" t="n">
         <v>0.08</v>
       </c>
       <c r="J45" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M45" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="N45" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="O45" t="n">
         <v>0.01</v>
       </c>
       <c r="P45" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.02</v>
+        <v>0.54</v>
       </c>
       <c r="S45" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,65 +461,45 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>xgboost-mse</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>xgboost-mae</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>xgboost-rmse</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>xgboost-r2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>xgboost-mse</t>
+          <t>lasso-mse</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>xgboost-mae</t>
+          <t>lasso-mae</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>xgboost-rmse</t>
+          <t>lasso-rmse</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>xgboost-r2</t>
+          <t>lasso-r2</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>lasso-mse</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>lasso-mae</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>lasso-rmse</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>lasso-r2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>num_datasets</t>
         </is>
@@ -535,54 +515,42 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F2" t="n">
-        <v>0.65</v>
+        <v>-0.21</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="J2" t="n">
-        <v>0.98</v>
+        <v>-1.67</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.58</v>
+        <v>0.99</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="S2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -596,54 +564,42 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="F3" t="n">
-        <v>0.27</v>
+        <v>0.97</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.03</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.64</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.21</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="S3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -657,54 +613,42 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="E4" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.45</v>
+        <v>-2.57</v>
       </c>
       <c r="G4" t="n">
-        <v>0.85</v>
+        <v>0.04</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="I4" t="n">
-        <v>0.92</v>
+        <v>0.21</v>
       </c>
       <c r="J4" t="n">
-        <v>-5.64</v>
+        <v>0.36</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.12</v>
+        <v>0.42</v>
       </c>
       <c r="M4" t="n">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
       <c r="N4" t="n">
-        <v>0.79</v>
+        <v>-1.86</v>
       </c>
       <c r="O4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="S4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -721,51 +665,39 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="J5" t="n">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.46</v>
+        <v>0.91</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="S5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -782,51 +714,39 @@
         <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.35</v>
+        <v>0.75</v>
       </c>
       <c r="G6" t="n">
         <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.37</v>
+        <v>0.76</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L6" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="N6" t="n">
-        <v>-2.12</v>
+        <v>0.86</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -843,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E7" t="n">
         <v>0.03</v>
@@ -852,42 +772,30 @@
         <v>0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>8806708896730556</v>
+        <v>0.11</v>
       </c>
       <c r="H7" t="n">
-        <v>38311679.9</v>
+        <v>0.27</v>
       </c>
       <c r="I7" t="n">
-        <v>93844066.92</v>
+        <v>0.33</v>
       </c>
       <c r="J7" t="n">
-        <v>-7.992746948230189e+16</v>
+        <v>-0.09</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="M7" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="S7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -901,54 +809,42 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="D8" t="n">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.49</v>
+        <v>0.11</v>
       </c>
       <c r="G8" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="I8" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.75</v>
+        <v>0.15</v>
       </c>
       <c r="K8" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="L8" t="n">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="M8" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.32</v>
+        <v>-0.02</v>
       </c>
       <c r="O8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R8" t="n">
-        <v>-0.39</v>
-      </c>
-      <c r="S8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -962,54 +858,42 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F9" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="G9" t="n">
         <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I9" t="n">
         <v>0.09</v>
       </c>
       <c r="J9" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M9" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.13</v>
+        <v>0.67</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1032,45 +916,33 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="J10" t="n">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="M10" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.33</v>
+        <v>0.83</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="S10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1084,54 +956,42 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.03</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.112579977521814e+21</v>
-      </c>
-      <c r="H11" t="n">
-        <v>15320936936.72</v>
-      </c>
-      <c r="I11" t="n">
-        <v>45962810809.63</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-3.922929602999397e+22</v>
       </c>
       <c r="K11" t="n">
         <v>0.02</v>
       </c>
       <c r="L11" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="M11" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1145,54 +1005,42 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="D12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.23</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.26</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="H12" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="I12" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05</v>
+        <v>0.84</v>
       </c>
       <c r="K12" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="M12" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="N12" t="n">
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="S12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1209,51 +1057,39 @@
         <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13</v>
+        <v>-0.78</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="J13" t="n">
-        <v>0.12</v>
+        <v>-1.6</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L13" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="N13" t="n">
-        <v>0.55</v>
+        <v>-0.48</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1270,51 +1106,39 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.09</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.23</v>
       </c>
-      <c r="G14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.41</v>
-      </c>
       <c r="K14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="M14" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.29</v>
+        <v>0.66</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="S14" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1328,54 +1152,42 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D15" t="n">
         <v>0.12</v>
       </c>
       <c r="E15" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H15" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I15" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="L15" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="M15" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1389,54 +1201,42 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.04</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.06</v>
-      </c>
       <c r="H16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.21</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.25</v>
-      </c>
       <c r="J16" t="n">
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L16" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="M16" t="n">
-        <v>0.14</v>
+        <v>0.27</v>
       </c>
       <c r="N16" t="n">
-        <v>0.74</v>
+        <v>0.06</v>
       </c>
       <c r="O16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1453,51 +1253,39 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E17" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03</v>
+        <v>0.58</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H17" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.47</v>
+        <v>0.67</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N17" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R17" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="S17" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1511,54 +1299,42 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.1</v>
-      </c>
       <c r="N18" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="S18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1578,48 +1354,36 @@
         <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F19" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="G19" t="n">
-        <v>7.802476600995988e+17</v>
+        <v>0.02</v>
       </c>
       <c r="H19" t="n">
-        <v>214235667.52</v>
+        <v>0.11</v>
       </c>
       <c r="I19" t="n">
-        <v>883316285.4299999</v>
+        <v>0.15</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.265818497421648e+19</v>
+        <v>0.6</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L19" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="M19" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="N19" t="n">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1636,51 +1400,39 @@
         <v>0.04</v>
       </c>
       <c r="D20" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F20" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H20" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.18</v>
       </c>
-      <c r="I20" t="n">
+      <c r="M20" t="n">
         <v>0.22</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.11</v>
-      </c>
       <c r="N20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1697,51 +1449,39 @@
         <v>0.01</v>
       </c>
       <c r="D21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M21" t="n">
         <v>0.1</v>
       </c>
-      <c r="E21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.11</v>
-      </c>
       <c r="N21" t="n">
-        <v>0.39</v>
+        <v>-0.7</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1758,51 +1498,39 @@
         <v>0.01</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E22" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.06</v>
-      </c>
       <c r="M22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N22" t="n">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S22" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1819,51 +1547,39 @@
         <v>0.02</v>
       </c>
       <c r="D23" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E23" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F23" t="n">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="G23" t="n">
-        <v>1.063456410510985e+20</v>
+        <v>0.01</v>
       </c>
       <c r="H23" t="n">
-        <v>3488796920.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>10312402292.92</v>
+        <v>0.09</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.950439015712207e+21</v>
+        <v>0.76</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L23" t="n">
         <v>0.11</v>
       </c>
       <c r="M23" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="N23" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S23" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1880,51 +1596,39 @@
         <v>0.03</v>
       </c>
       <c r="D24" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="E24" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="F24" t="n">
-        <v>0.28</v>
+        <v>0.45</v>
       </c>
       <c r="G24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.04</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.01</v>
-      </c>
       <c r="L24" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="M24" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7</v>
+        <v>0.29</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S24" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1944,48 +1648,36 @@
         <v>0.08</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F25" t="n">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="G25" t="n">
         <v>0.01</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.09</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N25" t="n">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="S25" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2005,10 +1697,10 @@
         <v>0.05</v>
       </c>
       <c r="E26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2020,33 +1712,21 @@
         <v>0.06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0.05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="N26" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S26" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2060,54 +1740,42 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="G27" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="H27" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="I27" t="n">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="J27" t="n">
-        <v>-8.66</v>
+        <v>0.87</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="N27" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2124,51 +1792,39 @@
         <v>0.04</v>
       </c>
       <c r="D28" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.21</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.13</v>
-      </c>
       <c r="N28" t="n">
-        <v>0.79</v>
+        <v>0.31</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S28" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2185,51 +1841,39 @@
         <v>0.01</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E29" t="n">
         <v>0.09</v>
       </c>
       <c r="F29" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.45</v>
       </c>
-      <c r="G29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.49</v>
-      </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L29" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="N29" t="n">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S29" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2243,7 +1887,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0.06</v>
@@ -2252,22 +1896,22 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J30" t="n">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0.06</v>
@@ -2276,21 +1920,9 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N30" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S30" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2313,45 +1945,33 @@
         <v>0.11</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="G31" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.28</v>
+        <v>0.04</v>
       </c>
       <c r="I31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.76</v>
       </c>
-      <c r="J31" t="n">
-        <v>-14.22</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.68</v>
-      </c>
       <c r="O31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S31" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2365,54 +1985,42 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D32" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="F32" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="G32" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H32" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="J32" t="n">
-        <v>0.31</v>
+        <v>0.75</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="L32" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="M32" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="N32" t="n">
-        <v>0.74</v>
+        <v>0.57</v>
       </c>
       <c r="O32" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S32" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2429,51 +2037,39 @@
         <v>0.01</v>
       </c>
       <c r="D33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.08</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.26</v>
+        <v>0.61</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="M33" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="N33" t="n">
-        <v>0.62</v>
+        <v>0.33</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S33" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2496,7 +2092,7 @@
         <v>0.06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6</v>
+        <v>0.76</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2508,33 +2104,21 @@
         <v>0.06</v>
       </c>
       <c r="J34" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="N34" t="n">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S34" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2560,42 +2144,30 @@
         <v>0.65</v>
       </c>
       <c r="G35" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="I35" t="n">
-        <v>0.82</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>-19.29</v>
+        <v>0.87</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L35" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="N35" t="n">
-        <v>0.92</v>
+        <v>0.63</v>
       </c>
       <c r="O35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S35" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2612,51 +2184,39 @@
         <v>0.03</v>
       </c>
       <c r="D36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.13</v>
       </c>
-      <c r="E36" t="n">
+      <c r="M36" t="n">
         <v>0.17</v>
       </c>
-      <c r="F36" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.12</v>
-      </c>
       <c r="N36" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="O36" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="S36" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2679,45 +2239,33 @@
         <v>0.08</v>
       </c>
       <c r="F37" t="n">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I37" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I37" t="n">
-        <v>0.08</v>
-      </c>
       <c r="J37" t="n">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="K37" t="n">
         <v>0.01</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N37" t="n">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
       <c r="O37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="S37" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2740,19 +2288,19 @@
         <v>0.06</v>
       </c>
       <c r="F38" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H38" t="n">
         <v>0.05</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J38" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2761,24 +2309,12 @@
         <v>0.05</v>
       </c>
       <c r="M38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="N38" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="S38" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2798,48 +2334,36 @@
         <v>0.08</v>
       </c>
       <c r="E39" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M39" t="n">
         <v>0.12</v>
       </c>
-      <c r="F39" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="N39" t="n">
-        <v>0.84</v>
+        <v>0.58</v>
       </c>
       <c r="O39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="S39" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2853,54 +2377,42 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D40" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E40" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F40" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.37</v>
+        <v>0.77</v>
       </c>
       <c r="K40" t="n">
         <v>0.02</v>
       </c>
       <c r="L40" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="M40" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="N40" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="O40" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S40" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2920,48 +2432,36 @@
         <v>0.06</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.41</v>
+        <v>0.47</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J41" t="n">
-        <v>0.41</v>
+        <v>0.6</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L41" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="M41" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>0.75</v>
+        <v>0.46</v>
       </c>
       <c r="O41" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S41" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2984,19 +2484,19 @@
         <v>0.06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I42" t="n">
         <v>0.06</v>
       </c>
       <c r="J42" t="n">
-        <v>0.62</v>
+        <v>0.76</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3005,24 +2505,12 @@
         <v>0.04</v>
       </c>
       <c r="M42" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="N42" t="n">
-        <v>0.64</v>
+        <v>0.79</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S42" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3045,45 +2533,33 @@
         <v>0.11</v>
       </c>
       <c r="F43" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J43" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="K43" t="n">
         <v>0.01</v>
       </c>
       <c r="L43" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="O43" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S43" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3097,54 +2573,42 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D44" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E44" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F44" t="n">
-        <v>0.52</v>
+        <v>0.33</v>
       </c>
       <c r="G44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.03</v>
       </c>
-      <c r="H44" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.01</v>
-      </c>
       <c r="L44" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="M44" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="N44" t="n">
-        <v>0.73</v>
+        <v>0.32</v>
       </c>
       <c r="O44" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="S44" t="n">
         <v>13</v>
       </c>
     </row>
@@ -3167,45 +2631,33 @@
         <v>0.08</v>
       </c>
       <c r="F45" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I45" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J45" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L45" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M45" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="N45" t="n">
-        <v>0.74</v>
+        <v>0.32</v>
       </c>
       <c r="O45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="S45" t="n">
         <v>13</v>
       </c>
     </row>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -524,31 +524,31 @@
         <v>0.09</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.21</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.67</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="N2" t="n">
-        <v>0.99</v>
+        <v>-0.03</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F3" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -613,40 +613,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="E4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F4" t="n">
-        <v>-2.57</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="M4" t="n">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="N4" t="n">
-        <v>-1.86</v>
+        <v>-8.43</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -671,31 +671,31 @@
         <v>0.05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.93</v>
+        <v>0.54</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="N5" t="n">
-        <v>0.91</v>
+        <v>0.27</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
@@ -714,37 +714,37 @@
         <v>0.01</v>
       </c>
       <c r="D6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.09</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.1</v>
-      </c>
       <c r="F6" t="n">
-        <v>0.75</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0.01</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="N6" t="n">
-        <v>0.86</v>
+        <v>-0.59</v>
       </c>
       <c r="O6" t="n">
         <v>4</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="n">
         <v>0.03</v>
@@ -772,28 +772,28 @@
         <v>0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
@@ -809,40 +809,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="E8" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="F8" t="n">
-        <v>0.11</v>
+        <v>-0.25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="L8" t="n">
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="M8" t="n">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="O8" t="n">
         <v>4</v>
@@ -861,37 +861,37 @@
         <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L9" t="n">
         <v>0.06</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="O9" t="n">
         <v>4</v>
@@ -910,37 +910,37 @@
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.78</v>
+        <v>0.46</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.06</v>
-      </c>
       <c r="M10" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="N10" t="n">
-        <v>0.83</v>
+        <v>0.17</v>
       </c>
       <c r="O10" t="n">
         <v>5</v>
@@ -956,40 +956,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.03</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L11" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="M11" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="N11" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
@@ -1005,40 +1005,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D12" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.19</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.23</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="L12" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="M12" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="N12" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="O12" t="n">
         <v>5</v>
@@ -1057,37 +1057,37 @@
         <v>0.01</v>
       </c>
       <c r="D13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.12</v>
-      </c>
       <c r="F13" t="n">
-        <v>-0.78</v>
+        <v>0.46</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.6</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0.01</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M13" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.48</v>
+        <v>0.5</v>
       </c>
       <c r="O13" t="n">
         <v>5</v>
@@ -1106,37 +1106,37 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.12</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N14" t="n">
-        <v>0.66</v>
+        <v>0.46</v>
       </c>
       <c r="O14" t="n">
         <v>6</v>
@@ -1155,37 +1155,37 @@
         <v>0.02</v>
       </c>
       <c r="D15" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E15" t="n">
         <v>0.14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0.02</v>
       </c>
       <c r="L15" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M15" t="n">
         <v>0.14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.68</v>
+        <v>0.47</v>
       </c>
       <c r="O15" t="n">
         <v>6</v>
@@ -1204,37 +1204,37 @@
         <v>0.06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E16" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0.24</v>
+        <v>-0.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="L16" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="M16" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="N16" t="n">
-        <v>0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="O16" t="n">
         <v>6</v>
@@ -1253,37 +1253,37 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.58</v>
+        <v>-0.9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.06</v>
-      </c>
       <c r="M17" t="n">
         <v>0.08</v>
       </c>
       <c r="N17" t="n">
-        <v>0.63</v>
+        <v>-0.05</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
@@ -1302,37 +1302,37 @@
         <v>0.01</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="F18" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="M18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="N18" t="n">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
@@ -1351,37 +1351,37 @@
         <v>0.02</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E19" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F19" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0.02</v>
       </c>
       <c r="L19" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="M19" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N19" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="O19" t="n">
         <v>7</v>
@@ -1400,37 +1400,37 @@
         <v>0.04</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="E20" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0.05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="M20" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="N20" t="n">
-        <v>0.19</v>
+        <v>-0.06</v>
       </c>
       <c r="O20" t="n">
         <v>7</v>
@@ -1449,25 +1449,25 @@
         <v>0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.16</v>
+        <v>0.39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0.01</v>
@@ -1476,10 +1476,10 @@
         <v>0.08</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.7</v>
+        <v>0.41</v>
       </c>
       <c r="O21" t="n">
         <v>7</v>
@@ -1504,19 +1504,19 @@
         <v>0.09</v>
       </c>
       <c r="F22" t="n">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0.01</v>
@@ -1525,10 +1525,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O22" t="n">
         <v>8</v>
@@ -1550,22 +1550,22 @@
         <v>0.11</v>
       </c>
       <c r="E23" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="F23" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0.02</v>
@@ -1574,10 +1574,10 @@
         <v>0.11</v>
       </c>
       <c r="M23" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="N23" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="O23" t="n">
         <v>8</v>
@@ -1593,28 +1593,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D24" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E24" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F24" t="n">
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0.04</v>
@@ -1623,10 +1623,10 @@
         <v>0.17</v>
       </c>
       <c r="M24" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="O24" t="n">
         <v>8</v>
@@ -1648,22 +1648,22 @@
         <v>0.08</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0.01</v>
@@ -1675,7 +1675,7 @@
         <v>0.09</v>
       </c>
       <c r="N25" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="O25" t="n">
         <v>8</v>
@@ -1691,40 +1691,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F26" t="n">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L26" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="N26" t="n">
-        <v>0.75</v>
+        <v>0.39</v>
       </c>
       <c r="O26" t="n">
         <v>9</v>
@@ -1743,25 +1743,25 @@
         <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E27" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F27" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0.01</v>
@@ -1770,10 +1770,10 @@
         <v>0.09</v>
       </c>
       <c r="M27" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N27" t="n">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
       <c r="O27" t="n">
         <v>9</v>
@@ -1789,40 +1789,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.03</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="L28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.18</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.21</v>
-      </c>
       <c r="N28" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="O28" t="n">
         <v>9</v>
@@ -1847,19 +1847,19 @@
         <v>0.09</v>
       </c>
       <c r="F29" t="n">
-        <v>0.46</v>
+        <v>0.26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0.01</v>
@@ -1871,7 +1871,7 @@
         <v>0.09</v>
       </c>
       <c r="N29" t="n">
-        <v>0.47</v>
+        <v>0.27</v>
       </c>
       <c r="O29" t="n">
         <v>9</v>
@@ -1887,40 +1887,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F30" t="n">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L30" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="O30" t="n">
         <v>10</v>
@@ -1939,37 +1939,37 @@
         <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E31" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F31" t="n">
-        <v>0.74</v>
+        <v>0.87</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.06</v>
       </c>
-      <c r="J31" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.08</v>
-      </c>
       <c r="M31" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N31" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="O31" t="n">
         <v>10</v>
@@ -1988,25 +1988,25 @@
         <v>0.03</v>
       </c>
       <c r="D32" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E32" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="F32" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0.03</v>
@@ -2018,7 +2018,7 @@
         <v>0.17</v>
       </c>
       <c r="N32" t="n">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="O32" t="n">
         <v>10</v>
@@ -2037,37 +2037,37 @@
         <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F33" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.08</v>
-      </c>
       <c r="M33" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="N33" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="O33" t="n">
         <v>10</v>
@@ -2083,40 +2083,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F34" t="n">
-        <v>0.76</v>
+        <v>0.49</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="N34" t="n">
-        <v>0.71</v>
+        <v>0.48</v>
       </c>
       <c r="O34" t="n">
         <v>11</v>
@@ -2135,37 +2135,37 @@
         <v>0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F35" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J35" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.08</v>
-      </c>
       <c r="M35" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="N35" t="n">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="O35" t="n">
         <v>11</v>
@@ -2184,37 +2184,37 @@
         <v>0.03</v>
       </c>
       <c r="D36" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F36" t="n">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0.03</v>
       </c>
       <c r="L36" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="M36" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="N36" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="O36" t="n">
         <v>11</v>
@@ -2239,19 +2239,19 @@
         <v>0.08</v>
       </c>
       <c r="F37" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0.01</v>
@@ -2263,7 +2263,7 @@
         <v>0.08</v>
       </c>
       <c r="N37" t="n">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="O37" t="n">
         <v>11</v>
@@ -2279,40 +2279,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E38" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.06</v>
       </c>
-      <c r="F38" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.05</v>
-      </c>
       <c r="M38" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8</v>
+        <v>0.39</v>
       </c>
       <c r="O38" t="n">
         <v>12</v>
@@ -2334,34 +2334,34 @@
         <v>0.08</v>
       </c>
       <c r="E39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L39" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M39" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="N39" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="O39" t="n">
         <v>12</v>
@@ -2377,40 +2377,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D40" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E40" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L40" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="M40" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="N40" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="O40" t="n">
         <v>12</v>
@@ -2435,19 +2435,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0.01</v>
@@ -2459,7 +2459,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="O41" t="n">
         <v>12</v>
@@ -2475,40 +2475,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E42" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.06</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.04</v>
-      </c>
       <c r="M42" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="N42" t="n">
-        <v>0.79</v>
+        <v>0.61</v>
       </c>
       <c r="O42" t="n">
         <v>13</v>
@@ -2527,37 +2527,37 @@
         <v>0.01</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E43" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F43" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0.01</v>
       </c>
       <c r="L43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M43" t="n">
         <v>0.09</v>
       </c>
-      <c r="M43" t="n">
-        <v>0.11</v>
-      </c>
       <c r="N43" t="n">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="O43" t="n">
         <v>13</v>
@@ -2573,40 +2573,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D44" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.14</v>
       </c>
-      <c r="E44" t="n">
-        <v>0.17</v>
-      </c>
       <c r="F44" t="n">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L44" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="M44" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="N44" t="n">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="O44" t="n">
         <v>13</v>
@@ -2625,25 +2625,25 @@
         <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E45" t="n">
         <v>0.08</v>
       </c>
       <c r="F45" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0.01</v>
@@ -2655,7 +2655,7 @@
         <v>0.08</v>
       </c>
       <c r="N45" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="O45" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -515,40 +515,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.03</v>
+        <v>0.19</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
@@ -564,37 +564,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.02</v>
       </c>
-      <c r="E3" t="n">
+      <c r="M3" t="n">
         <v>0.02</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.01</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -613,40 +613,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.05</v>
+        <v>0.32</v>
       </c>
       <c r="D4" t="n">
-        <v>0.17</v>
+        <v>0.47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>-0.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="L4" t="n">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="M4" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="N4" t="n">
-        <v>-8.43</v>
+        <v>-0.33</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -665,25 +665,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0.06</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N5" t="n">
-        <v>0.27</v>
+        <v>0.68</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
@@ -711,40 +711,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="F6" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K6" t="n">
         <v>0.01</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="M6" t="n">
         <v>0.12</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O6" t="n">
         <v>4</v>
@@ -763,25 +763,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F7" t="n">
         <v>0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,40 +809,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="E8" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.25</v>
+        <v>0.16</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L8" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.26</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.29</v>
-      </c>
       <c r="N8" t="n">
-        <v>-0.06</v>
+        <v>0.58</v>
       </c>
       <c r="O8" t="n">
         <v>4</v>
@@ -861,37 +861,37 @@
         <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E9" t="n">
         <v>0.11</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.53</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="K9" t="n">
         <v>0.01</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M9" t="n">
         <v>0.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="O9" t="n">
         <v>4</v>
@@ -907,40 +907,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="F10" t="n">
-        <v>0.46</v>
+        <v>-0.66</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="M10" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="N10" t="n">
-        <v>0.17</v>
+        <v>-0.59</v>
       </c>
       <c r="O10" t="n">
         <v>5</v>
@@ -956,40 +956,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.14</v>
       </c>
-      <c r="E11" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.17</v>
-      </c>
       <c r="N11" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
@@ -1005,40 +1005,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D12" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="E12" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="L12" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="M12" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="N12" t="n">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="O12" t="n">
         <v>5</v>
@@ -1057,25 +1057,25 @@
         <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F13" t="n">
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="K13" t="n">
         <v>0.01</v>
@@ -1084,10 +1084,10 @@
         <v>0.09</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="O13" t="n">
         <v>5</v>
@@ -1106,37 +1106,37 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.1</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="K14" t="n">
         <v>0.01</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M14" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="N14" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="O14" t="n">
         <v>6</v>
@@ -1161,31 +1161,31 @@
         <v>0.14</v>
       </c>
       <c r="F15" t="n">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="M15" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="N15" t="n">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="O15" t="n">
         <v>6</v>
@@ -1201,40 +1201,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="D16" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I16" t="n">
         <v>0.2</v>
       </c>
-      <c r="E16" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="M16" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.05</v>
+        <v>0.36</v>
       </c>
       <c r="O16" t="n">
         <v>6</v>
@@ -1253,37 +1253,37 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.1</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N17" t="n">
-        <v>-0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
@@ -1302,25 +1302,25 @@
         <v>0.01</v>
       </c>
       <c r="D18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.09</v>
       </c>
-      <c r="E18" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K18" t="n">
         <v>0.01</v>
@@ -1329,10 +1329,10 @@
         <v>0.09</v>
       </c>
       <c r="M18" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.59</v>
+        <v>0.37</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
@@ -1351,37 +1351,37 @@
         <v>0.02</v>
       </c>
       <c r="D19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.12</v>
       </c>
-      <c r="E19" t="n">
-        <v>0.15</v>
-      </c>
       <c r="F19" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="n">
         <v>0.02</v>
       </c>
       <c r="L19" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="M19" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="N19" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="O19" t="n">
         <v>7</v>
@@ -1397,40 +1397,40 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.04</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I20" t="n">
         <v>0.2</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="K20" t="n">
         <v>0.05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="M20" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.06</v>
+        <v>0.42</v>
       </c>
       <c r="O20" t="n">
         <v>7</v>
@@ -1449,37 +1449,37 @@
         <v>0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F21" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K21" t="n">
         <v>0.01</v>
       </c>
       <c r="L21" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M21" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="O21" t="n">
         <v>7</v>
@@ -1498,37 +1498,37 @@
         <v>0.01</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F22" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.59</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0.01</v>
       </c>
       <c r="L22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M22" t="n">
         <v>0.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="O22" t="n">
         <v>8</v>
@@ -1547,25 +1547,25 @@
         <v>0.02</v>
       </c>
       <c r="D23" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="K23" t="n">
         <v>0.02</v>
@@ -1574,10 +1574,10 @@
         <v>0.11</v>
       </c>
       <c r="M23" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="N23" t="n">
-        <v>0.6</v>
+        <v>0.66</v>
       </c>
       <c r="O23" t="n">
         <v>8</v>
@@ -1593,40 +1593,40 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.04</v>
       </c>
-      <c r="D24" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L24" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="N24" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="O24" t="n">
         <v>8</v>
@@ -1645,37 +1645,37 @@
         <v>0.01</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K25" t="n">
         <v>0.01</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="N25" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="O25" t="n">
         <v>8</v>
@@ -1697,34 +1697,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.09</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.39</v>
       </c>
       <c r="O26" t="n">
         <v>9</v>
@@ -1743,25 +1743,25 @@
         <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E27" t="n">
         <v>0.12</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="K27" t="n">
         <v>0.01</v>
@@ -1773,7 +1773,7 @@
         <v>0.12</v>
       </c>
       <c r="N27" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="O27" t="n">
         <v>9</v>
@@ -1789,40 +1789,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="D28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.15</v>
       </c>
-      <c r="E28" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="L28" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="M28" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="N28" t="n">
-        <v>0.36</v>
+        <v>-0.15</v>
       </c>
       <c r="O28" t="n">
         <v>9</v>
@@ -1841,37 +1841,37 @@
         <v>0.01</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="E29" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.09</v>
       </c>
-      <c r="F29" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.08</v>
-      </c>
       <c r="M29" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="O29" t="n">
         <v>9</v>
@@ -1890,37 +1890,37 @@
         <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>0.09</v>
       </c>
       <c r="F30" t="n">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="K30" t="n">
         <v>0.01</v>
       </c>
       <c r="L30" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M30" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N30" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="O30" t="n">
         <v>10</v>
@@ -1939,37 +1939,37 @@
         <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F31" t="n">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K31" t="n">
         <v>0.01</v>
       </c>
       <c r="L31" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M31" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="O31" t="n">
         <v>10</v>
@@ -1988,37 +1988,37 @@
         <v>0.03</v>
       </c>
       <c r="D32" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.13</v>
       </c>
-      <c r="E32" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="K32" t="n">
         <v>0.03</v>
       </c>
       <c r="L32" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="M32" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="N32" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="O32" t="n">
         <v>10</v>
@@ -2040,34 +2040,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F33" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.5</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.49</v>
       </c>
       <c r="O33" t="n">
         <v>10</v>
@@ -2086,37 +2086,37 @@
         <v>0.01</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E34" t="n">
         <v>0.08</v>
       </c>
       <c r="F34" t="n">
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="K34" t="n">
         <v>0.01</v>
       </c>
       <c r="L34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M34" t="n">
         <v>0.08</v>
       </c>
       <c r="N34" t="n">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="O34" t="n">
         <v>11</v>
@@ -2135,37 +2135,37 @@
         <v>0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F35" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="K35" t="n">
         <v>0.01</v>
       </c>
       <c r="L35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="N35" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="O35" t="n">
         <v>11</v>
@@ -2187,34 +2187,34 @@
         <v>0.14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F36" t="n">
-        <v>0.41</v>
+        <v>-0.09</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="K36" t="n">
         <v>0.03</v>
       </c>
       <c r="L36" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="M36" t="n">
         <v>0.18</v>
       </c>
       <c r="N36" t="n">
-        <v>0.39</v>
+        <v>-0.12</v>
       </c>
       <c r="O36" t="n">
         <v>11</v>
@@ -2239,31 +2239,31 @@
         <v>0.08</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="K37" t="n">
         <v>0.01</v>
       </c>
       <c r="L37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M37" t="n">
         <v>0.08</v>
       </c>
       <c r="N37" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="O37" t="n">
         <v>11</v>
@@ -2288,19 +2288,19 @@
         <v>0.08</v>
       </c>
       <c r="F38" t="n">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K38" t="n">
         <v>0.01</v>
@@ -2312,7 +2312,7 @@
         <v>0.08</v>
       </c>
       <c r="N38" t="n">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
       <c r="O38" t="n">
         <v>12</v>
@@ -2331,37 +2331,37 @@
         <v>0.01</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F39" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N39" t="n">
         <v>0.67</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.66</v>
       </c>
       <c r="O39" t="n">
         <v>12</v>
@@ -2380,37 +2380,37 @@
         <v>0.03</v>
       </c>
       <c r="D40" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E40" t="n">
         <v>0.17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="K40" t="n">
         <v>0.03</v>
       </c>
       <c r="L40" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="M40" t="n">
         <v>0.17</v>
       </c>
       <c r="N40" t="n">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
       <c r="O40" t="n">
         <v>12</v>
@@ -2435,19 +2435,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="K41" t="n">
         <v>0.01</v>
@@ -2459,7 +2459,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="O41" t="n">
         <v>12</v>
@@ -2478,37 +2478,37 @@
         <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>0.08</v>
       </c>
       <c r="F42" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="K42" t="n">
         <v>0.01</v>
       </c>
       <c r="L42" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M42" t="n">
         <v>0.08</v>
       </c>
       <c r="N42" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="O42" t="n">
         <v>13</v>
@@ -2527,37 +2527,37 @@
         <v>0.01</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F43" t="n">
-        <v>0.74</v>
+        <v>0.65</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="K43" t="n">
         <v>0.01</v>
       </c>
       <c r="L43" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="N43" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="O43" t="n">
         <v>13</v>
@@ -2576,25 +2576,25 @@
         <v>0.02</v>
       </c>
       <c r="D44" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E44" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F44" t="n">
         <v>0.49</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="K44" t="n">
         <v>0.02</v>
@@ -2606,7 +2606,7 @@
         <v>0.15</v>
       </c>
       <c r="N44" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="O44" t="n">
         <v>13</v>
@@ -2625,37 +2625,37 @@
         <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F45" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.5</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.53</v>
       </c>
       <c r="O45" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -518,37 +518,37 @@
         <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E2" t="n">
         <v>0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02</v>
+        <v>-2.35</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.25</v>
+        <v>-0.74</v>
       </c>
       <c r="K2" t="n">
         <v>0.02</v>
       </c>
       <c r="L2" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="M2" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="N2" t="n">
-        <v>0.19</v>
+        <v>-2.31</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
@@ -564,28 +564,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F3" t="n">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G3" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29</v>
+        <v>0.04</v>
       </c>
       <c r="I3" t="n">
-        <v>0.39</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3</v>
+        <v>0.93</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
@@ -613,40 +613,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>0.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3</v>
+        <v>0.11</v>
       </c>
       <c r="G4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.19</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.37</v>
-      </c>
       <c r="I4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.44</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.57</v>
-      </c>
       <c r="N4" t="n">
-        <v>-0.33</v>
+        <v>-0.02</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -662,40 +662,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.05</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.08</v>
-      </c>
       <c r="I5" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.27</v>
+        <v>0.76</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.68</v>
+        <v>0.82</v>
       </c>
       <c r="O5" t="n">
         <v>3</v>
@@ -711,40 +711,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="G6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.05</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.17</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01</v>
+        <v>0.67</v>
       </c>
       <c r="K6" t="n">
         <v>0.01</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="M6" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O6" t="n">
         <v>4</v>
@@ -763,31 +763,31 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F7" t="n">
         <v>0.99</v>
       </c>
       <c r="G7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.12</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.35</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.19</v>
+        <v>0.89</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="M7" t="n">
         <v>0.04</v>
@@ -809,40 +809,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="D8" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>-0.23</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I8" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="J8" t="n">
-        <v>0.67</v>
+        <v>0.49</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="L8" t="n">
-        <v>0.18</v>
+        <v>0.39</v>
       </c>
       <c r="M8" t="n">
-        <v>0.26</v>
+        <v>0.47</v>
       </c>
       <c r="N8" t="n">
-        <v>0.58</v>
+        <v>-0.23</v>
       </c>
       <c r="O8" t="n">
         <v>4</v>
@@ -858,40 +858,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.11</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.05</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J9" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N9" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="O9" t="n">
         <v>4</v>
@@ -907,40 +907,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E10" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.66</v>
+        <v>-0.52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H10" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I10" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="J10" t="n">
-        <v>-1</v>
+        <v>0.32</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L10" t="n">
         <v>0.15</v>
       </c>
       <c r="M10" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.59</v>
+        <v>-0.75</v>
       </c>
       <c r="O10" t="n">
         <v>5</v>
@@ -956,40 +956,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E11" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="F11" t="n">
-        <v>0.77</v>
+        <v>0.66</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H11" t="n">
         <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="K11" t="n">
         <v>0.02</v>
       </c>
       <c r="L11" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="M11" t="n">
         <v>0.14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
@@ -1005,40 +1005,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="E12" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F12" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.05</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L12" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="M12" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="N12" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="O12" t="n">
         <v>5</v>
@@ -1057,37 +1057,37 @@
         <v>0.01</v>
       </c>
       <c r="D13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.1</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.11</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.17</v>
+        <v>0.48</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I13" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.04</v>
+        <v>0.54</v>
       </c>
       <c r="K13" t="n">
         <v>0.01</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M13" t="n">
         <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="O13" t="n">
         <v>5</v>
@@ -1106,37 +1106,37 @@
         <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I14" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.09</v>
-      </c>
       <c r="M14" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="N14" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="O14" t="n">
         <v>6</v>
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D15" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="E15" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I15" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="J15" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="K15" t="n">
         <v>0.03</v>
       </c>
       <c r="L15" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="M15" t="n">
         <v>0.17</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="O15" t="n">
         <v>6</v>
@@ -1201,40 +1201,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="E16" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.21</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.39</v>
       </c>
       <c r="G16" t="n">
         <v>0.04</v>
       </c>
       <c r="H16" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="I16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.2</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.17</v>
-      </c>
       <c r="M16" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="N16" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="O16" t="n">
         <v>6</v>
@@ -1253,37 +1253,37 @@
         <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.09</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="K17" t="n">
         <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M17" t="n">
         <v>0.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
@@ -1302,37 +1302,37 @@
         <v>0.01</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F18" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="G18" t="n">
         <v>0.01</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="J18" t="n">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
       <c r="K18" t="n">
         <v>0.01</v>
       </c>
       <c r="L18" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M18" t="n">
         <v>0.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
@@ -1348,40 +1348,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E19" t="n">
         <v>0.12</v>
       </c>
       <c r="F19" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M19" t="n">
         <v>0.12</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.13</v>
-      </c>
       <c r="N19" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="O19" t="n">
         <v>7</v>
@@ -1397,40 +1397,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="D20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.19</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.42</v>
       </c>
       <c r="O20" t="n">
         <v>7</v>
@@ -1449,37 +1449,37 @@
         <v>0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I21" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="K21" t="n">
         <v>0.01</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N21" t="n">
-        <v>0.19</v>
+        <v>0.39</v>
       </c>
       <c r="O21" t="n">
         <v>7</v>
@@ -1504,7 +1504,7 @@
         <v>0.1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.63</v>
+        <v>0.18</v>
       </c>
       <c r="G22" t="n">
         <v>0.01</v>
@@ -1513,10 +1513,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J22" t="n">
-        <v>0.59</v>
+        <v>0.38</v>
       </c>
       <c r="K22" t="n">
         <v>0.01</v>
@@ -1528,7 +1528,7 @@
         <v>0.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.61</v>
+        <v>0.13</v>
       </c>
       <c r="O22" t="n">
         <v>8</v>
@@ -1544,40 +1544,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D23" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.1</v>
       </c>
-      <c r="E23" t="n">
-        <v>0.13</v>
-      </c>
       <c r="F23" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L23" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="M23" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="O23" t="n">
         <v>8</v>
@@ -1593,37 +1593,37 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D24" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="E24" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="F24" t="n">
         <v>0.41</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="J24" t="n">
-        <v>0.14</v>
+        <v>0.58</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="M24" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="N24" t="n">
         <v>0.39</v>
@@ -1648,34 +1648,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F25" t="n">
         <v>0.47</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="K25" t="n">
         <v>0.01</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M25" t="n">
         <v>0.08</v>
       </c>
       <c r="N25" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="O25" t="n">
         <v>8</v>
@@ -1694,37 +1694,37 @@
         <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.1</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.08</v>
-      </c>
       <c r="J26" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="K26" t="n">
         <v>0.01</v>
       </c>
       <c r="L26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N26" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="O26" t="n">
         <v>9</v>
@@ -1740,34 +1740,34 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E27" t="n">
         <v>0.12</v>
       </c>
       <c r="F27" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="G27" t="n">
         <v>0.01</v>
       </c>
       <c r="H27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.09</v>
       </c>
       <c r="M27" t="n">
         <v>0.12</v>
@@ -1789,40 +1789,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E28" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.09</v>
+        <v>0.34</v>
       </c>
       <c r="G28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.05</v>
       </c>
-      <c r="H28" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.06</v>
-      </c>
       <c r="L28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M28" t="n">
         <v>0.21</v>
       </c>
-      <c r="M28" t="n">
-        <v>0.24</v>
-      </c>
       <c r="N28" t="n">
-        <v>-0.15</v>
+        <v>0.33</v>
       </c>
       <c r="O28" t="n">
         <v>9</v>
@@ -1841,13 +1841,13 @@
         <v>0.01</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="E29" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="F29" t="n">
-        <v>0.36</v>
+        <v>0.28</v>
       </c>
       <c r="G29" t="n">
         <v>0.01</v>
@@ -1856,22 +1856,22 @@
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="K29" t="n">
         <v>0.01</v>
       </c>
       <c r="L29" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N29" t="n">
-        <v>0.44</v>
+        <v>0.23</v>
       </c>
       <c r="O29" t="n">
         <v>9</v>
@@ -1896,19 +1896,19 @@
         <v>0.09</v>
       </c>
       <c r="F30" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="J30" t="n">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="K30" t="n">
         <v>0.01</v>
@@ -1920,7 +1920,7 @@
         <v>0.09</v>
       </c>
       <c r="N30" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="O30" t="n">
         <v>10</v>
@@ -1939,26 +1939,26 @@
         <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F31" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.73</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.85</v>
-      </c>
       <c r="K31" t="n">
         <v>0.01</v>
       </c>
@@ -1966,10 +1966,10 @@
         <v>0.08</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="N31" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="O31" t="n">
         <v>10</v>
@@ -1988,37 +1988,37 @@
         <v>0.03</v>
       </c>
       <c r="D32" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="E32" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F32" t="n">
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="G32" t="n">
         <v>0.02</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I32" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="J32" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="K32" t="n">
         <v>0.03</v>
       </c>
       <c r="L32" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M32" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="N32" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="O32" t="n">
         <v>10</v>
@@ -2037,25 +2037,25 @@
         <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0.06</v>
       </c>
       <c r="I33" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J33" t="n">
-        <v>0.59</v>
+        <v>0.46</v>
       </c>
       <c r="K33" t="n">
         <v>0.01</v>
@@ -2064,10 +2064,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="M33" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="N33" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="O33" t="n">
         <v>10</v>
@@ -2089,10 +2089,10 @@
         <v>0.06</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.34</v>
+        <v>0.58</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0.06</v>
       </c>
       <c r="J34" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="K34" t="n">
         <v>0.01</v>
@@ -2113,10 +2113,10 @@
         <v>0.06</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N34" t="n">
-        <v>0.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O34" t="n">
         <v>11</v>
@@ -2138,22 +2138,22 @@
         <v>0.08</v>
       </c>
       <c r="E35" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="G35" t="n">
         <v>0.01</v>
       </c>
       <c r="H35" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J35" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="K35" t="n">
         <v>0.01</v>
@@ -2162,10 +2162,10 @@
         <v>0.08</v>
       </c>
       <c r="M35" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="N35" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="O35" t="n">
         <v>11</v>
@@ -2181,40 +2181,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D36" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.14</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.18</v>
-      </c>
       <c r="F36" t="n">
-        <v>-0.09</v>
+        <v>0.58</v>
       </c>
       <c r="G36" t="n">
         <v>0.01</v>
       </c>
       <c r="H36" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I36" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="J36" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="K36" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L36" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M36" t="n">
         <v>0.15</v>
       </c>
-      <c r="M36" t="n">
-        <v>0.18</v>
-      </c>
       <c r="N36" t="n">
-        <v>-0.12</v>
+        <v>0.54</v>
       </c>
       <c r="O36" t="n">
         <v>11</v>
@@ -2236,34 +2236,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F37" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H37" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="J37" t="n">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="K37" t="n">
         <v>0.01</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M37" t="n">
         <v>0.08</v>
       </c>
       <c r="N37" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="O37" t="n">
         <v>11</v>
@@ -2282,13 +2282,13 @@
         <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>0.05</v>
       </c>
       <c r="J38" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K38" t="n">
         <v>0.01</v>
@@ -2309,10 +2309,10 @@
         <v>0.06</v>
       </c>
       <c r="M38" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N38" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="O38" t="n">
         <v>12</v>
@@ -2331,37 +2331,37 @@
         <v>0.01</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I39" t="n">
         <v>0.04</v>
       </c>
-      <c r="I39" t="n">
-        <v>0.06</v>
-      </c>
       <c r="J39" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K39" t="n">
         <v>0.01</v>
       </c>
       <c r="L39" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="N39" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="O39" t="n">
         <v>12</v>
@@ -2377,40 +2377,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.14</v>
       </c>
-      <c r="E40" t="n">
-        <v>0.17</v>
-      </c>
       <c r="F40" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="G40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.02</v>
       </c>
-      <c r="H40" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.03</v>
-      </c>
       <c r="L40" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M40" t="n">
         <v>0.14</v>
       </c>
-      <c r="M40" t="n">
-        <v>0.17</v>
-      </c>
       <c r="N40" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="O40" t="n">
         <v>12</v>
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0.06</v>
@@ -2435,22 +2435,22 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>0.65</v>
+        <v>0.37</v>
       </c>
       <c r="K41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0.06</v>
@@ -2459,7 +2459,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O41" t="n">
         <v>12</v>
@@ -2478,37 +2478,37 @@
         <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.04</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.05</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="M42" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N42" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="O42" t="n">
         <v>13</v>
@@ -2527,25 +2527,25 @@
         <v>0.01</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>0.11</v>
       </c>
       <c r="F43" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="J43" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="K43" t="n">
         <v>0.01</v>
@@ -2557,7 +2557,7 @@
         <v>0.11</v>
       </c>
       <c r="N43" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O43" t="n">
         <v>13</v>
@@ -2573,40 +2573,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D44" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E44" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F44" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.49</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.5</v>
       </c>
       <c r="O44" t="n">
         <v>13</v>
@@ -2628,16 +2628,16 @@
         <v>0.06</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F45" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I45" t="n">
         <v>0.06</v>
@@ -2652,10 +2652,10 @@
         <v>0.06</v>
       </c>
       <c r="M45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="O45" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,45 +461,65 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>xgboost-mse</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>xgboost-mae</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>xgboost-rmse</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>xgboost-r2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>lasso-mse</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>lasso-mae</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>lasso-rmse</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>lasso-r2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>num_datasets</t>
         </is>
@@ -518,13 +538,13 @@
         <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="E2" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.35</v>
+        <v>-1.2</v>
       </c>
       <c r="G2" t="n">
         <v>0.01</v>
@@ -533,24 +553,36 @@
         <v>0.08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.74</v>
+        <v>-1.15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="M2" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.31</v>
+        <v>0.4</v>
       </c>
       <c r="O2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="S2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -576,30 +608,42 @@
         <v>0.99</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="J3" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-6.22</v>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -616,343 +660,427 @@
         <v>0.17</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="E4" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>-1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09</v>
+        <v>0.61</v>
       </c>
       <c r="H4" t="n">
-        <v>0.19</v>
+        <v>0.68</v>
       </c>
       <c r="I4" t="n">
-        <v>0.31</v>
+        <v>0.78</v>
       </c>
       <c r="J4" t="n">
-        <v>0.51</v>
+        <v>-7.92</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="L4" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="M4" t="n">
-        <v>0.44</v>
+        <v>0.18</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.02</v>
+        <v>0.52</v>
       </c>
       <c r="O4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="S4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>baseline-norm-red</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.08</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3</v>
+      <c r="Q5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01</v>
-      </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>0.57</v>
+        <v>0.98</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>723538746590739.2</v>
       </c>
       <c r="H6" t="n">
+        <v>10981338.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26898675.55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1.263725750454621e+16</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.05</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="M6" t="n">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="S6" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99</v>
+        <v>-0.85</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="H7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.64</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.1</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="S7" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="D8" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="E8" t="n">
-        <v>0.47</v>
+        <v>0.12</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.23</v>
+        <v>0.36</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="H8" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="J8" t="n">
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="K8" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="L8" t="n">
-        <v>0.39</v>
+        <v>0.11</v>
       </c>
       <c r="M8" t="n">
-        <v>0.47</v>
+        <v>0.12</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.23</v>
+        <v>0.32</v>
       </c>
       <c r="O8" t="n">
-        <v>4</v>
+        <v>0.02</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>baseline-norm-red</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="F9" t="n">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I9" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.26</v>
+        <v>0.79</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.04</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
+      <c r="P9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="E10" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.52</v>
+        <v>0.28</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="J10" t="n">
-        <v>0.32</v>
+        <v>-0.08</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L10" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="M10" t="n">
         <v>0.16</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.75</v>
+        <v>0.67</v>
       </c>
       <c r="O10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S10" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -965,132 +1093,168 @@
         <v>0.13</v>
       </c>
       <c r="F11" t="n">
-        <v>0.66</v>
+        <v>0.37</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.09</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.12</v>
       </c>
       <c r="M11" t="n">
         <v>0.14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.62</v>
+        <v>0.29</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>0.02</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="E12" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="G12" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="H12" t="n">
-        <v>0.41</v>
+        <v>0.17</v>
       </c>
       <c r="I12" t="n">
-        <v>0.47</v>
+        <v>0.21</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.32</v>
+        <v>0.31</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="M12" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>0.02</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>baseline-norm-red</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1</v>
+        <v>0.26</v>
       </c>
       <c r="F13" t="n">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="H13" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.08</v>
       </c>
-      <c r="I13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5</v>
+      <c r="P13" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1112,34 +1276,46 @@
         <v>0.12</v>
       </c>
       <c r="F14" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H14" t="n">
         <v>0.1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P14" t="n">
         <v>0.1</v>
       </c>
-      <c r="M14" t="n">
+      <c r="Q14" t="n">
         <v>0.12</v>
       </c>
-      <c r="N14" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6</v>
+      <c r="R14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1152,43 +1328,55 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="E15" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F15" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03</v>
+        <v>2.767671868773409e+18</v>
       </c>
       <c r="H15" t="n">
-        <v>0.15</v>
+        <v>403490058.92</v>
       </c>
       <c r="I15" t="n">
-        <v>0.18</v>
+        <v>1663632131.44</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7</v>
+        <v>-5.481869705158461e+19</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L15" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="M15" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="N15" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="O15" t="n">
-        <v>6</v>
+        <v>0.01</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1201,65 +1389,77 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.06</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
         <v>0.04</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N16" t="n">
         <v>0.17</v>
       </c>
-      <c r="I16" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="O16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.2</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O16" t="n">
-        <v>6</v>
+      <c r="R16" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>baseline-norm-red</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0.01</v>
       </c>
       <c r="D17" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.09</v>
       </c>
-      <c r="E17" t="n">
-        <v>0.11</v>
-      </c>
       <c r="F17" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="G17" t="n">
         <v>0.01</v>
@@ -1271,252 +1471,312 @@
         <v>0.09</v>
       </c>
       <c r="J17" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="K17" t="n">
         <v>0.01</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="N17" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>0.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E18" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F18" t="n">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01</v>
+        <v>3.249668267419417e+18</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07000000000000001</v>
+        <v>631936851.28</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08</v>
+        <v>1802683629.32</v>
       </c>
       <c r="J18" t="n">
-        <v>0.55</v>
+        <v>-4.707659565196795e+19</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N18" t="n">
-        <v>0.39</v>
+        <v>0.66</v>
       </c>
       <c r="O18" t="n">
-        <v>7</v>
+        <v>0.03</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="E19" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="J19" t="n">
-        <v>0.77</v>
+        <v>0.27</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L19" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="M19" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="N19" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="O19" t="n">
-        <v>7</v>
+        <v>0.04</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.06</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.23</v>
-      </c>
       <c r="E20" t="n">
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="F20" t="n">
-        <v>0.21</v>
+        <v>0.66</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H20" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I20" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M20" t="n">
         <v>0.06</v>
       </c>
-      <c r="L20" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.25</v>
-      </c>
       <c r="N20" t="n">
-        <v>0.19</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>7</v>
+        <v>0.01</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>baseline-norm-red</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F21" t="n">
-        <v>0.14</v>
+        <v>0.66</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="I21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="J21" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="M21" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="N21" t="n">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="O21" t="n">
-        <v>7</v>
+        <v>0.02</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F22" t="n">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="I22" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="K22" t="n">
         <v>0.01</v>
@@ -1528,157 +1788,205 @@
         <v>0.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.13</v>
+        <v>0.85</v>
       </c>
       <c r="O22" t="n">
-        <v>8</v>
+        <v>0.04</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="S22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F23" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.06</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q23" t="n">
         <v>0.08</v>
       </c>
-      <c r="M23" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O23" t="n">
-        <v>8</v>
+      <c r="R23" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="E24" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="F24" t="n">
-        <v>0.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G24" t="n">
         <v>0.03</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I24" t="n">
         <v>0.18</v>
       </c>
       <c r="J24" t="n">
-        <v>0.58</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.05</v>
       </c>
-      <c r="L24" t="n">
-        <v>0.18</v>
-      </c>
       <c r="M24" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="N24" t="n">
-        <v>0.39</v>
+        <v>0.79</v>
       </c>
       <c r="O24" t="n">
-        <v>8</v>
+        <v>0.01</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>baseline-norm-red</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M25" t="n">
         <v>0.09</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N25" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="O25" t="n">
-        <v>8</v>
+        <v>0.03</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1694,25 +2002,25 @@
         <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>0.09</v>
       </c>
       <c r="F26" t="n">
-        <v>0.27</v>
+        <v>0.59</v>
       </c>
       <c r="G26" t="n">
         <v>0.01</v>
       </c>
       <c r="H26" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J26" t="n">
-        <v>0.15</v>
+        <v>0.57</v>
       </c>
       <c r="K26" t="n">
         <v>0.01</v>
@@ -1721,13 +2029,25 @@
         <v>0.06</v>
       </c>
       <c r="M26" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0.09</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="O26" t="n">
-        <v>9</v>
+      <c r="R26" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="S26" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1740,10 +2060,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E27" t="n">
         <v>0.12</v>
@@ -1755,28 +2075,40 @@
         <v>0.01</v>
       </c>
       <c r="H27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.06</v>
       </c>
-      <c r="I27" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q27" t="n">
         <v>0.12</v>
       </c>
-      <c r="N27" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="O27" t="n">
-        <v>9</v>
+      <c r="R27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S27" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1789,52 +2121,64 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="F28" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H28" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P28" t="n">
         <v>0.14</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O28" t="n">
-        <v>9</v>
+      <c r="Q28" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="S28" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>baseline-norm-red</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1847,7 +2191,7 @@
         <v>0.08</v>
       </c>
       <c r="F29" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="G29" t="n">
         <v>0.01</v>
@@ -1856,255 +2200,315 @@
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="J29" t="n">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M29" t="n">
         <v>0.06</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.08</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O29" t="n">
-        <v>9</v>
+      <c r="R29" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S29" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>all-norm</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K30" t="n">
         <v>0</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.01</v>
-      </c>
       <c r="L30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="M30" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="N30" t="n">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="O30" t="n">
-        <v>10</v>
+        <v>0.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>all-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="E31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.11</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="I31" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="J31" t="n">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="M31" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="N31" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="O31" t="n">
-        <v>10</v>
+        <v>0.02</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="S31" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>all-red</t>
+          <t>baseline-norm</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D32" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="F32" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I32" t="n">
         <v>0.09</v>
       </c>
-      <c r="I32" t="n">
-        <v>0.12</v>
-      </c>
       <c r="J32" t="n">
-        <v>0.65</v>
+        <v>0.29</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L32" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="M32" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2</v>
+        <v>0.41</v>
       </c>
       <c r="O32" t="n">
-        <v>10</v>
+        <v>0.01</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S32" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>baseline-norm-red</t>
+          <t>all-norm</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F33" t="n">
-        <v>0.37</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.01</v>
-      </c>
       <c r="L33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="M33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P33" t="n">
         <v>0.08</v>
       </c>
-      <c r="N33" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O33" t="n">
-        <v>10</v>
+      <c r="Q33" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S33" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>baseline-norm</t>
+          <t>all-red</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F34" t="n">
-        <v>0.58</v>
+        <v>0.38</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I34" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="J34" t="n">
-        <v>0.68</v>
+        <v>0.37</v>
       </c>
       <c r="K34" t="n">
         <v>0.01</v>
@@ -2113,551 +2517,24 @@
         <v>0.06</v>
       </c>
       <c r="M34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="O34" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O35" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>all-red</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O36" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>baseline-norm-red</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O37" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O38" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
         <v>0.03</v>
       </c>
-      <c r="I39" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="O39" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>all-red</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O40" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>baseline-norm-red</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="J41" t="n">
+      <c r="P34" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R34" t="n">
         <v>0.37</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>baseline-norm</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O42" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>all-norm</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O43" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>all-red</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O44" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>baseline-norm-red</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="S34" t="n">
         <v>13</v>
       </c>
     </row>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -535,52 +535,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.137</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12</v>
+        <v>0.159</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.2</v>
+        <v>-2.717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
       <c r="I2" t="n">
-        <v>0.12</v>
+        <v>0.295</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.15</v>
+        <v>-11.756</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04</v>
+        <v>0.121</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06</v>
+        <v>0.159</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4</v>
+        <v>-2.718</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09</v>
+        <v>0.136</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.12</v>
+        <v>0.159</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.26</v>
+        <v>-2.725</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -596,52 +596,52 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.116</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02</v>
+        <v>0.121</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99</v>
+        <v>0.788</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01</v>
+        <v>0.037</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K3" t="n">
-        <v>0.38</v>
+        <v>0.011</v>
       </c>
       <c r="L3" t="n">
-        <v>0.52</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.62</v>
+        <v>0.106</v>
       </c>
       <c r="N3" t="n">
-        <v>-6.22</v>
+        <v>0.838</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -657,52 +657,52 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.17</v>
+        <v>0.076</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="E4" t="n">
-        <v>0.42</v>
+        <v>0.276</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.58</v>
+        <v>0.092</v>
       </c>
       <c r="G4" t="n">
-        <v>0.61</v>
+        <v>106.757</v>
       </c>
       <c r="H4" t="n">
-        <v>0.68</v>
+        <v>9.356</v>
       </c>
       <c r="I4" t="n">
-        <v>0.78</v>
+        <v>10.332</v>
       </c>
       <c r="J4" t="n">
-        <v>-7.92</v>
+        <v>-1267.563</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03</v>
+        <v>0.077</v>
       </c>
       <c r="L4" t="n">
-        <v>0.13</v>
+        <v>0.201</v>
       </c>
       <c r="M4" t="n">
-        <v>0.18</v>
+        <v>0.278</v>
       </c>
       <c r="N4" t="n">
-        <v>0.52</v>
+        <v>0.081</v>
       </c>
       <c r="O4" t="n">
-        <v>0.18</v>
+        <v>0.178</v>
       </c>
       <c r="P4" t="n">
-        <v>0.34</v>
+        <v>0.377</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.62</v>
+        <v>-1.121</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -718,52 +718,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0.017</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.119</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>0.129</v>
       </c>
       <c r="F5" t="n">
-        <v>0.26</v>
+        <v>-1.032</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="I5" t="n">
-        <v>0.15</v>
+        <v>0.155</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.939</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09</v>
+        <v>0.059</v>
       </c>
       <c r="M5" t="n">
-        <v>0.12</v>
+        <v>0.073</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01</v>
+        <v>0.023</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08</v>
+        <v>0.137</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1</v>
+        <v>0.152</v>
       </c>
       <c r="R5" t="n">
-        <v>0.31</v>
+        <v>-1.851</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -779,52 +779,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.043</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03</v>
+        <v>0.046</v>
       </c>
       <c r="F6" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="G6" t="n">
-        <v>723538746590739.2</v>
+        <v>0.001</v>
       </c>
       <c r="H6" t="n">
-        <v>10981338.33</v>
+        <v>0.028</v>
       </c>
       <c r="I6" t="n">
-        <v>26898675.55</v>
+        <v>0.034</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.263725750454621e+16</v>
+        <v>0.987</v>
       </c>
       <c r="K6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.716</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="Q6" t="n">
         <v>0.05</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.03</v>
-      </c>
       <c r="R6" t="n">
-        <v>0.99</v>
+        <v>0.971</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -840,52 +840,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>0.112</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28</v>
+        <v>0.331</v>
       </c>
       <c r="E7" t="n">
-        <v>0.32</v>
+        <v>0.335</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.85</v>
+        <v>-1.359</v>
       </c>
       <c r="G7" t="n">
-        <v>0.17</v>
+        <v>0.539</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="I7" t="n">
-        <v>0.42</v>
+        <v>0.734</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.1</v>
+        <v>-10.337</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09</v>
+        <v>0.093</v>
       </c>
       <c r="L7" t="n">
-        <v>0.25</v>
+        <v>0.234</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3</v>
+        <v>0.304</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.64</v>
+        <v>-0.948</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1</v>
+        <v>0.109</v>
       </c>
       <c r="P7" t="n">
-        <v>0.26</v>
+        <v>0.319</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.31</v>
+        <v>0.329</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.71</v>
+        <v>-1.283</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -901,52 +901,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="D8" t="n">
-        <v>0.11</v>
+        <v>0.101</v>
       </c>
       <c r="E8" t="n">
-        <v>0.12</v>
+        <v>0.123</v>
       </c>
       <c r="F8" t="n">
-        <v>0.36</v>
+        <v>0.515</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="H8" t="n">
-        <v>0.12</v>
+        <v>0.098</v>
       </c>
       <c r="I8" t="n">
-        <v>0.13</v>
+        <v>0.114</v>
       </c>
       <c r="J8" t="n">
-        <v>0.26</v>
+        <v>0.581</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="L8" t="n">
-        <v>0.11</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="N8" t="n">
-        <v>0.32</v>
+        <v>0.645</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="P8" t="n">
-        <v>0.12</v>
+        <v>0.106</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="R8" t="n">
-        <v>0.21</v>
+        <v>0.467</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D9" t="n">
-        <v>0.13</v>
+        <v>0.153</v>
       </c>
       <c r="E9" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.75</v>
+        <v>0.441</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>1.503264968830358e+21</v>
       </c>
       <c r="H9" t="n">
-        <v>0.11</v>
+        <v>12923987039.055</v>
       </c>
       <c r="I9" t="n">
-        <v>0.14</v>
+        <v>38771961116.641</v>
       </c>
       <c r="J9" t="n">
-        <v>0.79</v>
+        <v>-2.755594054768134e+22</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.098</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2</v>
+        <v>0.242</v>
       </c>
       <c r="M9" t="n">
-        <v>0.27</v>
+        <v>0.314</v>
       </c>
       <c r="N9" t="n">
-        <v>0.27</v>
+        <v>-0.805</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="P9" t="n">
-        <v>0.16</v>
+        <v>0.146</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2</v>
+        <v>0.173</v>
       </c>
       <c r="R9" t="n">
-        <v>0.6</v>
+        <v>0.448</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1023,52 +1023,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.05</v>
+        <v>0.057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21</v>
+        <v>0.213</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="F10" t="n">
-        <v>0.28</v>
+        <v>0.448</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08</v>
+        <v>0.143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.23</v>
+        <v>0.292</v>
       </c>
       <c r="I10" t="n">
-        <v>0.28</v>
+        <v>0.378</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.08</v>
+        <v>-0.372</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02</v>
+        <v>0.093</v>
       </c>
       <c r="L10" t="n">
-        <v>0.11</v>
+        <v>0.249</v>
       </c>
       <c r="M10" t="n">
-        <v>0.16</v>
+        <v>0.305</v>
       </c>
       <c r="N10" t="n">
-        <v>0.67</v>
+        <v>0.107</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04</v>
+        <v>0.056</v>
       </c>
       <c r="P10" t="n">
-        <v>0.19</v>
+        <v>0.203</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.21</v>
+        <v>0.237</v>
       </c>
       <c r="R10" t="n">
-        <v>0.41</v>
+        <v>0.458</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1084,52 +1084,52 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="D11" t="n">
-        <v>0.11</v>
+        <v>0.118</v>
       </c>
       <c r="E11" t="n">
-        <v>0.13</v>
+        <v>0.137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.37</v>
+        <v>0.252</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.118</v>
       </c>
       <c r="I11" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09</v>
+        <v>0.141</v>
       </c>
       <c r="M11" t="n">
-        <v>0.14</v>
+        <v>0.174</v>
       </c>
       <c r="N11" t="n">
-        <v>0.29</v>
+        <v>-0.208</v>
       </c>
       <c r="O11" t="n">
         <v>0.02</v>
       </c>
       <c r="P11" t="n">
-        <v>0.13</v>
+        <v>0.123</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.16</v>
+        <v>0.141</v>
       </c>
       <c r="R11" t="n">
-        <v>0.06</v>
+        <v>0.199</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -1148,49 +1148,49 @@
         <v>0.02</v>
       </c>
       <c r="D12" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="E12" t="n">
         <v>0.14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.68</v>
+        <v>0.729</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.17</v>
+        <v>0.197</v>
       </c>
       <c r="I12" t="n">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="J12" t="n">
-        <v>0.31</v>
+        <v>0.306</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
       <c r="L12" t="n">
-        <v>0.11</v>
+        <v>0.092</v>
       </c>
       <c r="M12" t="n">
-        <v>0.14</v>
+        <v>0.118</v>
       </c>
       <c r="N12" t="n">
-        <v>0.71</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="O12" t="n">
         <v>0.02</v>
       </c>
       <c r="P12" t="n">
-        <v>0.12</v>
+        <v>0.113</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.16</v>
+        <v>0.141</v>
       </c>
       <c r="R12" t="n">
-        <v>0.62</v>
+        <v>0.728</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -1206,52 +1206,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.049</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24</v>
+        <v>0.187</v>
       </c>
       <c r="E13" t="n">
-        <v>0.26</v>
+        <v>0.221</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17</v>
+        <v>0.191</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06</v>
+        <v>0.052</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.203</v>
       </c>
       <c r="I13" t="n">
-        <v>0.24</v>
+        <v>0.229</v>
       </c>
       <c r="J13" t="n">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03</v>
+        <v>0.044</v>
       </c>
       <c r="L13" t="n">
-        <v>0.16</v>
+        <v>0.149</v>
       </c>
       <c r="M13" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="O13" t="n">
-        <v>0.08</v>
+        <v>0.052</v>
       </c>
       <c r="P13" t="n">
-        <v>0.24</v>
+        <v>0.195</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.28</v>
+        <v>0.227</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04</v>
+        <v>0.142</v>
       </c>
       <c r="S13" t="n">
         <v>6</v>
@@ -1267,49 +1267,49 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1</v>
+        <v>0.083</v>
       </c>
       <c r="E14" t="n">
-        <v>0.12</v>
+        <v>0.103</v>
       </c>
       <c r="F14" t="n">
-        <v>0.32</v>
+        <v>0.356</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>0.11</v>
+        <v>0.103</v>
       </c>
       <c r="J14" t="n">
-        <v>0.36</v>
+        <v>0.352</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="L14" t="n">
-        <v>0.09</v>
+        <v>0.061</v>
       </c>
       <c r="M14" t="n">
-        <v>0.11</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>0.36</v>
+        <v>0.525</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="R14" t="n">
         <v>0.33</v>
@@ -1328,52 +1328,52 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01</v>
+        <v>0.024</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08</v>
+        <v>0.121</v>
       </c>
       <c r="E15" t="n">
-        <v>0.11</v>
+        <v>0.156</v>
       </c>
       <c r="F15" t="n">
-        <v>0.78</v>
+        <v>0.615</v>
       </c>
       <c r="G15" t="n">
-        <v>2.767671868773409e+18</v>
+        <v>3.235434627591804e+17</v>
       </c>
       <c r="H15" t="n">
-        <v>403490058.92</v>
+        <v>137956400.481</v>
       </c>
       <c r="I15" t="n">
-        <v>1663632131.44</v>
+        <v>568808810.374</v>
       </c>
       <c r="J15" t="n">
-        <v>-5.481869705158461e+19</v>
+        <v>-5.131691721363142e+18</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09</v>
+        <v>0.099</v>
       </c>
       <c r="M15" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="N15" t="n">
-        <v>0.74</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08</v>
+        <v>0.138</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.11</v>
+        <v>0.172</v>
       </c>
       <c r="R15" t="n">
-        <v>0.76</v>
+        <v>0.529</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1389,52 +1389,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.03</v>
+        <v>0.059</v>
       </c>
       <c r="D16" t="n">
-        <v>0.17</v>
+        <v>0.212</v>
       </c>
       <c r="E16" t="n">
-        <v>0.19</v>
+        <v>0.244</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2</v>
+        <v>0.223</v>
       </c>
       <c r="I16" t="n">
-        <v>0.22</v>
+        <v>0.249</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06</v>
+        <v>0.375</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="L16" t="n">
-        <v>0.15</v>
+        <v>0.132</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2</v>
+        <v>0.191</v>
       </c>
       <c r="N16" t="n">
-        <v>0.17</v>
+        <v>0.629</v>
       </c>
       <c r="O16" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="P16" t="n">
-        <v>0.17</v>
+        <v>0.245</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2</v>
+        <v>0.283</v>
       </c>
       <c r="R16" t="n">
-        <v>0.22</v>
+        <v>0.191</v>
       </c>
       <c r="S16" t="n">
         <v>7</v>
@@ -1450,52 +1450,52 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09</v>
+        <v>0.079</v>
       </c>
       <c r="F17" t="n">
-        <v>0.43</v>
+        <v>0.602</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09</v>
+        <v>0.081</v>
       </c>
       <c r="J17" t="n">
-        <v>0.44</v>
+        <v>0.586</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.049</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09</v>
+        <v>0.074</v>
       </c>
       <c r="N17" t="n">
-        <v>0.37</v>
+        <v>0.648</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09</v>
+        <v>0.081</v>
       </c>
       <c r="R17" t="n">
-        <v>0.41</v>
+        <v>0.587</v>
       </c>
       <c r="S17" t="n">
         <v>8</v>
@@ -1511,52 +1511,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.13</v>
+        <v>0.094</v>
       </c>
       <c r="E18" t="n">
-        <v>0.15</v>
+        <v>0.124</v>
       </c>
       <c r="F18" t="n">
-        <v>0.67</v>
+        <v>0.714</v>
       </c>
       <c r="G18" t="n">
-        <v>3.249668267419417e+18</v>
+        <v>0.29</v>
       </c>
       <c r="H18" t="n">
-        <v>631936851.28</v>
+        <v>0.305</v>
       </c>
       <c r="I18" t="n">
-        <v>1802683629.32</v>
+        <v>0.539</v>
       </c>
       <c r="J18" t="n">
-        <v>-4.707659565196795e+19</v>
+        <v>-4.367</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="L18" t="n">
-        <v>0.11</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="M18" t="n">
-        <v>0.15</v>
+        <v>0.134</v>
       </c>
       <c r="N18" t="n">
-        <v>0.66</v>
+        <v>0.668</v>
       </c>
       <c r="O18" t="n">
-        <v>0.03</v>
+        <v>0.017</v>
       </c>
       <c r="P18" t="n">
-        <v>0.13</v>
+        <v>0.102</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.16</v>
+        <v>0.132</v>
       </c>
       <c r="R18" t="n">
-        <v>0.62</v>
+        <v>0.68</v>
       </c>
       <c r="S18" t="n">
         <v>8</v>
@@ -1572,52 +1572,52 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.04</v>
       </c>
-      <c r="D19" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.02</v>
-      </c>
       <c r="L19" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="M19" t="n">
-        <v>0.15</v>
+        <v>0.201</v>
       </c>
       <c r="N19" t="n">
-        <v>0.61</v>
+        <v>0.457</v>
       </c>
       <c r="O19" t="n">
-        <v>0.04</v>
+        <v>0.053</v>
       </c>
       <c r="P19" t="n">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.21</v>
+        <v>0.231</v>
       </c>
       <c r="R19" t="n">
-        <v>0.27</v>
+        <v>0.282</v>
       </c>
       <c r="S19" t="n">
         <v>8</v>
@@ -1633,52 +1633,52 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06</v>
+        <v>0.068</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.66</v>
+        <v>0.599</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.603</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05</v>
+        <v>0.057</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06</v>
+        <v>0.077</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.665</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="S20" t="n">
         <v>9</v>
@@ -1694,52 +1694,52 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="D21" t="n">
-        <v>0.11</v>
+        <v>0.076</v>
       </c>
       <c r="E21" t="n">
-        <v>0.15</v>
+        <v>0.104</v>
       </c>
       <c r="F21" t="n">
-        <v>0.66</v>
+        <v>0.764</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03</v>
+        <v>0.016</v>
       </c>
       <c r="H21" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I21" t="n">
-        <v>0.18</v>
+        <v>0.127</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.648</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="L21" t="n">
-        <v>0.09</v>
+        <v>0.042</v>
       </c>
       <c r="M21" t="n">
-        <v>0.12</v>
+        <v>0.062</v>
       </c>
       <c r="N21" t="n">
-        <v>0.78</v>
+        <v>0.916</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="P21" t="n">
-        <v>0.11</v>
+        <v>0.078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.15</v>
+        <v>0.103</v>
       </c>
       <c r="R21" t="n">
-        <v>0.66</v>
+        <v>0.769</v>
       </c>
       <c r="S21" t="n">
         <v>9</v>
@@ -1755,52 +1755,52 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.04</v>
+        <v>0.026</v>
       </c>
       <c r="D22" t="n">
-        <v>0.17</v>
+        <v>0.129</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2</v>
+        <v>0.162</v>
       </c>
       <c r="F22" t="n">
-        <v>0.43</v>
+        <v>0.518</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.142</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2</v>
+        <v>0.173</v>
       </c>
       <c r="J22" t="n">
-        <v>0.44</v>
+        <v>0.447</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01</v>
+        <v>0.018</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08</v>
+        <v>0.094</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1</v>
+        <v>0.133</v>
       </c>
       <c r="N22" t="n">
-        <v>0.85</v>
+        <v>0.672</v>
       </c>
       <c r="O22" t="n">
-        <v>0.04</v>
+        <v>0.027</v>
       </c>
       <c r="P22" t="n">
-        <v>0.17</v>
+        <v>0.133</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.21</v>
+        <v>0.164</v>
       </c>
       <c r="R22" t="n">
-        <v>0.41</v>
+        <v>0.504</v>
       </c>
       <c r="S22" t="n">
         <v>9</v>
@@ -1816,52 +1816,52 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.06</v>
+        <v>0.073</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08</v>
+        <v>0.092</v>
       </c>
       <c r="F23" t="n">
-        <v>0.61</v>
+        <v>0.586</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.079</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09</v>
+        <v>0.097</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6</v>
+        <v>0.544</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="L23" t="n">
         <v>0.06</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09</v>
+        <v>0.089</v>
       </c>
       <c r="N23" t="n">
-        <v>0.59</v>
+        <v>0.615</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>0.06</v>
+        <v>0.076</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.08</v>
+        <v>0.095</v>
       </c>
       <c r="R23" t="n">
-        <v>0.61</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -1877,52 +1877,52 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08</v>
+        <v>0.078</v>
       </c>
       <c r="E24" t="n">
-        <v>0.11</v>
+        <v>0.108</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.616</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03</v>
+        <v>0.014</v>
       </c>
       <c r="H24" t="n">
-        <v>0.12</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>0.18</v>
+        <v>0.118</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.544</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L24" t="n">
-        <v>0.05</v>
+        <v>0.074</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09</v>
+        <v>0.094</v>
       </c>
       <c r="N24" t="n">
-        <v>0.79</v>
+        <v>0.709</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="P24" t="n">
         <v>0.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="R24" t="n">
-        <v>0.68</v>
+        <v>0.595</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -1938,52 +1938,52 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D25" t="n">
-        <v>0.13</v>
+        <v>0.107</v>
       </c>
       <c r="E25" t="n">
-        <v>0.16</v>
+        <v>0.141</v>
       </c>
       <c r="F25" t="n">
-        <v>0.53</v>
+        <v>0.405</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03</v>
+        <v>0.023</v>
       </c>
       <c r="H25" t="n">
-        <v>0.13</v>
+        <v>0.113</v>
       </c>
       <c r="I25" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="J25" t="n">
-        <v>0.51</v>
+        <v>0.326</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>0.09</v>
+        <v>0.114</v>
       </c>
       <c r="N25" t="n">
-        <v>0.85</v>
+        <v>0.613</v>
       </c>
       <c r="O25" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P25" t="n">
-        <v>0.13</v>
+        <v>0.109</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.16</v>
+        <v>0.143</v>
       </c>
       <c r="R25" t="n">
-        <v>0.52</v>
+        <v>0.389</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -1999,52 +1999,52 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09</v>
+        <v>0.077</v>
       </c>
       <c r="F26" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="I26" t="n">
-        <v>0.09</v>
+        <v>0.077</v>
       </c>
       <c r="J26" t="n">
-        <v>0.57</v>
+        <v>0.615</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="L26" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.06</v>
       </c>
-      <c r="M26" t="n">
-        <v>0.08</v>
-      </c>
       <c r="N26" t="n">
-        <v>0.64</v>
+        <v>0.763</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="P26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.09</v>
+        <v>0.077</v>
       </c>
       <c r="R26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.611</v>
       </c>
       <c r="S26" t="n">
         <v>11</v>
@@ -2060,52 +2060,52 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09</v>
+        <v>0.073</v>
       </c>
       <c r="E27" t="n">
-        <v>0.12</v>
+        <v>0.104</v>
       </c>
       <c r="F27" t="n">
-        <v>0.71</v>
+        <v>0.703</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01</v>
+        <v>0.029</v>
       </c>
       <c r="H27" t="n">
-        <v>0.09</v>
+        <v>0.102</v>
       </c>
       <c r="I27" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.207</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>0.92</v>
+        <v>0.862</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="P27" t="n">
-        <v>0.09</v>
+        <v>0.074</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="R27" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.699</v>
       </c>
       <c r="S27" t="n">
         <v>11</v>
@@ -2121,52 +2121,52 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="D28" t="n">
-        <v>0.14</v>
+        <v>0.128</v>
       </c>
       <c r="E28" t="n">
-        <v>0.18</v>
+        <v>0.172</v>
       </c>
       <c r="F28" t="n">
-        <v>0.49</v>
+        <v>0.356</v>
       </c>
       <c r="G28" t="n">
         <v>0.03</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
-        <v>0.18</v>
+        <v>0.172</v>
       </c>
       <c r="J28" t="n">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="M28" t="n">
-        <v>0.15</v>
+        <v>0.101</v>
       </c>
       <c r="N28" t="n">
-        <v>0.65</v>
+        <v>0.776</v>
       </c>
       <c r="O28" t="n">
         <v>0.03</v>
       </c>
       <c r="P28" t="n">
-        <v>0.14</v>
+        <v>0.131</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.18</v>
+        <v>0.174</v>
       </c>
       <c r="R28" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="S28" t="n">
         <v>11</v>
@@ -2182,52 +2182,52 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="F29" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="H29" t="n">
         <v>0.06</v>
       </c>
       <c r="I29" t="n">
-        <v>0.08</v>
+        <v>0.082</v>
       </c>
       <c r="J29" t="n">
-        <v>0.55</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="L29" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="N29" t="n">
-        <v>0.76</v>
+        <v>0.773</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="P29" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08</v>
+        <v>0.082</v>
       </c>
       <c r="R29" t="n">
-        <v>0.55</v>
+        <v>0.555</v>
       </c>
       <c r="S29" t="n">
         <v>12</v>
@@ -2246,49 +2246,49 @@
         <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.12</v>
+        <v>0.099</v>
       </c>
       <c r="F30" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="G30" t="n">
         <v>0.01</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="I30" t="n">
-        <v>0.12</v>
+        <v>0.101</v>
       </c>
       <c r="J30" t="n">
-        <v>0.61</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03</v>
+        <v>0.041</v>
       </c>
       <c r="M30" t="n">
-        <v>0.04</v>
+        <v>0.059</v>
       </c>
       <c r="N30" t="n">
-        <v>0.95</v>
+        <v>0.891</v>
       </c>
       <c r="O30" t="n">
         <v>0.01</v>
       </c>
       <c r="P30" t="n">
-        <v>0.08</v>
+        <v>0.073</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.12</v>
+        <v>0.099</v>
       </c>
       <c r="R30" t="n">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="S30" t="n">
         <v>12</v>
@@ -2304,52 +2304,52 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="D31" t="n">
-        <v>0.11</v>
+        <v>0.116</v>
       </c>
       <c r="E31" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4</v>
+        <v>0.496</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="H31" t="n">
-        <v>0.11</v>
+        <v>0.118</v>
       </c>
       <c r="I31" t="n">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4</v>
+        <v>0.494</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="L31" t="n">
-        <v>0.05</v>
+        <v>0.066</v>
       </c>
       <c r="M31" t="n">
-        <v>0.06</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="N31" t="n">
-        <v>0.9</v>
+        <v>0.822</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="P31" t="n">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.15</v>
+        <v>0.148</v>
       </c>
       <c r="R31" t="n">
-        <v>0.39</v>
+        <v>0.478</v>
       </c>
       <c r="S31" t="n">
         <v>12</v>
@@ -2365,52 +2365,52 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.053</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09</v>
+        <v>0.065</v>
       </c>
       <c r="F32" t="n">
-        <v>0.35</v>
+        <v>0.504</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="I32" t="n">
-        <v>0.09</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>0.29</v>
+        <v>0.446</v>
       </c>
       <c r="K32" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="L32" t="n">
-        <v>0.06</v>
+        <v>0.023</v>
       </c>
       <c r="M32" t="n">
-        <v>0.08</v>
+        <v>0.033</v>
       </c>
       <c r="N32" t="n">
-        <v>0.41</v>
+        <v>0.87</v>
       </c>
       <c r="O32" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.055</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.08</v>
+        <v>0.068</v>
       </c>
       <c r="R32" t="n">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="S32" t="n">
         <v>13</v>
@@ -2426,52 +2426,52 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08</v>
+        <v>0.045</v>
       </c>
       <c r="E33" t="n">
-        <v>0.11</v>
+        <v>0.063</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.834</v>
       </c>
       <c r="G33" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.02</v>
       </c>
-      <c r="H33" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>0.03</v>
       </c>
-      <c r="M33" t="n">
-        <v>0.04</v>
-      </c>
       <c r="N33" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.962</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="P33" t="n">
-        <v>0.08</v>
+        <v>0.049</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.11</v>
+        <v>0.062</v>
       </c>
       <c r="R33" t="n">
-        <v>0.54</v>
+        <v>0.836</v>
       </c>
       <c r="S33" t="n">
         <v>13</v>
@@ -2487,52 +2487,52 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.03</v>
+        <v>0.022</v>
       </c>
       <c r="D34" t="n">
-        <v>0.13</v>
+        <v>0.121</v>
       </c>
       <c r="E34" t="n">
-        <v>0.16</v>
+        <v>0.149</v>
       </c>
       <c r="F34" t="n">
-        <v>0.38</v>
+        <v>0.417</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="H34" t="n">
-        <v>0.13</v>
+        <v>0.125</v>
       </c>
       <c r="I34" t="n">
-        <v>0.17</v>
+        <v>0.156</v>
       </c>
       <c r="J34" t="n">
-        <v>0.37</v>
+        <v>0.359</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="L34" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="M34" t="n">
-        <v>0.09</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>0.82</v>
+        <v>0.867</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03</v>
+        <v>0.022</v>
       </c>
       <c r="P34" t="n">
-        <v>0.13</v>
+        <v>0.121</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="R34" t="n">
-        <v>0.37</v>
+        <v>0.412</v>
       </c>
       <c r="S34" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -535,52 +535,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="D2" t="n">
-        <v>0.137</v>
+        <v>0.132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.159</v>
+        <v>0.143</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.717</v>
+        <v>-6.219</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="H2" t="n">
-        <v>0.29</v>
+        <v>0.083</v>
       </c>
       <c r="I2" t="n">
-        <v>0.295</v>
+        <v>0.089</v>
       </c>
       <c r="J2" t="n">
-        <v>-11.756</v>
+        <v>-1.817</v>
       </c>
       <c r="K2" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.159</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.718</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.025</v>
+        <v>0.005</v>
       </c>
       <c r="P2" t="n">
-        <v>0.136</v>
+        <v>0.065</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.159</v>
+        <v>0.073</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.725</v>
+        <v>-0.904</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -596,52 +596,52 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="D3" t="n">
-        <v>0.116</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.121</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.788</v>
+        <v>0.846</v>
       </c>
       <c r="G3" t="n">
         <v>0.001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="I3" t="n">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="J3" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="K3" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.838</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="P3" t="n">
-        <v>0.011</v>
+        <v>0.164</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.013</v>
+        <v>0.216</v>
       </c>
       <c r="R3" t="n">
-        <v>0.998</v>
+        <v>-0.002</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -657,52 +657,52 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.076</v>
+        <v>0.033</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24</v>
+        <v>0.101</v>
       </c>
       <c r="E4" t="n">
-        <v>0.276</v>
+        <v>0.181</v>
       </c>
       <c r="F4" t="n">
-        <v>0.092</v>
+        <v>-0.406</v>
       </c>
       <c r="G4" t="n">
-        <v>106.757</v>
+        <v>0.297</v>
       </c>
       <c r="H4" t="n">
-        <v>9.356</v>
+        <v>0.385</v>
       </c>
       <c r="I4" t="n">
-        <v>10.332</v>
+        <v>0.545</v>
       </c>
       <c r="J4" t="n">
-        <v>-1267.563</v>
+        <v>-11.747</v>
       </c>
       <c r="K4" t="n">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.278</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.081</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.178</v>
+        <v>0.029</v>
       </c>
       <c r="P4" t="n">
-        <v>0.377</v>
+        <v>0.095</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.422</v>
+        <v>0.169</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.121</v>
+        <v>-0.228</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -718,52 +718,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="D5" t="n">
-        <v>0.119</v>
+        <v>0.092</v>
       </c>
       <c r="E5" t="n">
-        <v>0.129</v>
+        <v>0.11</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.032</v>
+        <v>-0.157</v>
       </c>
       <c r="G5" t="n">
-        <v>0.024</v>
+        <v>0.01</v>
       </c>
       <c r="H5" t="n">
-        <v>0.129</v>
+        <v>0.083</v>
       </c>
       <c r="I5" t="n">
-        <v>0.155</v>
+        <v>0.102</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.939</v>
+        <v>0.007</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.023</v>
+        <v>0.01</v>
       </c>
       <c r="P5" t="n">
-        <v>0.137</v>
+        <v>0.082</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.152</v>
+        <v>0.101</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.851</v>
+        <v>0.037</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -779,52 +779,52 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.043</v>
+        <v>0.027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.046</v>
+        <v>0.036</v>
       </c>
       <c r="F6" t="n">
-        <v>0.975</v>
+        <v>0.862</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001</v>
+        <v>3.851934984443342e+18</v>
       </c>
       <c r="H6" t="n">
-        <v>0.028</v>
+        <v>1057411520.636</v>
       </c>
       <c r="I6" t="n">
-        <v>0.034</v>
+        <v>1962634704.789</v>
       </c>
       <c r="J6" t="n">
-        <v>0.987</v>
+        <v>-4.034809916413708e+20</v>
       </c>
       <c r="K6" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.387</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.716</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.047</v>
+        <v>0.007</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05</v>
+        <v>0.007</v>
       </c>
       <c r="R6" t="n">
-        <v>0.971</v>
+        <v>0.994</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -840,52 +840,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.112</v>
+        <v>0.029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.331</v>
+        <v>0.162</v>
       </c>
       <c r="E7" t="n">
-        <v>0.335</v>
+        <v>0.171</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.359</v>
+        <v>0.063</v>
       </c>
       <c r="G7" t="n">
-        <v>0.539</v>
+        <v>0.247</v>
       </c>
       <c r="H7" t="n">
-        <v>0.65</v>
+        <v>0.363</v>
       </c>
       <c r="I7" t="n">
-        <v>0.734</v>
+        <v>0.497</v>
       </c>
       <c r="J7" t="n">
-        <v>-10.337</v>
+        <v>-6.869</v>
       </c>
       <c r="K7" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.234</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.948</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.109</v>
+        <v>0.091</v>
       </c>
       <c r="P7" t="n">
-        <v>0.319</v>
+        <v>0.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.329</v>
+        <v>0.301</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.283</v>
+        <v>-1.897</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -901,52 +901,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.101</v>
+        <v>0.089</v>
       </c>
       <c r="E8" t="n">
-        <v>0.123</v>
+        <v>0.096</v>
       </c>
       <c r="F8" t="n">
-        <v>0.515</v>
+        <v>0.382</v>
       </c>
       <c r="G8" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="H8" t="n">
-        <v>0.098</v>
+        <v>0.074</v>
       </c>
       <c r="I8" t="n">
-        <v>0.114</v>
+        <v>0.083</v>
       </c>
       <c r="J8" t="n">
-        <v>0.581</v>
+        <v>0.543</v>
       </c>
       <c r="K8" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.645</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.017</v>
+        <v>0.007</v>
       </c>
       <c r="P8" t="n">
-        <v>0.106</v>
+        <v>0.075</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.129</v>
+        <v>0.082</v>
       </c>
       <c r="R8" t="n">
-        <v>0.467</v>
+        <v>0.556</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.03</v>
+        <v>0.007</v>
       </c>
       <c r="D9" t="n">
-        <v>0.153</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.175</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.441</v>
+        <v>0.847</v>
       </c>
       <c r="G9" t="n">
-        <v>1.503264968830358e+21</v>
+        <v>0.008</v>
       </c>
       <c r="H9" t="n">
-        <v>12923987039.055</v>
+        <v>0.083</v>
       </c>
       <c r="I9" t="n">
-        <v>38771961116.641</v>
+        <v>0.091</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.755594054768134e+22</v>
+        <v>0.824</v>
       </c>
       <c r="K9" t="n">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.242</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.314</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.805</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.03</v>
+        <v>0.007</v>
       </c>
       <c r="P9" t="n">
-        <v>0.146</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.173</v>
+        <v>0.081</v>
       </c>
       <c r="R9" t="n">
-        <v>0.448</v>
+        <v>0.86</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1023,52 +1023,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.057</v>
+        <v>0.021</v>
       </c>
       <c r="D10" t="n">
-        <v>0.213</v>
+        <v>0.128</v>
       </c>
       <c r="E10" t="n">
-        <v>0.24</v>
+        <v>0.145</v>
       </c>
       <c r="F10" t="n">
-        <v>0.448</v>
+        <v>0.225</v>
       </c>
       <c r="G10" t="n">
-        <v>0.143</v>
+        <v>34.212</v>
       </c>
       <c r="H10" t="n">
-        <v>0.292</v>
+        <v>2.959</v>
       </c>
       <c r="I10" t="n">
-        <v>0.378</v>
+        <v>5.849</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.372</v>
+        <v>-1254.077</v>
       </c>
       <c r="K10" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.305</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="Q10" t="n">
         <v>0.107</v>
       </c>
-      <c r="O10" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.237</v>
-      </c>
       <c r="R10" t="n">
-        <v>0.458</v>
+        <v>0.577</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1084,52 +1084,52 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.019</v>
+        <v>0.004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118</v>
+        <v>0.056</v>
       </c>
       <c r="E11" t="n">
-        <v>0.137</v>
+        <v>0.065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.252</v>
+        <v>0.175</v>
       </c>
       <c r="G11" t="n">
-        <v>0.019</v>
+        <v>0.005</v>
       </c>
       <c r="H11" t="n">
-        <v>0.118</v>
+        <v>0.062</v>
       </c>
       <c r="I11" t="n">
-        <v>0.14</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.22</v>
+        <v>-0.026</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.208</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="P11" t="n">
-        <v>0.123</v>
+        <v>0.055</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.141</v>
+        <v>0.063</v>
       </c>
       <c r="R11" t="n">
-        <v>0.199</v>
+        <v>0.21</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -1145,52 +1145,52 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.113</v>
+        <v>0.041</v>
       </c>
       <c r="E12" t="n">
-        <v>0.14</v>
+        <v>0.051</v>
       </c>
       <c r="F12" t="n">
-        <v>0.729</v>
+        <v>0.862</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05</v>
+        <v>0.013</v>
       </c>
       <c r="H12" t="n">
-        <v>0.197</v>
+        <v>0.073</v>
       </c>
       <c r="I12" t="n">
-        <v>0.225</v>
+        <v>0.116</v>
       </c>
       <c r="J12" t="n">
-        <v>0.306</v>
+        <v>0.284</v>
       </c>
       <c r="K12" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8090000000000001</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="P12" t="n">
-        <v>0.113</v>
+        <v>0.039</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.141</v>
+        <v>0.048</v>
       </c>
       <c r="R12" t="n">
-        <v>0.728</v>
+        <v>0.876</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -1206,52 +1206,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.049</v>
+        <v>0.018</v>
       </c>
       <c r="D13" t="n">
-        <v>0.187</v>
+        <v>0.111</v>
       </c>
       <c r="E13" t="n">
-        <v>0.221</v>
+        <v>0.135</v>
       </c>
       <c r="F13" t="n">
-        <v>0.191</v>
+        <v>0.375</v>
       </c>
       <c r="G13" t="n">
-        <v>0.052</v>
+        <v>0.023</v>
       </c>
       <c r="H13" t="n">
-        <v>0.203</v>
+        <v>0.118</v>
       </c>
       <c r="I13" t="n">
-        <v>0.229</v>
+        <v>0.153</v>
       </c>
       <c r="J13" t="n">
-        <v>0.13</v>
+        <v>0.198</v>
       </c>
       <c r="K13" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.149</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.052</v>
+        <v>0.02</v>
       </c>
       <c r="P13" t="n">
-        <v>0.195</v>
+        <v>0.111</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.227</v>
+        <v>0.14</v>
       </c>
       <c r="R13" t="n">
-        <v>0.142</v>
+        <v>0.323</v>
       </c>
       <c r="S13" t="n">
         <v>6</v>
@@ -1267,52 +1267,52 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="D14" t="n">
-        <v>0.083</v>
+        <v>0.042</v>
       </c>
       <c r="E14" t="n">
-        <v>0.103</v>
+        <v>0.052</v>
       </c>
       <c r="F14" t="n">
-        <v>0.356</v>
+        <v>0.535</v>
       </c>
       <c r="G14" t="n">
-        <v>0.011</v>
+        <v>0.004</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.055</v>
       </c>
       <c r="I14" t="n">
-        <v>0.103</v>
+        <v>0.064</v>
       </c>
       <c r="J14" t="n">
-        <v>0.352</v>
+        <v>0.305</v>
       </c>
       <c r="K14" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.061</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08799999999999999</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.525</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="P14" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.105</v>
+        <v>0.055</v>
       </c>
       <c r="R14" t="n">
-        <v>0.33</v>
+        <v>0.492</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1328,52 +1328,52 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.024</v>
+        <v>0.002</v>
       </c>
       <c r="D15" t="n">
-        <v>0.121</v>
+        <v>0.035</v>
       </c>
       <c r="E15" t="n">
-        <v>0.156</v>
+        <v>0.045</v>
       </c>
       <c r="F15" t="n">
-        <v>0.615</v>
+        <v>0.947</v>
       </c>
       <c r="G15" t="n">
-        <v>3.235434627591804e+17</v>
+        <v>0.003</v>
       </c>
       <c r="H15" t="n">
-        <v>137956400.481</v>
+        <v>0.049</v>
       </c>
       <c r="I15" t="n">
-        <v>568808810.374</v>
+        <v>0.054</v>
       </c>
       <c r="J15" t="n">
-        <v>-5.131691721363142e+18</v>
+        <v>0.927</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.6889999999999999</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.03</v>
+        <v>0.002</v>
       </c>
       <c r="P15" t="n">
-        <v>0.138</v>
+        <v>0.033</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.172</v>
+        <v>0.045</v>
       </c>
       <c r="R15" t="n">
-        <v>0.529</v>
+        <v>0.949</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1389,52 +1389,52 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.059</v>
+        <v>0.02</v>
       </c>
       <c r="D16" t="n">
-        <v>0.212</v>
+        <v>0.125</v>
       </c>
       <c r="E16" t="n">
-        <v>0.244</v>
+        <v>0.14</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="G16" t="n">
-        <v>0.062</v>
+        <v>0.024</v>
       </c>
       <c r="H16" t="n">
-        <v>0.223</v>
+        <v>0.131</v>
       </c>
       <c r="I16" t="n">
-        <v>0.249</v>
+        <v>0.153</v>
       </c>
       <c r="J16" t="n">
-        <v>0.375</v>
+        <v>0.255</v>
       </c>
       <c r="K16" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.629</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="P16" t="n">
-        <v>0.245</v>
+        <v>0.124</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.283</v>
+        <v>0.142</v>
       </c>
       <c r="R16" t="n">
-        <v>0.191</v>
+        <v>0.357</v>
       </c>
       <c r="S16" t="n">
         <v>7</v>
@@ -1450,52 +1450,52 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="D17" t="n">
-        <v>0.062</v>
+        <v>0.052</v>
       </c>
       <c r="E17" t="n">
-        <v>0.079</v>
+        <v>0.066</v>
       </c>
       <c r="F17" t="n">
-        <v>0.602</v>
+        <v>0.405</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="H17" t="n">
-        <v>0.063</v>
+        <v>0.054</v>
       </c>
       <c r="I17" t="n">
-        <v>0.081</v>
+        <v>0.065</v>
       </c>
       <c r="J17" t="n">
-        <v>0.586</v>
+        <v>0.431</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.648</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="P17" t="n">
-        <v>0.063</v>
+        <v>0.053</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.081</v>
+        <v>0.067</v>
       </c>
       <c r="R17" t="n">
-        <v>0.587</v>
+        <v>0.387</v>
       </c>
       <c r="S17" t="n">
         <v>8</v>
@@ -1511,52 +1511,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.015</v>
+        <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.094</v>
+        <v>0.041</v>
       </c>
       <c r="E18" t="n">
-        <v>0.124</v>
+        <v>0.053</v>
       </c>
       <c r="F18" t="n">
-        <v>0.714</v>
+        <v>0.913</v>
       </c>
       <c r="G18" t="n">
-        <v>0.29</v>
+        <v>0.006</v>
       </c>
       <c r="H18" t="n">
-        <v>0.305</v>
+        <v>0.057</v>
       </c>
       <c r="I18" t="n">
-        <v>0.539</v>
+        <v>0.08</v>
       </c>
       <c r="J18" t="n">
-        <v>-4.367</v>
+        <v>0.803</v>
       </c>
       <c r="K18" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.134</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.668</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.017</v>
+        <v>0.003</v>
       </c>
       <c r="P18" t="n">
-        <v>0.102</v>
+        <v>0.041</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.132</v>
+        <v>0.053</v>
       </c>
       <c r="R18" t="n">
-        <v>0.68</v>
+        <v>0.913</v>
       </c>
       <c r="S18" t="n">
         <v>8</v>
@@ -1572,52 +1572,52 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.051</v>
+        <v>0.018</v>
       </c>
       <c r="D19" t="n">
-        <v>0.188</v>
+        <v>0.118</v>
       </c>
       <c r="E19" t="n">
-        <v>0.226</v>
+        <v>0.132</v>
       </c>
       <c r="F19" t="n">
-        <v>0.309</v>
+        <v>0.296</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05</v>
+        <v>0.018</v>
       </c>
       <c r="H19" t="n">
-        <v>0.185</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>0.224</v>
+        <v>0.135</v>
       </c>
       <c r="J19" t="n">
-        <v>0.32</v>
+        <v>0.272</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.457</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0.053</v>
+        <v>0.017</v>
       </c>
       <c r="P19" t="n">
-        <v>0.193</v>
+        <v>0.117</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.231</v>
+        <v>0.132</v>
       </c>
       <c r="R19" t="n">
-        <v>0.282</v>
+        <v>0.301</v>
       </c>
       <c r="S19" t="n">
         <v>8</v>
@@ -1633,52 +1633,52 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="D20" t="n">
-        <v>0.068</v>
+        <v>0.05</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.062</v>
       </c>
       <c r="F20" t="n">
-        <v>0.599</v>
+        <v>0.555</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.054</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="J20" t="n">
-        <v>0.603</v>
+        <v>0.542</v>
       </c>
       <c r="K20" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.077</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.665</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="P20" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.063</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6</v>
+        <v>0.544</v>
       </c>
       <c r="S20" t="n">
         <v>9</v>
@@ -1694,52 +1694,52 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="D21" t="n">
-        <v>0.076</v>
+        <v>0.041</v>
       </c>
       <c r="E21" t="n">
-        <v>0.104</v>
+        <v>0.05</v>
       </c>
       <c r="F21" t="n">
-        <v>0.764</v>
+        <v>0.859</v>
       </c>
       <c r="G21" t="n">
-        <v>0.016</v>
+        <v>0.003</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1</v>
+        <v>0.043</v>
       </c>
       <c r="I21" t="n">
-        <v>0.127</v>
+        <v>0.052</v>
       </c>
       <c r="J21" t="n">
-        <v>0.648</v>
+        <v>0.849</v>
       </c>
       <c r="K21" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.916</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="P21" t="n">
-        <v>0.078</v>
+        <v>0.043</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.103</v>
+        <v>0.053</v>
       </c>
       <c r="R21" t="n">
-        <v>0.769</v>
+        <v>0.843</v>
       </c>
       <c r="S21" t="n">
         <v>9</v>
@@ -1755,52 +1755,52 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.026</v>
+        <v>0.012</v>
       </c>
       <c r="D22" t="n">
-        <v>0.129</v>
+        <v>0.097</v>
       </c>
       <c r="E22" t="n">
-        <v>0.162</v>
+        <v>0.109</v>
       </c>
       <c r="F22" t="n">
-        <v>0.518</v>
+        <v>0.504</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03</v>
+        <v>0.012</v>
       </c>
       <c r="H22" t="n">
-        <v>0.142</v>
+        <v>0.098</v>
       </c>
       <c r="I22" t="n">
-        <v>0.173</v>
+        <v>0.111</v>
       </c>
       <c r="J22" t="n">
-        <v>0.447</v>
+        <v>0.48</v>
       </c>
       <c r="K22" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.672</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.027</v>
+        <v>0.012</v>
       </c>
       <c r="P22" t="n">
-        <v>0.133</v>
+        <v>0.099</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.164</v>
+        <v>0.109</v>
       </c>
       <c r="R22" t="n">
-        <v>0.504</v>
+        <v>0.502</v>
       </c>
       <c r="S22" t="n">
         <v>9</v>
@@ -1816,52 +1816,52 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="D23" t="n">
-        <v>0.073</v>
+        <v>0.057</v>
       </c>
       <c r="E23" t="n">
-        <v>0.092</v>
+        <v>0.067</v>
       </c>
       <c r="F23" t="n">
-        <v>0.586</v>
+        <v>0.326</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="H23" t="n">
-        <v>0.079</v>
+        <v>0.058</v>
       </c>
       <c r="I23" t="n">
-        <v>0.097</v>
+        <v>0.067</v>
       </c>
       <c r="J23" t="n">
-        <v>0.544</v>
+        <v>0.328</v>
       </c>
       <c r="K23" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.089</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="P23" t="n">
-        <v>0.076</v>
+        <v>0.059</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.095</v>
+        <v>0.068</v>
       </c>
       <c r="R23" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -1877,52 +1877,52 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.078</v>
+        <v>0.034</v>
       </c>
       <c r="E24" t="n">
-        <v>0.108</v>
+        <v>0.043</v>
       </c>
       <c r="F24" t="n">
-        <v>0.616</v>
+        <v>0.842</v>
       </c>
       <c r="G24" t="n">
-        <v>0.014</v>
+        <v>0.007</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="I24" t="n">
-        <v>0.118</v>
+        <v>0.082</v>
       </c>
       <c r="J24" t="n">
-        <v>0.544</v>
+        <v>0.444</v>
       </c>
       <c r="K24" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0.709</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="P24" t="n">
-        <v>0.08</v>
+        <v>0.035</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.111</v>
+        <v>0.044</v>
       </c>
       <c r="R24" t="n">
-        <v>0.595</v>
+        <v>0.842</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -1938,52 +1938,52 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="D25" t="n">
-        <v>0.107</v>
+        <v>0.099</v>
       </c>
       <c r="E25" t="n">
-        <v>0.141</v>
+        <v>0.111</v>
       </c>
       <c r="F25" t="n">
-        <v>0.405</v>
+        <v>0.537</v>
       </c>
       <c r="G25" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="H25" t="n">
-        <v>0.113</v>
+        <v>0.099</v>
       </c>
       <c r="I25" t="n">
-        <v>0.15</v>
+        <v>0.108</v>
       </c>
       <c r="J25" t="n">
-        <v>0.326</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.613</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="P25" t="n">
-        <v>0.109</v>
+        <v>0.097</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.143</v>
+        <v>0.11</v>
       </c>
       <c r="R25" t="n">
-        <v>0.389</v>
+        <v>0.551</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -1999,52 +1999,52 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="D26" t="n">
-        <v>0.061</v>
+        <v>0.053</v>
       </c>
       <c r="E26" t="n">
-        <v>0.077</v>
+        <v>0.064</v>
       </c>
       <c r="F26" t="n">
-        <v>0.61</v>
+        <v>0.346</v>
       </c>
       <c r="G26" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="H26" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="I26" t="n">
-        <v>0.077</v>
+        <v>0.066</v>
       </c>
       <c r="J26" t="n">
-        <v>0.615</v>
+        <v>0.309</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>0.004</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.006</v>
-      </c>
       <c r="P26" t="n">
-        <v>0.061</v>
+        <v>0.053</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.077</v>
+        <v>0.065</v>
       </c>
       <c r="R26" t="n">
-        <v>0.611</v>
+        <v>0.329</v>
       </c>
       <c r="S26" t="n">
         <v>11</v>
@@ -2060,52 +2060,52 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="D27" t="n">
-        <v>0.073</v>
+        <v>0.039</v>
       </c>
       <c r="E27" t="n">
-        <v>0.104</v>
+        <v>0.047</v>
       </c>
       <c r="F27" t="n">
-        <v>0.703</v>
+        <v>0.923</v>
       </c>
       <c r="G27" t="n">
-        <v>0.029</v>
+        <v>0.002</v>
       </c>
       <c r="H27" t="n">
-        <v>0.102</v>
+        <v>0.037</v>
       </c>
       <c r="I27" t="n">
-        <v>0.17</v>
+        <v>0.043</v>
       </c>
       <c r="J27" t="n">
-        <v>0.207</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.044</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.862</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="P27" t="n">
-        <v>0.074</v>
+        <v>0.041</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.105</v>
+        <v>0.048</v>
       </c>
       <c r="R27" t="n">
-        <v>0.699</v>
+        <v>0.917</v>
       </c>
       <c r="S27" t="n">
         <v>11</v>
@@ -2121,52 +2121,52 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.029</v>
+        <v>0.011</v>
       </c>
       <c r="D28" t="n">
-        <v>0.128</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>0.172</v>
+        <v>0.102</v>
       </c>
       <c r="F28" t="n">
-        <v>0.356</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03</v>
+        <v>0.011</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13</v>
+        <v>0.092</v>
       </c>
       <c r="I28" t="n">
-        <v>0.172</v>
+        <v>0.106</v>
       </c>
       <c r="J28" t="n">
-        <v>0.35</v>
+        <v>0.532</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.101</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.776</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03</v>
+        <v>0.011</v>
       </c>
       <c r="P28" t="n">
-        <v>0.131</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.174</v>
+        <v>0.103</v>
       </c>
       <c r="R28" t="n">
-        <v>0.34</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>11</v>
@@ -2182,52 +2182,52 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="D29" t="n">
-        <v>0.061</v>
+        <v>0.051</v>
       </c>
       <c r="E29" t="n">
-        <v>0.083</v>
+        <v>0.058</v>
       </c>
       <c r="F29" t="n">
-        <v>0.553</v>
+        <v>0.451</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06</v>
+        <v>0.052</v>
       </c>
       <c r="I29" t="n">
-        <v>0.082</v>
+        <v>0.059</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.431</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>0.003</v>
       </c>
-      <c r="L29" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0.059</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.082</v>
-      </c>
       <c r="R29" t="n">
-        <v>0.555</v>
+        <v>0.444</v>
       </c>
       <c r="S29" t="n">
         <v>12</v>
@@ -2243,52 +2243,52 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.034</v>
       </c>
       <c r="E30" t="n">
-        <v>0.099</v>
+        <v>0.044</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7</v>
+        <v>0.929</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.076</v>
+        <v>0.038</v>
       </c>
       <c r="I30" t="n">
-        <v>0.101</v>
+        <v>0.049</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.913</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.041</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0.891</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="P30" t="n">
-        <v>0.073</v>
+        <v>0.035</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.099</v>
+        <v>0.045</v>
       </c>
       <c r="R30" t="n">
-        <v>0.7</v>
+        <v>0.926</v>
       </c>
       <c r="S30" t="n">
         <v>12</v>
@@ -2304,52 +2304,52 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
       <c r="D31" t="n">
-        <v>0.116</v>
+        <v>0.094</v>
       </c>
       <c r="E31" t="n">
-        <v>0.145</v>
+        <v>0.107</v>
       </c>
       <c r="F31" t="n">
-        <v>0.496</v>
+        <v>0.628</v>
       </c>
       <c r="G31" t="n">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
       <c r="H31" t="n">
-        <v>0.118</v>
+        <v>0.09</v>
       </c>
       <c r="I31" t="n">
-        <v>0.145</v>
+        <v>0.104</v>
       </c>
       <c r="J31" t="n">
-        <v>0.494</v>
+        <v>0.648</v>
       </c>
       <c r="K31" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.066</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0.822</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="P31" t="n">
-        <v>0.119</v>
+        <v>0.093</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.148</v>
+        <v>0.107</v>
       </c>
       <c r="R31" t="n">
-        <v>0.478</v>
+        <v>0.626</v>
       </c>
       <c r="S31" t="n">
         <v>12</v>
@@ -2365,52 +2365,52 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D32" t="n">
-        <v>0.053</v>
+        <v>0.048</v>
       </c>
       <c r="E32" t="n">
-        <v>0.065</v>
+        <v>0.058</v>
       </c>
       <c r="F32" t="n">
-        <v>0.504</v>
+        <v>0.399</v>
       </c>
       <c r="G32" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="H32" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.059</v>
       </c>
       <c r="J32" t="n">
-        <v>0.446</v>
+        <v>0.385</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="P32" t="n">
-        <v>0.055</v>
+        <v>0.049</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.068</v>
+        <v>0.058</v>
       </c>
       <c r="R32" t="n">
-        <v>0.46</v>
+        <v>0.398</v>
       </c>
       <c r="S32" t="n">
         <v>13</v>
@@ -2426,52 +2426,52 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.004</v>
       </c>
-      <c r="D33" t="n">
+      <c r="H33" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.869</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="Q33" t="n">
         <v>0.045</v>
       </c>
-      <c r="E33" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.962</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.062</v>
-      </c>
       <c r="R33" t="n">
-        <v>0.836</v>
+        <v>0.928</v>
       </c>
       <c r="S33" t="n">
         <v>13</v>
@@ -2487,52 +2487,52 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.022</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.121</v>
+        <v>0.081</v>
       </c>
       <c r="E34" t="n">
-        <v>0.149</v>
+        <v>0.094</v>
       </c>
       <c r="F34" t="n">
-        <v>0.417</v>
+        <v>0.653</v>
       </c>
       <c r="G34" t="n">
-        <v>0.024</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0.125</v>
+        <v>0.081</v>
       </c>
       <c r="I34" t="n">
-        <v>0.156</v>
+        <v>0.092</v>
       </c>
       <c r="J34" t="n">
-        <v>0.359</v>
+        <v>0.665</v>
       </c>
       <c r="K34" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.867</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.022</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="P34" t="n">
-        <v>0.121</v>
+        <v>0.081</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.15</v>
+        <v>0.092</v>
       </c>
       <c r="R34" t="n">
-        <v>0.412</v>
+        <v>0.665</v>
       </c>
       <c r="S34" t="n">
         <v>13</v>

--- a/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
+++ b/training_features/2024-11-21_15-40-46/scores_llama3.1_8b_0-shot_100.xlsx
@@ -535,52 +535,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.132</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.143</v>
+        <v>0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.219</v>
+        <v>-0.457</v>
       </c>
       <c r="G2" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="H2" t="n">
-        <v>0.083</v>
+        <v>0.052</v>
       </c>
       <c r="I2" t="n">
-        <v>0.089</v>
+        <v>0.058</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.817</v>
+        <v>0.782</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.336</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="P2" t="n">
-        <v>0.065</v>
+        <v>0.047</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.073</v>
+        <v>0.058</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.904</v>
+        <v>0.778</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
@@ -596,52 +596,52 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.846</v>
+        <v>0.775</v>
       </c>
       <c r="G3" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.001</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.972</v>
       </c>
       <c r="O3" t="n">
-        <v>0.047</v>
+        <v>0.02</v>
       </c>
       <c r="P3" t="n">
-        <v>0.164</v>
+        <v>0.126</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.216</v>
+        <v>0.142</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.002</v>
+        <v>0.604</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
@@ -657,52 +657,52 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.101</v>
+        <v>0.14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.181</v>
+        <v>0.186</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.406</v>
+        <v>-0.443</v>
       </c>
       <c r="G4" t="n">
-        <v>0.297</v>
+        <v>1.281</v>
       </c>
       <c r="H4" t="n">
-        <v>0.385</v>
+        <v>0.83</v>
       </c>
       <c r="I4" t="n">
-        <v>0.545</v>
+        <v>1.132</v>
       </c>
       <c r="J4" t="n">
-        <v>-11.747</v>
+        <v>-52.167</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="O4" t="n">
-        <v>0.029</v>
+        <v>0.043</v>
       </c>
       <c r="P4" t="n">
-        <v>0.095</v>
+        <v>0.137</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.169</v>
+        <v>0.207</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.228</v>
+        <v>-0.783</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
@@ -718,52 +718,52 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.092</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.11</v>
+        <v>0.093</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.157</v>
+        <v>0.363</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="H5" t="n">
-        <v>0.083</v>
+        <v>0.057</v>
       </c>
       <c r="I5" t="n">
-        <v>0.102</v>
+        <v>0.075</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007</v>
+        <v>0.59</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.077</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="P5" t="n">
-        <v>0.082</v>
+        <v>0.046</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.101</v>
+        <v>0.06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.037</v>
+        <v>0.734</v>
       </c>
       <c r="S5" t="n">
         <v>4</v>
@@ -779,40 +779,40 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.001</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="H6" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.036</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3.851934984443342e+18</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1057411520.636</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1962634704.789</v>
-      </c>
       <c r="J6" t="n">
-        <v>-4.034809916413708e+20</v>
+        <v>0.927</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.326</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0.007</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="R6" t="n">
-        <v>0.994</v>
+        <v>0.997</v>
       </c>
       <c r="S6" t="n">
         <v>4</v>
@@ -840,52 +840,52 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.029</v>
+        <v>0.059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.162</v>
+        <v>0.205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.171</v>
+        <v>0.244</v>
       </c>
       <c r="F7" t="n">
-        <v>0.063</v>
+        <v>-0.104</v>
       </c>
       <c r="G7" t="n">
-        <v>0.247</v>
+        <v>0.021</v>
       </c>
       <c r="H7" t="n">
-        <v>0.363</v>
+        <v>0.111</v>
       </c>
       <c r="I7" t="n">
-        <v>0.497</v>
+        <v>0.144</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.869</v>
+        <v>0.617</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.178</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.412</v>
       </c>
       <c r="O7" t="n">
-        <v>0.091</v>
+        <v>0.054</v>
       </c>
       <c r="P7" t="n">
-        <v>0.25</v>
+        <v>0.196</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.301</v>
+        <v>0.233</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.897</v>
+        <v>-0.011</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
@@ -901,52 +901,52 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="D8" t="n">
-        <v>0.089</v>
+        <v>0.067</v>
       </c>
       <c r="E8" t="n">
-        <v>0.096</v>
+        <v>0.073</v>
       </c>
       <c r="F8" t="n">
-        <v>0.382</v>
+        <v>0.287</v>
       </c>
       <c r="G8" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.007</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="P8" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.082</v>
+        <v>0.067</v>
       </c>
       <c r="R8" t="n">
-        <v>0.556</v>
+        <v>0.408</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.063</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.847</v>
+        <v>0.713</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H9" t="n">
-        <v>0.083</v>
+        <v>0.074</v>
       </c>
       <c r="I9" t="n">
-        <v>0.091</v>
+        <v>0.102</v>
       </c>
       <c r="J9" t="n">
-        <v>0.824</v>
+        <v>0.459</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.158</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-0.308</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.081</v>
+        <v>0.061</v>
       </c>
       <c r="R9" t="n">
-        <v>0.86</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1023,52 +1023,52 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.021</v>
+        <v>0.051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.128</v>
+        <v>0.202</v>
       </c>
       <c r="E10" t="n">
-        <v>0.145</v>
+        <v>0.225</v>
       </c>
       <c r="F10" t="n">
-        <v>0.225</v>
+        <v>-2.134</v>
       </c>
       <c r="G10" t="n">
-        <v>34.212</v>
+        <v>0.016</v>
       </c>
       <c r="H10" t="n">
-        <v>2.959</v>
+        <v>0.112</v>
       </c>
       <c r="I10" t="n">
-        <v>5.849</v>
+        <v>0.127</v>
       </c>
       <c r="J10" t="n">
-        <v>-1254.077</v>
+        <v>-0.006</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.193</v>
       </c>
       <c r="O10" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.116</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.107</v>
+        <v>0.134</v>
       </c>
       <c r="R10" t="n">
-        <v>0.577</v>
+        <v>-0.113</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1084,52 +1084,52 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="D11" t="n">
-        <v>0.056</v>
+        <v>0.063</v>
       </c>
       <c r="E11" t="n">
-        <v>0.065</v>
+        <v>0.077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.175</v>
+        <v>0.477</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="H11" t="n">
-        <v>0.062</v>
+        <v>0.073</v>
       </c>
       <c r="I11" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="P11" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="J11" t="n">
-        <v>-0.026</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.055</v>
-      </c>
       <c r="Q11" t="n">
-        <v>0.063</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="R11" t="n">
-        <v>0.21</v>
+        <v>0.336</v>
       </c>
       <c r="S11" t="n">
         <v>6</v>
@@ -1148,49 +1148,49 @@
         <v>0.003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="E12" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="F12" t="n">
-        <v>0.862</v>
+        <v>0.888</v>
       </c>
       <c r="G12" t="n">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
       <c r="H12" t="n">
-        <v>0.073</v>
+        <v>0.1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.116</v>
+        <v>0.172</v>
       </c>
       <c r="J12" t="n">
-        <v>0.284</v>
+        <v>-0.099</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.145</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="P12" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="R12" t="n">
-        <v>0.876</v>
+        <v>0.906</v>
       </c>
       <c r="S12" t="n">
         <v>6</v>
@@ -1206,52 +1206,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="D13" t="n">
-        <v>0.111</v>
+        <v>0.104</v>
       </c>
       <c r="E13" t="n">
-        <v>0.135</v>
+        <v>0.129</v>
       </c>
       <c r="F13" t="n">
-        <v>0.375</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="H13" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="I13" t="n">
-        <v>0.153</v>
+        <v>0.143</v>
       </c>
       <c r="J13" t="n">
-        <v>0.198</v>
+        <v>0.461</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.097</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.751</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="P13" t="n">
-        <v>0.111</v>
+        <v>0.106</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.14</v>
+        <v>0.132</v>
       </c>
       <c r="R13" t="n">
-        <v>0.323</v>
+        <v>0.54</v>
       </c>
       <c r="S13" t="n">
         <v>6</v>
@@ -1267,52 +1267,52 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.003</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.535</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="P14" t="n">
-        <v>0.045</v>
+        <v>0.059</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.055</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>0.492</v>
+        <v>0.403</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1328,52 +1328,52 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.035</v>
+        <v>0.046</v>
       </c>
       <c r="E15" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="F15" t="n">
-        <v>0.947</v>
+        <v>0.867</v>
       </c>
       <c r="G15" t="n">
+        <v>5.809163531390327e+17</v>
+      </c>
+      <c r="H15" t="n">
+        <v>184855484.644</v>
+      </c>
+      <c r="I15" t="n">
+        <v>762178688.4579999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-2.515554454275579e+19</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.003</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.927</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.002</v>
-      </c>
       <c r="P15" t="n">
-        <v>0.033</v>
+        <v>0.046</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="R15" t="n">
-        <v>0.949</v>
+        <v>0.868</v>
       </c>
       <c r="S15" t="n">
         <v>7</v>
@@ -1389,52 +1389,52 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.02</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.024</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.255</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.958</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02</v>
+        <v>0.014</v>
       </c>
       <c r="P16" t="n">
-        <v>0.124</v>
+        <v>0.111</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.142</v>
+        <v>0.12</v>
       </c>
       <c r="R16" t="n">
-        <v>0.357</v>
+        <v>0.42</v>
       </c>
       <c r="S16" t="n">
         <v>7</v>
@@ -1450,52 +1450,52 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.004</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.431</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.053</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.618</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="P17" t="n">
-        <v>0.053</v>
+        <v>0.074</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.067</v>
+        <v>0.09</v>
       </c>
       <c r="R17" t="n">
-        <v>0.387</v>
+        <v>0.317</v>
       </c>
       <c r="S17" t="n">
         <v>8</v>
@@ -1514,49 +1514,49 @@
         <v>0.003</v>
       </c>
       <c r="D18" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="E18" t="n">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="F18" t="n">
-        <v>0.913</v>
+        <v>0.863</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006</v>
+        <v>0.101</v>
       </c>
       <c r="H18" t="n">
-        <v>0.057</v>
+        <v>0.135</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08</v>
+        <v>0.317</v>
       </c>
       <c r="J18" t="n">
-        <v>0.803</v>
+        <v>-3.44</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.896</v>
       </c>
       <c r="O18" t="n">
         <v>0.003</v>
       </c>
       <c r="P18" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="R18" t="n">
-        <v>0.913</v>
+        <v>0.867</v>
       </c>
       <c r="S18" t="n">
         <v>8</v>
@@ -1572,52 +1572,52 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="D19" t="n">
-        <v>0.118</v>
+        <v>0.106</v>
       </c>
       <c r="E19" t="n">
-        <v>0.132</v>
+        <v>0.113</v>
       </c>
       <c r="F19" t="n">
-        <v>0.296</v>
+        <v>0.437</v>
       </c>
       <c r="G19" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.101</v>
       </c>
       <c r="I19" t="n">
-        <v>0.135</v>
+        <v>0.108</v>
       </c>
       <c r="J19" t="n">
-        <v>0.272</v>
+        <v>0.486</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.772</v>
       </c>
       <c r="O19" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="P19" t="n">
-        <v>0.117</v>
+        <v>0.105</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.132</v>
+        <v>0.112</v>
       </c>
       <c r="R19" t="n">
-        <v>0.301</v>
+        <v>0.447</v>
       </c>
       <c r="S19" t="n">
         <v>8</v>
@@ -1633,52 +1633,52 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D20" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.05</v>
       </c>
-      <c r="E20" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.555</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.054</v>
-      </c>
       <c r="I20" t="n">
-        <v>0.063</v>
+        <v>0.056</v>
       </c>
       <c r="J20" t="n">
-        <v>0.542</v>
+        <v>0.36</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.654</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.063</v>
+        <v>0.056</v>
       </c>
       <c r="R20" t="n">
-        <v>0.544</v>
+        <v>0.365</v>
       </c>
       <c r="S20" t="n">
         <v>9</v>
@@ -1694,52 +1694,52 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="D21" t="n">
-        <v>0.041</v>
+        <v>0.052</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05</v>
+        <v>0.064</v>
       </c>
       <c r="F21" t="n">
-        <v>0.859</v>
+        <v>0.829</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003</v>
+        <v>0.021</v>
       </c>
       <c r="H21" t="n">
-        <v>0.043</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.052</v>
+        <v>0.146</v>
       </c>
       <c r="J21" t="n">
-        <v>0.849</v>
+        <v>0.103</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="P21" t="n">
-        <v>0.043</v>
+        <v>0.054</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.053</v>
+        <v>0.068</v>
       </c>
       <c r="R21" t="n">
-        <v>0.843</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="S21" t="n">
         <v>9</v>
@@ -1755,52 +1755,52 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="D22" t="n">
-        <v>0.097</v>
+        <v>0.101</v>
       </c>
       <c r="E22" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.109</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.098</v>
-      </c>
       <c r="I22" t="n">
-        <v>0.111</v>
+        <v>0.123</v>
       </c>
       <c r="J22" t="n">
-        <v>0.48</v>
+        <v>0.481</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.064</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.859</v>
       </c>
       <c r="O22" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="P22" t="n">
-        <v>0.099</v>
+        <v>0.103</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.109</v>
+        <v>0.118</v>
       </c>
       <c r="R22" t="n">
-        <v>0.502</v>
+        <v>0.526</v>
       </c>
       <c r="S22" t="n">
         <v>9</v>
@@ -1816,52 +1816,52 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D23" t="n">
-        <v>0.057</v>
+        <v>0.048</v>
       </c>
       <c r="E23" t="n">
-        <v>0.067</v>
+        <v>0.056</v>
       </c>
       <c r="F23" t="n">
-        <v>0.326</v>
+        <v>0.498</v>
       </c>
       <c r="G23" t="n">
         <v>0.004</v>
       </c>
       <c r="H23" t="n">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="I23" t="n">
-        <v>0.067</v>
+        <v>0.06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.328</v>
+        <v>0.433</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="P23" t="n">
-        <v>0.059</v>
+        <v>0.049</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.068</v>
+        <v>0.057</v>
       </c>
       <c r="R23" t="n">
-        <v>0.296</v>
+        <v>0.492</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -1880,49 +1880,49 @@
         <v>0.002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="E24" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="F24" t="n">
-        <v>0.842</v>
+        <v>0.91</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007</v>
+        <v>111.405</v>
       </c>
       <c r="H24" t="n">
-        <v>0.045</v>
+        <v>3.52</v>
       </c>
       <c r="I24" t="n">
-        <v>0.082</v>
+        <v>10.555</v>
       </c>
       <c r="J24" t="n">
-        <v>0.444</v>
+        <v>-5789.586</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="O24" t="n">
         <v>0.002</v>
       </c>
       <c r="P24" t="n">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="R24" t="n">
-        <v>0.842</v>
+        <v>0.909</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -1938,52 +1938,52 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="D25" t="n">
-        <v>0.099</v>
+        <v>0.124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.111</v>
+        <v>0.14</v>
       </c>
       <c r="F25" t="n">
-        <v>0.537</v>
+        <v>0.245</v>
       </c>
       <c r="G25" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="H25" t="n">
-        <v>0.099</v>
+        <v>0.121</v>
       </c>
       <c r="I25" t="n">
-        <v>0.108</v>
+        <v>0.135</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.728</v>
       </c>
       <c r="O25" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="P25" t="n">
-        <v>0.097</v>
+        <v>0.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.11</v>
+        <v>0.134</v>
       </c>
       <c r="R25" t="n">
-        <v>0.551</v>
+        <v>0.302</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -1999,52 +1999,52 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="D26" t="n">
-        <v>0.053</v>
+        <v>0.047</v>
       </c>
       <c r="E26" t="n">
-        <v>0.064</v>
+        <v>0.056</v>
       </c>
       <c r="F26" t="n">
-        <v>0.346</v>
+        <v>0.376</v>
       </c>
       <c r="G26" t="n">
         <v>0.004</v>
       </c>
       <c r="H26" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0.057</v>
       </c>
-      <c r="I26" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.309</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.065</v>
-      </c>
       <c r="R26" t="n">
-        <v>0.329</v>
+        <v>0.369</v>
       </c>
       <c r="S26" t="n">
         <v>11</v>
@@ -2063,49 +2063,49 @@
         <v>0.002</v>
       </c>
       <c r="D27" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="E27" t="n">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="F27" t="n">
-        <v>0.923</v>
+        <v>0.897</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002</v>
+        <v>0.028</v>
       </c>
       <c r="H27" t="n">
-        <v>0.037</v>
+        <v>0.076</v>
       </c>
       <c r="I27" t="n">
-        <v>0.043</v>
+        <v>0.166</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9330000000000001</v>
+        <v>-0.237</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>0.946</v>
       </c>
       <c r="O27" t="n">
         <v>0.002</v>
       </c>
       <c r="P27" t="n">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="R27" t="n">
-        <v>0.917</v>
+        <v>0.9</v>
       </c>
       <c r="S27" t="n">
         <v>11</v>
@@ -2124,49 +2124,49 @@
         <v>0.011</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E28" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="I28" t="n">
         <v>0.102</v>
       </c>
-      <c r="F28" t="n">
+      <c r="J28" t="n">
         <v>0.5669999999999999</v>
       </c>
-      <c r="G28" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.532</v>
-      </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.845</v>
       </c>
       <c r="O28" t="n">
         <v>0.011</v>
       </c>
       <c r="P28" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.092</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="S28" t="n">
         <v>11</v>
@@ -2185,49 +2185,49 @@
         <v>0.003</v>
       </c>
       <c r="D29" t="n">
-        <v>0.051</v>
+        <v>0.045</v>
       </c>
       <c r="E29" t="n">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="F29" t="n">
-        <v>0.451</v>
+        <v>0.406</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="H29" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="I29" t="n">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="J29" t="n">
-        <v>0.431</v>
+        <v>0.366</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.032</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.042</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.633</v>
       </c>
       <c r="O29" t="n">
         <v>0.003</v>
       </c>
       <c r="P29" t="n">
-        <v>0.051</v>
+        <v>0.046</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.059</v>
+        <v>0.054</v>
       </c>
       <c r="R29" t="n">
-        <v>0.444</v>
+        <v>0.398</v>
       </c>
       <c r="S29" t="n">
         <v>12</v>
@@ -2246,37 +2246,37 @@
         <v>0.002</v>
       </c>
       <c r="D30" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="E30" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="F30" t="n">
-        <v>0.929</v>
+        <v>0.926</v>
       </c>
       <c r="G30" t="n">
         <v>0.002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="I30" t="n">
         <v>0.049</v>
       </c>
       <c r="J30" t="n">
-        <v>0.913</v>
+        <v>0.899</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.979</v>
       </c>
       <c r="O30" t="n">
         <v>0.002</v>
@@ -2285,10 +2285,10 @@
         <v>0.035</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="R30" t="n">
-        <v>0.926</v>
+        <v>0.925</v>
       </c>
       <c r="S30" t="n">
         <v>12</v>
@@ -2307,49 +2307,49 @@
         <v>0.011</v>
       </c>
       <c r="D31" t="n">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
       <c r="E31" t="n">
-        <v>0.107</v>
+        <v>0.103</v>
       </c>
       <c r="F31" t="n">
-        <v>0.628</v>
+        <v>0.477</v>
       </c>
       <c r="G31" t="n">
         <v>0.011</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="I31" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="J31" t="n">
-        <v>0.648</v>
+        <v>0.444</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="O31" t="n">
         <v>0.011</v>
       </c>
       <c r="P31" t="n">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.107</v>
+        <v>0.104</v>
       </c>
       <c r="R31" t="n">
-        <v>0.626</v>
+        <v>0.462</v>
       </c>
       <c r="S31" t="n">
         <v>12</v>
@@ -2368,49 +2368,49 @@
         <v>0.003</v>
       </c>
       <c r="D32" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="E32" t="n">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="F32" t="n">
-        <v>0.399</v>
+        <v>0.294</v>
       </c>
       <c r="G32" t="n">
         <v>0.003</v>
       </c>
       <c r="H32" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="I32" t="n">
-        <v>0.059</v>
+        <v>0.055</v>
       </c>
       <c r="J32" t="n">
-        <v>0.385</v>
+        <v>0.271</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.034</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.513</v>
       </c>
       <c r="O32" t="n">
         <v>0.003</v>
       </c>
       <c r="P32" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.058</v>
+        <v>0.055</v>
       </c>
       <c r="R32" t="n">
-        <v>0.398</v>
+        <v>0.267</v>
       </c>
       <c r="S32" t="n">
         <v>13</v>
@@ -2429,49 +2429,49 @@
         <v>0.002</v>
       </c>
       <c r="D33" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="E33" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I33" t="n">
         <v>0.045</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.928</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.061</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.869</v>
+        <v>0.905</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.982</v>
       </c>
       <c r="O33" t="n">
         <v>0.002</v>
       </c>
       <c r="P33" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="R33" t="n">
-        <v>0.928</v>
+        <v>0.901</v>
       </c>
       <c r="S33" t="n">
         <v>13</v>
@@ -2487,52 +2487,52 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="D34" t="n">
-        <v>0.081</v>
+        <v>0.09</v>
       </c>
       <c r="E34" t="n">
-        <v>0.094</v>
+        <v>0.104</v>
       </c>
       <c r="F34" t="n">
-        <v>0.653</v>
+        <v>0.576</v>
       </c>
       <c r="G34" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H34" t="n">
-        <v>0.081</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>0.092</v>
+        <v>0.1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.665</v>
+        <v>0.613</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.973</v>
       </c>
       <c r="O34" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="P34" t="n">
-        <v>0.081</v>
+        <v>0.089</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.092</v>
+        <v>0.103</v>
       </c>
       <c r="R34" t="n">
-        <v>0.665</v>
+        <v>0.584</v>
       </c>
       <c r="S34" t="n">
         <v>13</v>
